--- a/data/mod_res.xlsx
+++ b/data/mod_res.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z101"/>
+  <dimension ref="A1:Y101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,115 +375,110 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>a</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>b</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>dlag50</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>dlag50</t>
+          <t>t50</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>t50</t>
+          <t>t50germ</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>t50germ</t>
+          <t>txtot10</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>txtot10</t>
+          <t>txtot70</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>txtot70</t>
+          <t>txger10</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>txger10</t>
+          <t>txger70</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>txger70</t>
+          <t>tmgr</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>tmgr</t>
+          <t>mgt</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>mgt</t>
+          <t>auc</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>auc</t>
+          <t>ivg</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>ivg</t>
+          <t>timson</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>timson</t>
+          <t>meangermtime</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>meangermtime</t>
+          <t>sync</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>sync</t>
+          <t>cugerm</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>cugerm</t>
+          <t>tt50</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>tt50</t>
+          <t>aic</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>aic</t>
+          <t>rmse</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>mae</t>
         </is>
@@ -501,64 +496,64 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>12.5</v>
+      </c>
       <c r="E2">
-        <v>12.5</v>
+        <v>155.1523502184269</v>
       </c>
       <c r="F2">
-        <v>155.1523502184269</v>
+        <v>5.477226183417972</v>
       </c>
       <c r="G2">
         <v>5.477226183417972</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5.477226183417972</v>
       </c>
       <c r="J2">
-        <v>5.477226183417972</v>
-      </c>
-      <c r="K2">
         <v>5.526384775984881</v>
       </c>
+      <c r="L2">
+        <v>5.40020588174016</v>
+      </c>
       <c r="M2">
-        <v>5.40020588174016</v>
+        <v>5.507219522870317</v>
       </c>
       <c r="N2">
-        <v>5.507219522870317</v>
+        <v>5.476771130475918</v>
       </c>
       <c r="O2">
-        <v>5.476771130475918</v>
+        <v>5.977600280483752</v>
       </c>
       <c r="P2">
-        <v>5.977600280483752</v>
+        <v>19.02999402837043</v>
       </c>
       <c r="Q2">
-        <v>19.02999402837043</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="R2">
-        <v>0.9285714285714286</v>
+        <v>37.5</v>
       </c>
       <c r="S2">
-        <v>37.5</v>
+        <v>6.5</v>
       </c>
       <c r="T2">
-        <v>6.5</v>
+        <v>0.4</v>
       </c>
       <c r="U2">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="V2">
-        <v>4</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="W2">
-        <v>6.166666666666667</v>
+        <v>-145.557336596668</v>
       </c>
       <c r="X2">
-        <v>-145.557336596668</v>
+        <v>4.811688115650528E-06</v>
       </c>
       <c r="Y2">
-        <v>4.811688115650528E-06</v>
-      </c>
-      <c r="Z2">
         <v>2.57195548258612E-06</v>
       </c>
     </row>
@@ -574,67 +569,67 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>62.49999999999999</v>
+      </c>
       <c r="E3">
-        <v>62.49999999999999</v>
+        <v>7.136683971907967</v>
       </c>
       <c r="F3">
-        <v>7.136683971907967</v>
+        <v>4.677868424502929</v>
       </c>
       <c r="G3">
         <v>4.677868424502929</v>
       </c>
       <c r="H3">
-        <v>4.677868424502929</v>
+        <v>5.68079751517284</v>
       </c>
       <c r="I3">
-        <v>5.68079751517284</v>
+        <v>4.67786842450293</v>
       </c>
       <c r="J3">
-        <v>4.67786842450293</v>
-      </c>
-      <c r="K3">
         <v>3.707989445007803</v>
       </c>
+      <c r="L3">
+        <v>3.438258245634204</v>
+      </c>
       <c r="M3">
-        <v>3.438258245634204</v>
+        <v>5.267557847182656</v>
       </c>
       <c r="N3">
-        <v>5.267557847182656</v>
+        <v>4.496568867818296</v>
       </c>
       <c r="O3">
-        <v>4.496568867818296</v>
+        <v>4.593637365919323</v>
       </c>
       <c r="P3">
-        <v>4.593637365919323</v>
+        <v>139.387734262009</v>
       </c>
       <c r="Q3">
-        <v>139.387734262009</v>
+        <v>7.742857142857143</v>
       </c>
       <c r="R3">
-        <v>7.742857142857143</v>
+        <v>387.5</v>
       </c>
       <c r="S3">
-        <v>387.5</v>
+        <v>5.837209302325581</v>
       </c>
       <c r="T3">
-        <v>5.837209302325581</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="U3">
-        <v>0.2558139534883721</v>
+        <v>0.7697751873438801</v>
       </c>
       <c r="V3">
-        <v>0.7697751873438801</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="W3">
-        <v>5.571428571428571</v>
+        <v>44.29839440436697</v>
       </c>
       <c r="X3">
-        <v>44.29839440436697</v>
+        <v>3.730943188003918</v>
       </c>
       <c r="Y3">
-        <v>3.730943188003918</v>
-      </c>
-      <c r="Z3">
         <v>2.948318847332908</v>
       </c>
     </row>
@@ -650,70 +645,70 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>83.33333333333333</v>
+      </c>
       <c r="E4">
-        <v>83.33333333333333</v>
+        <v>6.365419648676219</v>
       </c>
       <c r="F4">
-        <v>6.365419648676219</v>
+        <v>4.589598115714325</v>
       </c>
       <c r="G4">
         <v>4.589598115714325</v>
       </c>
       <c r="H4">
+        <v>4.891458687763336</v>
+      </c>
+      <c r="I4">
         <v>4.589598115714325</v>
       </c>
-      <c r="I4">
-        <v>4.891458687763336</v>
-      </c>
       <c r="J4">
-        <v>4.589598115714325</v>
+        <v>3.356114847391076</v>
       </c>
       <c r="K4">
-        <v>3.356114847391076</v>
+        <v>5.955398742590979</v>
       </c>
       <c r="L4">
-        <v>5.955398742590979</v>
+        <v>3.249857165328512</v>
       </c>
       <c r="M4">
-        <v>3.249857165328512</v>
+        <v>5.243042549465105</v>
       </c>
       <c r="N4">
-        <v>5.243042549465105</v>
+        <v>4.366755068651332</v>
       </c>
       <c r="O4">
-        <v>4.366755068651332</v>
+        <v>4.438900768834865</v>
       </c>
       <c r="P4">
-        <v>4.438900768834865</v>
+        <v>192.0686800096043</v>
       </c>
       <c r="Q4">
-        <v>192.0686800096043</v>
+        <v>10.25714285714286</v>
       </c>
       <c r="R4">
-        <v>10.25714285714286</v>
+        <v>516.6666666666667</v>
       </c>
       <c r="S4">
-        <v>516.6666666666667</v>
+        <v>5.824561403508772</v>
       </c>
       <c r="T4">
-        <v>5.824561403508772</v>
+        <v>0.2556390977443609</v>
       </c>
       <c r="U4">
-        <v>0.2556390977443609</v>
+        <v>0.7889752306945118</v>
       </c>
       <c r="V4">
-        <v>0.7889752306945118</v>
+        <v>5.529411764705882</v>
       </c>
       <c r="W4">
-        <v>5.529411764705882</v>
+        <v>39.04642505841807</v>
       </c>
       <c r="X4">
-        <v>39.04642505841807</v>
+        <v>2.563876573244293</v>
       </c>
       <c r="Y4">
-        <v>2.563876573244293</v>
-      </c>
-      <c r="Z4">
         <v>1.771562492403543</v>
       </c>
     </row>
@@ -729,70 +724,70 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>70.83333333333333</v>
+      </c>
       <c r="E5">
-        <v>70.83333333333333</v>
+        <v>12.96288709455819</v>
       </c>
       <c r="F5">
-        <v>12.96288709455819</v>
+        <v>4.744606560601031</v>
       </c>
       <c r="G5">
         <v>4.744606560601031</v>
       </c>
       <c r="H5">
+        <v>5.076109222251117</v>
+      </c>
+      <c r="I5">
         <v>4.744606560601031</v>
       </c>
-      <c r="I5">
-        <v>5.076109222251117</v>
-      </c>
       <c r="J5">
-        <v>4.744606560601031</v>
+        <v>4.127707614073764</v>
       </c>
       <c r="K5">
-        <v>4.127707614073764</v>
+        <v>6.677985564283013</v>
       </c>
       <c r="L5">
-        <v>6.677985564283013</v>
+        <v>4.004854852440255</v>
       </c>
       <c r="M5">
-        <v>4.004854852440255</v>
+        <v>5.065089826796018</v>
       </c>
       <c r="N5">
-        <v>5.065089826796018</v>
+        <v>4.688359042381968</v>
       </c>
       <c r="O5">
-        <v>4.688359042381968</v>
+        <v>5.14351508983751</v>
       </c>
       <c r="P5">
-        <v>5.14351508983751</v>
+        <v>156.7115976725847</v>
       </c>
       <c r="Q5">
-        <v>156.7115976725847</v>
+        <v>7.961904761904762</v>
       </c>
       <c r="R5">
-        <v>7.961904761904762</v>
+        <v>383.3333333333334</v>
       </c>
       <c r="S5">
-        <v>383.3333333333334</v>
+        <v>6.042553191489362</v>
       </c>
       <c r="T5">
-        <v>6.042553191489362</v>
+        <v>0.303422756706753</v>
       </c>
       <c r="U5">
-        <v>0.303422756706753</v>
+        <v>1.308649289099526</v>
       </c>
       <c r="V5">
-        <v>1.308649289099526</v>
+        <v>5.647058823529412</v>
       </c>
       <c r="W5">
-        <v>5.647058823529412</v>
+        <v>30.63717466207036</v>
       </c>
       <c r="X5">
-        <v>30.63717466207036</v>
+        <v>1.406155882798661</v>
       </c>
       <c r="Y5">
-        <v>1.406155882798661</v>
-      </c>
-      <c r="Z5">
         <v>0.913017511590178</v>
       </c>
     </row>
@@ -808,70 +803,70 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
       <c r="E6">
-        <v>75</v>
+        <v>9.47134242015148</v>
       </c>
       <c r="F6">
-        <v>9.47134242015148</v>
+        <v>4.992960671361815</v>
       </c>
       <c r="G6">
         <v>4.992960671361815</v>
       </c>
       <c r="H6">
-        <v>4.992960671361815</v>
+        <v>5.372066623867273</v>
       </c>
       <c r="I6">
-        <v>5.372066623867273</v>
+        <v>4.992960671361814</v>
       </c>
       <c r="J6">
-        <v>4.992960671361814</v>
+        <v>4.097598558215187</v>
       </c>
       <c r="K6">
-        <v>4.097598558215187</v>
+        <v>6.597330470619449</v>
       </c>
       <c r="L6">
-        <v>6.597330470619449</v>
+        <v>3.959201839454488</v>
       </c>
       <c r="M6">
-        <v>3.959201839454488</v>
+        <v>5.46021498985529</v>
       </c>
       <c r="N6">
-        <v>5.46021498985529</v>
+        <v>4.882467271347094</v>
       </c>
       <c r="O6">
-        <v>4.882467271347094</v>
+        <v>4.94658912383333</v>
       </c>
       <c r="P6">
-        <v>4.94658912383333</v>
+        <v>146.0504962290354</v>
       </c>
       <c r="Q6">
-        <v>146.0504962290354</v>
+        <v>7.154761904761905</v>
       </c>
       <c r="R6">
-        <v>7.154761904761905</v>
+        <v>333.3333333333334</v>
       </c>
       <c r="S6">
-        <v>333.3333333333334</v>
+        <v>6.13953488372093</v>
       </c>
       <c r="T6">
-        <v>6.13953488372093</v>
+        <v>0.3200442967884828</v>
       </c>
       <c r="U6">
-        <v>0.3200442967884828</v>
+        <v>1.379850746268657</v>
       </c>
       <c r="V6">
-        <v>1.379850746268657</v>
+        <v>5.785714285714286</v>
       </c>
       <c r="W6">
-        <v>5.785714285714286</v>
+        <v>42.01894474898707</v>
       </c>
       <c r="X6">
-        <v>42.01894474898707</v>
+        <v>3.170353939767978</v>
       </c>
       <c r="Y6">
-        <v>3.170353939767978</v>
-      </c>
-      <c r="Z6">
         <v>2.421163040806701</v>
       </c>
     </row>
@@ -887,64 +882,64 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="D7">
+        <v>12.5</v>
+      </c>
       <c r="E7">
-        <v>12.5</v>
+        <v>112.6032697976963</v>
       </c>
       <c r="F7">
-        <v>112.6032697976963</v>
+        <v>5.96317949768241</v>
       </c>
       <c r="G7">
         <v>5.96317949768241</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>5.96317949768241</v>
       </c>
       <c r="J7">
-        <v>5.96317949768241</v>
-      </c>
-      <c r="K7">
         <v>6.037047856138225</v>
       </c>
+      <c r="L7">
+        <v>5.847948046741445</v>
+      </c>
       <c r="M7">
-        <v>5.847948046741445</v>
+        <v>6.008219454679089</v>
       </c>
       <c r="N7">
-        <v>6.008219454679089</v>
+        <v>5.962238945187655</v>
       </c>
       <c r="O7">
-        <v>5.962238945187655</v>
+        <v>6.309909325157341</v>
       </c>
       <c r="P7">
-        <v>6.309909325157341</v>
+        <v>12.9505852358919</v>
       </c>
       <c r="Q7">
-        <v>12.9505852358919</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="R7">
-        <v>0.7619047619047619</v>
+        <v>29.16666666666666</v>
       </c>
       <c r="S7">
-        <v>29.16666666666666</v>
+        <v>6.6</v>
       </c>
       <c r="T7">
-        <v>6.6</v>
+        <v>0.4</v>
       </c>
       <c r="U7">
-        <v>0.4</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="V7">
-        <v>4.166666666666666</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="W7">
-        <v>6.333333333333333</v>
+        <v>-204.8963667578089</v>
       </c>
       <c r="X7">
-        <v>-204.8963667578089</v>
+        <v>6.942875415857742E-08</v>
       </c>
       <c r="Y7">
-        <v>6.942875415857742E-08</v>
-      </c>
-      <c r="Z7">
         <v>3.157354738058712E-08</v>
       </c>
     </row>
@@ -960,69 +955,69 @@
       <c r="C8">
         <v>1</v>
       </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
       <c r="E8">
-        <v>50</v>
+        <v>10.25924675753948</v>
       </c>
       <c r="F8">
-        <v>10.25924675753948</v>
+        <v>4.749618372551072</v>
       </c>
       <c r="G8">
         <v>4.749618372551072</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
+      </c>
+      <c r="I8">
         <v>4.749618372551072</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
-      </c>
       <c r="J8">
-        <v>4.749618372551072</v>
-      </c>
-      <c r="K8">
         <v>4.149292933980491</v>
       </c>
+      <c r="L8">
+        <v>3.833944261487812</v>
+      </c>
       <c r="M8">
-        <v>3.833944261487812</v>
+        <v>5.158536797726676</v>
       </c>
       <c r="N8">
-        <v>5.158536797726676</v>
+        <v>4.659936210571834</v>
       </c>
       <c r="O8">
-        <v>4.659936210571834</v>
+        <v>4.996994061811813</v>
       </c>
       <c r="P8">
-        <v>4.996994061811813</v>
+        <v>109.4674226756194</v>
       </c>
       <c r="Q8">
-        <v>109.4674226756194</v>
+        <v>6.280952380952381</v>
       </c>
       <c r="R8">
-        <v>6.280952380952381</v>
+        <v>312.5</v>
       </c>
       <c r="S8">
-        <v>312.5</v>
+        <v>5.857142857142857</v>
       </c>
       <c r="T8">
-        <v>5.857142857142857</v>
+        <v>0.2605042016806723</v>
       </c>
       <c r="U8">
-        <v>0.2605042016806723</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="V8">
-        <v>0.7903225806451613</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="W8">
-        <v>5.583333333333333</v>
+        <v>43.47528582446211</v>
       </c>
       <c r="X8">
-        <v>43.47528582446211</v>
+        <v>3.517911878013463</v>
       </c>
       <c r="Y8">
-        <v>3.517911878013463</v>
-      </c>
-      <c r="Z8">
         <v>2.323242741799769</v>
       </c>
     </row>
@@ -1038,67 +1033,67 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>54.16666666666666</v>
+      </c>
       <c r="E9">
-        <v>54.16666666666666</v>
+        <v>10.71220994864787</v>
       </c>
       <c r="F9">
-        <v>10.71220994864787</v>
+        <v>4.84982752833444</v>
       </c>
       <c r="G9">
         <v>4.84982752833444</v>
       </c>
       <c r="H9">
+        <v>6.1160270149042</v>
+      </c>
+      <c r="I9">
         <v>4.84982752833444</v>
       </c>
-      <c r="I9">
-        <v>6.1160270149042</v>
-      </c>
       <c r="J9">
-        <v>4.84982752833444</v>
-      </c>
-      <c r="K9">
         <v>4.221879132186773</v>
       </c>
+      <c r="L9">
+        <v>3.950448476632201</v>
+      </c>
       <c r="M9">
-        <v>3.950448476632201</v>
+        <v>5.249010595192723</v>
       </c>
       <c r="N9">
-        <v>5.249010595192723</v>
+        <v>4.765789800290963</v>
       </c>
       <c r="O9">
-        <v>4.765789800290963</v>
+        <v>5.064584324681457</v>
       </c>
       <c r="P9">
-        <v>5.064584324681457</v>
+        <v>113.4228642432531</v>
       </c>
       <c r="Q9">
-        <v>113.4228642432531</v>
+        <v>5.54047619047619</v>
       </c>
       <c r="R9">
-        <v>5.54047619047619</v>
+        <v>262.5</v>
       </c>
       <c r="S9">
-        <v>262.5</v>
+        <v>6.090909090909091</v>
       </c>
       <c r="T9">
-        <v>6.090909090909091</v>
+        <v>0.3049242424242424</v>
       </c>
       <c r="U9">
-        <v>0.3049242424242424</v>
+        <v>1.334558823529412</v>
       </c>
       <c r="V9">
-        <v>1.334558823529412</v>
+        <v>5.727272727272728</v>
       </c>
       <c r="W9">
-        <v>5.727272727272728</v>
+        <v>32.98030817816717</v>
       </c>
       <c r="X9">
-        <v>32.98030817816717</v>
+        <v>1.662340146866858</v>
       </c>
       <c r="Y9">
-        <v>1.662340146866858</v>
-      </c>
-      <c r="Z9">
         <v>1.209728321390435</v>
       </c>
     </row>
@@ -1114,70 +1109,70 @@
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="D10">
+        <v>70.83333333333333</v>
+      </c>
       <c r="E10">
-        <v>70.83333333333333</v>
+        <v>7.676829175189007</v>
       </c>
       <c r="F10">
-        <v>7.676829175189007</v>
+        <v>4.693676823902614</v>
       </c>
       <c r="G10">
         <v>4.693676823902614</v>
       </c>
       <c r="H10">
+        <v>5.260660846555814</v>
+      </c>
+      <c r="I10">
         <v>4.693676823902614</v>
       </c>
-      <c r="I10">
-        <v>5.260660846555814</v>
-      </c>
       <c r="J10">
-        <v>4.693676823902614</v>
+        <v>3.709960100909427</v>
       </c>
       <c r="K10">
-        <v>3.709960100909427</v>
+        <v>8.359376231769698</v>
       </c>
       <c r="L10">
-        <v>8.359376231769698</v>
+        <v>3.525425460906368</v>
       </c>
       <c r="M10">
-        <v>3.525425460906368</v>
+        <v>5.24139171265962</v>
       </c>
       <c r="N10">
-        <v>5.24139171265962</v>
+        <v>4.536182885369666</v>
       </c>
       <c r="O10">
-        <v>4.536182885369666</v>
+        <v>4.687169823039159</v>
       </c>
       <c r="P10">
-        <v>4.687169823039159</v>
+        <v>157.2806639760778</v>
       </c>
       <c r="Q10">
-        <v>157.2806639760778</v>
+        <v>8.145238095238096</v>
       </c>
       <c r="R10">
-        <v>8.145238095238096</v>
+        <v>400</v>
       </c>
       <c r="S10">
-        <v>400</v>
+        <v>5.957446808510638</v>
       </c>
       <c r="T10">
-        <v>5.957446808510638</v>
+        <v>0.2793709528214616</v>
       </c>
       <c r="U10">
-        <v>0.2793709528214616</v>
+        <v>1.023632993512511</v>
       </c>
       <c r="V10">
-        <v>1.023632993512511</v>
+        <v>5.625</v>
       </c>
       <c r="W10">
-        <v>5.625</v>
+        <v>44.80049562417651</v>
       </c>
       <c r="X10">
-        <v>44.80049562417651</v>
+        <v>3.867179538635936</v>
       </c>
       <c r="Y10">
-        <v>3.867179538635936</v>
-      </c>
-      <c r="Z10">
         <v>3.108294629836124</v>
       </c>
     </row>
@@ -1193,67 +1188,67 @@
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11">
+        <v>54.16666666666667</v>
+      </c>
       <c r="E11">
-        <v>54.16666666666667</v>
+        <v>11.51411098234757</v>
       </c>
       <c r="F11">
-        <v>11.51411098234757</v>
+        <v>5.654110438887034</v>
       </c>
       <c r="G11">
         <v>5.654110438887034</v>
       </c>
       <c r="H11">
-        <v>5.654110438887034</v>
+        <v>7.016024999018521</v>
       </c>
       <c r="I11">
-        <v>7.016024999018521</v>
+        <v>5.654110438887035</v>
       </c>
       <c r="J11">
-        <v>5.654110438887035</v>
-      </c>
-      <c r="K11">
         <v>4.96978784120081</v>
       </c>
+      <c r="L11">
+        <v>4.671844400285392</v>
+      </c>
       <c r="M11">
-        <v>4.671844400285392</v>
+        <v>6.085875360040318</v>
       </c>
       <c r="N11">
-        <v>6.085875360040318</v>
+        <v>5.569241452804652</v>
       </c>
       <c r="O11">
-        <v>5.569241452804652</v>
+        <v>4.835887714767762</v>
       </c>
       <c r="P11">
-        <v>4.835887714767762</v>
+        <v>72.03513852346778</v>
       </c>
       <c r="Q11">
-        <v>72.03513852346778</v>
+        <v>3.79047619047619</v>
       </c>
       <c r="R11">
-        <v>3.79047619047619</v>
+        <v>158.3333333333333</v>
       </c>
       <c r="S11">
-        <v>158.3333333333333</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="T11">
-        <v>6.416666666666667</v>
+        <v>0.394927536231884</v>
       </c>
       <c r="U11">
-        <v>0.394927536231884</v>
+        <v>2.028169014084507</v>
       </c>
       <c r="V11">
-        <v>2.028169014084507</v>
+        <v>6.115384615384615</v>
       </c>
       <c r="W11">
-        <v>6.115384615384615</v>
+        <v>36.04717576455867</v>
       </c>
       <c r="X11">
-        <v>36.04717576455867</v>
+        <v>2.069461248797948</v>
       </c>
       <c r="Y11">
-        <v>2.069461248797948</v>
-      </c>
-      <c r="Z11">
         <v>1.410974886448275</v>
       </c>
     </row>
@@ -1269,61 +1264,61 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="D12">
+        <v>4.166666666666666</v>
+      </c>
       <c r="E12">
-        <v>4.166666666666666</v>
+        <v>116.5868436108727</v>
       </c>
       <c r="F12">
-        <v>116.5868436108727</v>
+        <v>4.472135916683231</v>
       </c>
       <c r="G12">
         <v>4.472135916683231</v>
       </c>
-      <c r="H12">
-        <v>4.472135916683231</v>
-      </c>
-      <c r="J12">
+      <c r="I12">
         <v>4.47213591668323</v>
       </c>
+      <c r="L12">
+        <v>4.388642176893181</v>
+      </c>
       <c r="M12">
-        <v>4.388642176893181</v>
+        <v>4.504755667416535</v>
       </c>
       <c r="N12">
-        <v>4.504755667416535</v>
+        <v>4.471477918643703</v>
       </c>
       <c r="O12">
-        <v>4.471477918643703</v>
+        <v>4.972677170773323</v>
       </c>
       <c r="P12">
-        <v>4.972677170773323</v>
+        <v>10.53051178847591</v>
       </c>
       <c r="Q12">
-        <v>10.53051178847591</v>
+        <v>0.5095238095238095</v>
       </c>
       <c r="R12">
-        <v>0.5095238095238095</v>
+        <v>25</v>
       </c>
       <c r="S12">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>1.5</v>
+      </c>
+      <c r="V12">
         <v>6</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>1.5</v>
-      </c>
       <c r="W12">
-        <v>6</v>
+        <v>-145.033819973534</v>
       </c>
       <c r="X12">
-        <v>-145.033819973534</v>
+        <v>4.995023049728013E-06</v>
       </c>
       <c r="Y12">
-        <v>4.995023049728013E-06</v>
-      </c>
-      <c r="Z12">
         <v>2.669952128062956E-06</v>
       </c>
     </row>
@@ -1339,64 +1334,64 @@
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="D13">
+        <v>12.5</v>
+      </c>
       <c r="E13">
-        <v>12.5</v>
+        <v>112.6032697976963</v>
       </c>
       <c r="F13">
-        <v>112.6032697976963</v>
+        <v>5.96317949768241</v>
       </c>
       <c r="G13">
         <v>5.96317949768241</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>5.96317949768241</v>
       </c>
       <c r="J13">
-        <v>5.96317949768241</v>
-      </c>
-      <c r="K13">
         <v>6.037047856138225</v>
       </c>
+      <c r="L13">
+        <v>5.847948046741445</v>
+      </c>
       <c r="M13">
-        <v>5.847948046741445</v>
+        <v>6.008219454679089</v>
       </c>
       <c r="N13">
-        <v>6.008219454679089</v>
+        <v>5.962238945187655</v>
       </c>
       <c r="O13">
-        <v>5.962238945187655</v>
+        <v>6.309909325157341</v>
       </c>
       <c r="P13">
-        <v>6.309909325157341</v>
+        <v>12.9505852358919</v>
       </c>
       <c r="Q13">
-        <v>12.9505852358919</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="R13">
-        <v>0.7619047619047619</v>
+        <v>29.16666666666666</v>
       </c>
       <c r="S13">
-        <v>29.16666666666666</v>
+        <v>6.6</v>
       </c>
       <c r="T13">
-        <v>6.6</v>
+        <v>0.4</v>
       </c>
       <c r="U13">
-        <v>0.4</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="V13">
-        <v>4.166666666666666</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="W13">
-        <v>6.333333333333333</v>
+        <v>-204.8963667578089</v>
       </c>
       <c r="X13">
-        <v>-204.8963667578089</v>
+        <v>6.942875415857742E-08</v>
       </c>
       <c r="Y13">
-        <v>6.942875415857742E-08</v>
-      </c>
-      <c r="Z13">
         <v>3.157354738058712E-08</v>
       </c>
     </row>
@@ -1412,64 +1407,64 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14">
+        <v>45.83333333333333</v>
+      </c>
       <c r="E14">
-        <v>45.83333333333333</v>
+        <v>19.13725202294791</v>
       </c>
       <c r="F14">
-        <v>19.13725202294791</v>
+        <v>5.03905471704212</v>
       </c>
       <c r="G14">
         <v>5.03905471704212</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>5.03905471704212</v>
       </c>
       <c r="J14">
-        <v>5.03905471704212</v>
-      </c>
-      <c r="K14">
         <v>4.713953470685383</v>
       </c>
+      <c r="L14">
+        <v>4.492478266313293</v>
+      </c>
       <c r="M14">
-        <v>4.492478266313293</v>
+        <v>5.267170444178169</v>
       </c>
       <c r="N14">
-        <v>5.267170444178169</v>
+        <v>5.011586574834284</v>
       </c>
       <c r="O14">
-        <v>5.011586574834284</v>
+        <v>5.482326436699293</v>
       </c>
       <c r="P14">
-        <v>5.482326436699293</v>
+        <v>88.86882239374293</v>
       </c>
       <c r="Q14">
-        <v>88.86882239374293</v>
+        <v>4.654761904761905</v>
       </c>
       <c r="R14">
-        <v>4.654761904761905</v>
+        <v>216.6666666666667</v>
       </c>
       <c r="S14">
-        <v>216.6666666666667</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="T14">
-        <v>6.142857142857143</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="U14">
-        <v>0.3174603174603174</v>
+        <v>1.441176470588236</v>
       </c>
       <c r="V14">
-        <v>1.441176470588236</v>
+        <v>5.772727272727272</v>
       </c>
       <c r="W14">
-        <v>5.772727272727272</v>
+        <v>31.5304238929024</v>
       </c>
       <c r="X14">
-        <v>31.5304238929024</v>
+        <v>1.498797580180088</v>
       </c>
       <c r="Y14">
-        <v>1.498797580180088</v>
-      </c>
-      <c r="Z14">
         <v>0.8081319323853942</v>
       </c>
     </row>
@@ -1485,64 +1480,64 @@
       <c r="C15">
         <v>1</v>
       </c>
+      <c r="D15">
+        <v>37.49999999999999</v>
+      </c>
       <c r="E15">
-        <v>37.49999999999999</v>
+        <v>110.2242465068549</v>
       </c>
       <c r="F15">
-        <v>110.2242465068549</v>
+        <v>5.095223167394615</v>
       </c>
       <c r="G15">
         <v>5.095223167394615</v>
       </c>
-      <c r="H15">
-        <v>5.095223167394615</v>
+      <c r="I15">
+        <v>5.095223167394614</v>
       </c>
       <c r="J15">
-        <v>5.095223167394614</v>
-      </c>
-      <c r="K15">
         <v>5.048674858878645</v>
       </c>
+      <c r="L15">
+        <v>4.994659970938014</v>
+      </c>
       <c r="M15">
-        <v>4.994659970938014</v>
+        <v>5.134541262583954</v>
       </c>
       <c r="N15">
-        <v>5.134541262583954</v>
+        <v>5.094384451066343</v>
       </c>
       <c r="O15">
-        <v>5.094384451066343</v>
+        <v>5.595913081359454</v>
       </c>
       <c r="P15">
-        <v>5.595913081359454</v>
+        <v>71.40325923115269</v>
       </c>
       <c r="Q15">
-        <v>71.40325923115269</v>
+        <v>2.985714285714286</v>
       </c>
       <c r="R15">
-        <v>2.985714285714286</v>
+        <v>125</v>
       </c>
       <c r="S15">
-        <v>125</v>
+        <v>6.421052631578948</v>
       </c>
       <c r="T15">
-        <v>6.421052631578948</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="U15">
-        <v>0.4210526315789473</v>
+        <v>2.865079365079365</v>
       </c>
       <c r="V15">
-        <v>2.865079365079365</v>
+        <v>6</v>
       </c>
       <c r="W15">
-        <v>6</v>
+        <v>-189.2315556667714</v>
       </c>
       <c r="X15">
-        <v>-189.2315556667714</v>
+        <v>2.125582747074498E-07</v>
       </c>
       <c r="Y15">
-        <v>2.125582747074498E-07</v>
-      </c>
-      <c r="Z15">
         <v>8.445921694172789E-08</v>
       </c>
     </row>
@@ -1558,69 +1553,69 @@
       <c r="C16">
         <v>1</v>
       </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
       <c r="E16">
-        <v>50</v>
+        <v>15.1604614803427</v>
       </c>
       <c r="F16">
-        <v>15.1604614803427</v>
+        <v>5.381319798333409</v>
       </c>
       <c r="G16">
         <v>5.381319798333409</v>
       </c>
-      <c r="H16">
-        <v>5.381319798333409</v>
-      </c>
-      <c r="I16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Inf</t>
         </is>
       </c>
+      <c r="I16">
+        <v>5.38131979833341</v>
+      </c>
       <c r="J16">
-        <v>5.38131979833341</v>
-      </c>
-      <c r="K16">
         <v>4.911071883682723</v>
       </c>
+      <c r="L16">
+        <v>4.655281648596134</v>
+      </c>
       <c r="M16">
-        <v>4.655281648596134</v>
+        <v>5.690637717005627</v>
       </c>
       <c r="N16">
-        <v>5.690637717005627</v>
+        <v>5.334628702265441</v>
       </c>
       <c r="O16">
-        <v>5.334628702265441</v>
+        <v>5.430192570470084</v>
       </c>
       <c r="P16">
-        <v>5.430192570470084</v>
+        <v>79.45328176906921</v>
       </c>
       <c r="Q16">
-        <v>79.45328176906921</v>
+        <v>3.980952380952381</v>
       </c>
       <c r="R16">
-        <v>3.980952380952381</v>
+        <v>170.8333333333333</v>
       </c>
       <c r="S16">
-        <v>170.8333333333333</v>
+        <v>6.36</v>
       </c>
       <c r="T16">
-        <v>6.36</v>
+        <v>0.38</v>
       </c>
       <c r="U16">
-        <v>0.38</v>
+        <v>2.125850340136055</v>
       </c>
       <c r="V16">
-        <v>2.125850340136055</v>
+        <v>6</v>
       </c>
       <c r="W16">
-        <v>6</v>
+        <v>13.70063565375319</v>
       </c>
       <c r="X16">
-        <v>13.70063565375319</v>
+        <v>0.4194155311515235</v>
       </c>
       <c r="Y16">
-        <v>0.4194155311515235</v>
-      </c>
-      <c r="Z16">
         <v>0.2702440114494704</v>
       </c>
     </row>
@@ -1636,61 +1631,61 @@
       <c r="C17">
         <v>1</v>
       </c>
+      <c r="D17">
+        <v>4.166666666666666</v>
+      </c>
       <c r="E17">
-        <v>4.166666666666666</v>
+        <v>143.9493858137125</v>
       </c>
       <c r="F17">
-        <v>143.9493858137125</v>
+        <v>5.477225467539248</v>
       </c>
       <c r="G17">
         <v>5.477225467539248</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>5.477225467539248</v>
       </c>
-      <c r="J17">
-        <v>5.477225467539248</v>
+      <c r="L17">
+        <v>5.394256638695284</v>
       </c>
       <c r="M17">
-        <v>5.394256638695284</v>
+        <v>5.509559932994044</v>
       </c>
       <c r="N17">
-        <v>5.509559932994044</v>
+        <v>5.476696831205251</v>
       </c>
       <c r="O17">
-        <v>5.476696831205251</v>
+        <v>5.977659700600321</v>
       </c>
       <c r="P17">
-        <v>5.977659700600321</v>
+        <v>6.343082117504698</v>
       </c>
       <c r="Q17">
-        <v>6.343082117504698</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="R17">
-        <v>0.3095238095238095</v>
+        <v>12.5</v>
       </c>
       <c r="S17">
-        <v>12.5</v>
+        <v>6.5</v>
       </c>
       <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>4</v>
+      </c>
+      <c r="V17">
         <v>6.5</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>4</v>
-      </c>
       <c r="W17">
-        <v>6.5</v>
+        <v>-146.6401331787996</v>
       </c>
       <c r="X17">
-        <v>-146.6401331787996</v>
+        <v>4.453567093557385E-06</v>
       </c>
       <c r="Y17">
-        <v>4.453567093557385E-06</v>
-      </c>
-      <c r="Z17">
         <v>2.380531744973181E-06</v>
       </c>
     </row>
@@ -1732,64 +1727,64 @@
       <c r="C20">
         <v>1</v>
       </c>
+      <c r="D20">
+        <v>16.66666666666666</v>
+      </c>
       <c r="E20">
-        <v>16.66666666666666</v>
+        <v>159.7864591972859</v>
       </c>
       <c r="F20">
-        <v>159.7864591972859</v>
+        <v>5.477225947592557</v>
       </c>
       <c r="G20">
         <v>5.477225947592557</v>
       </c>
-      <c r="H20">
-        <v>5.477225947592557</v>
+      <c r="I20">
+        <v>5.477225947592556</v>
       </c>
       <c r="J20">
-        <v>5.477225947592556</v>
-      </c>
-      <c r="K20">
         <v>5.491142296486604</v>
       </c>
+      <c r="L20">
+        <v>5.402424059399171</v>
+      </c>
       <c r="M20">
-        <v>5.402424059399171</v>
+        <v>5.506347114037439</v>
       </c>
       <c r="N20">
-        <v>5.506347114037439</v>
+        <v>5.476796906029246</v>
       </c>
       <c r="O20">
-        <v>5.476796906029246</v>
+        <v>5.977578719859831</v>
       </c>
       <c r="P20">
-        <v>5.977578719859831</v>
+        <v>25.37368591226824</v>
       </c>
       <c r="Q20">
-        <v>25.37368591226824</v>
+        <v>1.238095238095238</v>
       </c>
       <c r="R20">
-        <v>1.238095238095238</v>
+        <v>49.99999999999999</v>
       </c>
       <c r="S20">
-        <v>49.99999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="T20">
-        <v>6.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="U20">
-        <v>0.4285714285714285</v>
+        <v>4</v>
       </c>
       <c r="V20">
-        <v>4</v>
+        <v>6.125</v>
       </c>
       <c r="W20">
-        <v>6.125</v>
+        <v>-147.4440698512757</v>
       </c>
       <c r="X20">
-        <v>-147.4440698512757</v>
+        <v>4.205029551465189E-06</v>
       </c>
       <c r="Y20">
-        <v>4.205029551465189E-06</v>
-      </c>
-      <c r="Z20">
         <v>2.247682840273314E-06</v>
       </c>
     </row>
@@ -1883,64 +1878,64 @@
       <c r="C27">
         <v>2</v>
       </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
       <c r="E27">
-        <v>25</v>
+        <v>10.09532312072669</v>
       </c>
       <c r="F27">
-        <v>10.09532312072669</v>
+        <v>5.452413265424018</v>
       </c>
       <c r="G27">
         <v>5.452413265424018</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>5.452413265424018</v>
       </c>
       <c r="J27">
-        <v>5.452413265424018</v>
-      </c>
-      <c r="K27">
         <v>5.237763809717527</v>
       </c>
+      <c r="L27">
+        <v>4.385968817454244</v>
+      </c>
       <c r="M27">
-        <v>4.385968817454244</v>
+        <v>5.929785576282991</v>
       </c>
       <c r="N27">
-        <v>5.929785576282991</v>
+        <v>5.346112472008344</v>
       </c>
       <c r="O27">
-        <v>5.346112472008344</v>
+        <v>4.835491146993151</v>
       </c>
       <c r="P27">
-        <v>4.835491146993151</v>
+        <v>37.95312694954404</v>
       </c>
       <c r="Q27">
-        <v>37.95312694954404</v>
+        <v>1.923809523809524</v>
       </c>
       <c r="R27">
-        <v>1.923809523809524</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="S27">
-        <v>83.33333333333333</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="T27">
-        <v>6.333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="U27">
-        <v>0.3333333333333333</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>1.8</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="W27">
-        <v>6.083333333333333</v>
+        <v>26.42928589980247</v>
       </c>
       <c r="X27">
-        <v>26.42928589980247</v>
+        <v>1.041119080857544</v>
       </c>
       <c r="Y27">
-        <v>1.041119080857544</v>
-      </c>
-      <c r="Z27">
         <v>0.7694002987640256</v>
       </c>
     </row>
@@ -1956,67 +1951,67 @@
       <c r="C28">
         <v>2</v>
       </c>
+      <c r="D28">
+        <v>62.5</v>
+      </c>
       <c r="E28">
-        <v>62.5</v>
+        <v>4.794191642653089</v>
       </c>
       <c r="F28">
-        <v>4.794191642653089</v>
+        <v>3.023405335847694</v>
       </c>
       <c r="G28">
         <v>3.023405335847694</v>
       </c>
       <c r="H28">
+        <v>4.037174324497043</v>
+      </c>
+      <c r="I28">
         <v>3.023405335847694</v>
       </c>
-      <c r="I28">
-        <v>4.037174324497043</v>
-      </c>
       <c r="J28">
-        <v>3.023405335847694</v>
-      </c>
-      <c r="K28">
         <v>2.13934790285614</v>
       </c>
+      <c r="L28">
+        <v>1.911855203997344</v>
+      </c>
       <c r="M28">
-        <v>1.911855203997344</v>
+        <v>3.607871693720103</v>
       </c>
       <c r="N28">
-        <v>3.607871693720103</v>
+        <v>2.767852650801649</v>
       </c>
       <c r="O28">
-        <v>2.767852650801649</v>
+        <v>3.527979909457366</v>
       </c>
       <c r="P28">
-        <v>3.527979909457366</v>
+        <v>236.3479485867436</v>
       </c>
       <c r="Q28">
-        <v>236.3479485867436</v>
+        <v>12.82619047619048</v>
       </c>
       <c r="R28">
-        <v>12.82619047619048</v>
+        <v>712.5</v>
       </c>
       <c r="S28">
-        <v>712.5</v>
+        <v>5.241935483870968</v>
       </c>
       <c r="T28">
-        <v>5.241935483870968</v>
+        <v>0.1930195663670016</v>
       </c>
       <c r="U28">
-        <v>0.1930195663670016</v>
+        <v>0.5282396592002199</v>
       </c>
       <c r="V28">
-        <v>0.5282396592002199</v>
+        <v>4.884615384615385</v>
       </c>
       <c r="W28">
-        <v>4.884615384615385</v>
+        <v>46.47688766060121</v>
       </c>
       <c r="X28">
-        <v>46.47688766060121</v>
+        <v>4.359109216159352</v>
       </c>
       <c r="Y28">
-        <v>4.359109216159352</v>
-      </c>
-      <c r="Z28">
         <v>3.519136524384858</v>
       </c>
     </row>
@@ -2032,70 +2027,70 @@
       <c r="C29">
         <v>2</v>
       </c>
+      <c r="D29">
+        <v>87.5</v>
+      </c>
       <c r="E29">
-        <v>87.5</v>
+        <v>7.246840098116862</v>
       </c>
       <c r="F29">
-        <v>7.246840098116862</v>
+        <v>3.066841878844955</v>
       </c>
       <c r="G29">
         <v>3.066841878844955</v>
       </c>
       <c r="H29">
-        <v>3.066841878844955</v>
+        <v>3.191036916431903</v>
       </c>
       <c r="I29">
-        <v>3.191036916431903</v>
+        <v>3.066841878844954</v>
       </c>
       <c r="J29">
-        <v>3.066841878844954</v>
+        <v>2.311934872464752</v>
       </c>
       <c r="K29">
-        <v>2.311934872464752</v>
+        <v>3.713388194186337</v>
       </c>
       <c r="L29">
-        <v>3.713388194186337</v>
+        <v>2.264719071465897</v>
       </c>
       <c r="M29">
-        <v>2.264719071465897</v>
+        <v>3.447219478420193</v>
       </c>
       <c r="N29">
-        <v>3.447219478420193</v>
+        <v>2.951521137604996</v>
       </c>
       <c r="O29">
-        <v>2.951521137604996</v>
+        <v>3.628380208572149</v>
       </c>
       <c r="P29">
-        <v>3.628380208572149</v>
+        <v>335.8056009494484</v>
       </c>
       <c r="Q29">
-        <v>335.8056009494484</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="R29">
-        <v>18.33333333333333</v>
+        <v>1020.833333333333</v>
       </c>
       <c r="S29">
-        <v>1020.833333333333</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="T29">
-        <v>5.277777777777778</v>
+        <v>0.2017478152309613</v>
       </c>
       <c r="U29">
-        <v>0.2017478152309613</v>
+        <v>0.5767176931292275</v>
       </c>
       <c r="V29">
-        <v>0.5767176931292275</v>
+        <v>4.875</v>
       </c>
       <c r="W29">
-        <v>4.875</v>
+        <v>33.72261465538469</v>
       </c>
       <c r="X29">
-        <v>33.72261465538469</v>
+        <v>1.752859102949944</v>
       </c>
       <c r="Y29">
-        <v>1.752859102949944</v>
-      </c>
-      <c r="Z29">
         <v>1.30932691382645</v>
       </c>
     </row>
@@ -2111,70 +2106,70 @@
       <c r="C30">
         <v>2</v>
       </c>
+      <c r="D30">
+        <v>91.66666666666666</v>
+      </c>
       <c r="E30">
-        <v>91.66666666666666</v>
+        <v>7.152765673888992</v>
       </c>
       <c r="F30">
-        <v>7.152765673888992</v>
+        <v>3.910157204636257</v>
       </c>
       <c r="G30">
         <v>3.910157204636257</v>
       </c>
       <c r="H30">
+        <v>4.011106898709893</v>
+      </c>
+      <c r="I30">
         <v>3.910157204636257</v>
       </c>
-      <c r="I30">
-        <v>4.011106898709893</v>
-      </c>
       <c r="J30">
-        <v>3.910157204636257</v>
+        <v>2.915310537217237</v>
       </c>
       <c r="K30">
-        <v>2.915310537217237</v>
+        <v>4.606788517334015</v>
       </c>
       <c r="L30">
-        <v>4.606788517334015</v>
+        <v>2.875976485990004</v>
       </c>
       <c r="M30">
-        <v>2.875976485990004</v>
+        <v>4.401894234085605</v>
       </c>
       <c r="N30">
-        <v>4.401894234085605</v>
+        <v>3.759283532655779</v>
       </c>
       <c r="O30">
-        <v>3.759283532655779</v>
+        <v>4.320308190907567</v>
       </c>
       <c r="P30">
-        <v>4.320308190907567</v>
+        <v>273.0543752250777</v>
       </c>
       <c r="Q30">
-        <v>273.0543752250777</v>
+        <v>14.12619047619048</v>
       </c>
       <c r="R30">
-        <v>14.12619047619048</v>
+        <v>745.8333333333333</v>
       </c>
       <c r="S30">
-        <v>745.8333333333333</v>
+        <v>5.644736842105263</v>
       </c>
       <c r="T30">
-        <v>5.644736842105263</v>
+        <v>0.2375438596491228</v>
       </c>
       <c r="U30">
-        <v>0.2375438596491228</v>
+        <v>0.7645268034414295</v>
       </c>
       <c r="V30">
-        <v>0.7645268034414295</v>
+        <v>5.295454545454546</v>
       </c>
       <c r="W30">
-        <v>5.295454545454546</v>
+        <v>45.02390476996496</v>
       </c>
       <c r="X30">
-        <v>45.02390476996496</v>
+        <v>3.929386222009839</v>
       </c>
       <c r="Y30">
-        <v>3.929386222009839</v>
-      </c>
-      <c r="Z30">
         <v>3.125037025058926</v>
       </c>
     </row>
@@ -2190,70 +2185,70 @@
       <c r="C31">
         <v>2</v>
       </c>
+      <c r="D31">
+        <v>91.66666666666667</v>
+      </c>
       <c r="E31">
-        <v>91.66666666666667</v>
+        <v>5.331641945258179</v>
       </c>
       <c r="F31">
-        <v>5.331641945258179</v>
+        <v>3.711150785088869</v>
       </c>
       <c r="G31">
         <v>3.711150785088869</v>
       </c>
       <c r="H31">
+        <v>3.840252616112418</v>
+      </c>
+      <c r="I31">
         <v>3.711150785088869</v>
       </c>
-      <c r="I31">
-        <v>3.840252616112418</v>
-      </c>
       <c r="J31">
-        <v>3.711150785088869</v>
+        <v>2.502914098700939</v>
       </c>
       <c r="K31">
-        <v>2.502914098700939</v>
+        <v>4.624169639828034</v>
       </c>
       <c r="L31">
-        <v>4.624169639828034</v>
+        <v>2.457714148956299</v>
       </c>
       <c r="M31">
-        <v>2.457714148956299</v>
+        <v>4.350369398731066</v>
       </c>
       <c r="N31">
-        <v>4.350369398731066</v>
+        <v>3.456104232693681</v>
       </c>
       <c r="O31">
-        <v>3.456104232693681</v>
+        <v>4.013637445603583</v>
       </c>
       <c r="P31">
-        <v>4.013637445603583</v>
+        <v>285.9168849963527</v>
       </c>
       <c r="Q31">
-        <v>285.9168849963527</v>
+        <v>15.45952380952381</v>
       </c>
       <c r="R31">
-        <v>15.45952380952381</v>
+        <v>829.1666666666666</v>
       </c>
       <c r="S31">
-        <v>829.1666666666666</v>
+        <v>5.5125</v>
       </c>
       <c r="T31">
-        <v>5.5125</v>
+        <v>0.2186708860759494</v>
       </c>
       <c r="U31">
-        <v>0.2186708860759494</v>
+        <v>0.6349836293283064</v>
       </c>
       <c r="V31">
-        <v>0.6349836293283064</v>
+        <v>5.204545454545454</v>
       </c>
       <c r="W31">
-        <v>5.204545454545454</v>
+        <v>44.39020399548463</v>
       </c>
       <c r="X31">
-        <v>44.39020399548463</v>
+        <v>3.755490471934163</v>
       </c>
       <c r="Y31">
-        <v>3.755490471934163</v>
-      </c>
-      <c r="Z31">
         <v>3.089639580325174</v>
       </c>
     </row>
@@ -2269,64 +2264,64 @@
       <c r="C32">
         <v>2</v>
       </c>
+      <c r="D32">
+        <v>12.5</v>
+      </c>
       <c r="E32">
-        <v>12.5</v>
+        <v>4.714773355817814</v>
       </c>
       <c r="F32">
-        <v>4.714773355817814</v>
+        <v>4.15519059109331</v>
       </c>
       <c r="G32">
         <v>4.15519059109331</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>4.15519059109331</v>
       </c>
       <c r="J32">
-        <v>4.15519059109331</v>
-      </c>
-      <c r="K32">
         <v>5.575546410415414</v>
       </c>
+      <c r="L32">
+        <v>2.607334832406239</v>
+      </c>
       <c r="M32">
-        <v>2.607334832406239</v>
+        <v>4.973230144932915</v>
       </c>
       <c r="N32">
-        <v>4.973230144932915</v>
+        <v>3.792400892562665</v>
       </c>
       <c r="O32">
-        <v>3.792400892562665</v>
+        <v>4.002576612140373</v>
       </c>
       <c r="P32">
-        <v>4.002576612140373</v>
+        <v>33.45015556016597</v>
       </c>
       <c r="Q32">
-        <v>33.45015556016597</v>
+        <v>1.661904761904762</v>
       </c>
       <c r="R32">
-        <v>1.661904761904762</v>
+        <v>87.49999999999999</v>
       </c>
       <c r="S32">
-        <v>87.49999999999999</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="T32">
-        <v>5.666666666666667</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="U32">
-        <v>0.1666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="V32">
-        <v>0.75</v>
+        <v>5.5</v>
       </c>
       <c r="W32">
-        <v>5.5</v>
+        <v>32.65785777910628</v>
       </c>
       <c r="X32">
-        <v>32.65785777910628</v>
+        <v>1.624490397894629</v>
       </c>
       <c r="Y32">
-        <v>1.624490397894629</v>
-      </c>
-      <c r="Z32">
         <v>1.28757776006258</v>
       </c>
     </row>
@@ -2342,67 +2337,67 @@
       <c r="C33">
         <v>2</v>
       </c>
+      <c r="D33">
+        <v>54.16666666666667</v>
+      </c>
       <c r="E33">
-        <v>54.16666666666667</v>
+        <v>4.772376152762051</v>
       </c>
       <c r="F33">
-        <v>4.772376152762051</v>
+        <v>3.403243438974124</v>
       </c>
       <c r="G33">
         <v>3.403243438974124</v>
       </c>
       <c r="H33">
+        <v>5.728274453584384</v>
+      </c>
+      <c r="I33">
         <v>3.403243438974124</v>
       </c>
-      <c r="I33">
-        <v>5.728274453584384</v>
-      </c>
       <c r="J33">
-        <v>3.403243438974124</v>
-      </c>
-      <c r="K33">
         <v>2.492989150845509</v>
       </c>
+      <c r="L33">
+        <v>2.147542563413588</v>
+      </c>
       <c r="M33">
-        <v>2.147542563413588</v>
+        <v>4.064420061264022</v>
       </c>
       <c r="N33">
-        <v>4.064420061264022</v>
+        <v>3.113026490867503</v>
       </c>
       <c r="O33">
-        <v>3.113026490867503</v>
+        <v>3.770672138732706</v>
       </c>
       <c r="P33">
-        <v>3.770672138732706</v>
+        <v>183.9778427099527</v>
       </c>
       <c r="Q33">
-        <v>183.9778427099527</v>
+        <v>10.17380952380952</v>
       </c>
       <c r="R33">
-        <v>10.17380952380952</v>
+        <v>554.1666666666666</v>
       </c>
       <c r="S33">
-        <v>554.1666666666666</v>
+        <v>5.392156862745098</v>
       </c>
       <c r="T33">
-        <v>5.392156862745098</v>
+        <v>0.2023529411764706</v>
       </c>
       <c r="U33">
-        <v>0.2023529411764706</v>
+        <v>0.5785142348754448</v>
       </c>
       <c r="V33">
-        <v>0.5785142348754448</v>
+        <v>5.076923076923077</v>
       </c>
       <c r="W33">
-        <v>5.076923076923077</v>
+        <v>46.67404307169885</v>
       </c>
       <c r="X33">
-        <v>46.67404307169885</v>
+        <v>4.420930780002574</v>
       </c>
       <c r="Y33">
-        <v>4.420930780002574</v>
-      </c>
-      <c r="Z33">
         <v>3.740161420126828</v>
       </c>
     </row>
@@ -2418,67 +2413,67 @@
       <c r="C34">
         <v>2</v>
       </c>
+      <c r="D34">
+        <v>66.66666666666667</v>
+      </c>
       <c r="E34">
-        <v>66.66666666666667</v>
+        <v>11.30153676489345</v>
       </c>
       <c r="F34">
-        <v>11.30153676489345</v>
+        <v>3.139266917329272</v>
       </c>
       <c r="G34">
         <v>3.139266917329272</v>
       </c>
       <c r="H34">
+        <v>3.459757199797499</v>
+      </c>
+      <c r="I34">
         <v>3.139266917329272</v>
       </c>
-      <c r="I34">
-        <v>3.459757199797499</v>
-      </c>
       <c r="J34">
-        <v>3.139266917329272</v>
-      </c>
-      <c r="K34">
         <v>2.69259567139049</v>
       </c>
+      <c r="L34">
+        <v>2.584600871388743</v>
+      </c>
       <c r="M34">
-        <v>2.584600871388743</v>
+        <v>3.383671025850553</v>
       </c>
       <c r="N34">
-        <v>3.383671025850553</v>
+        <v>3.090366133812495</v>
       </c>
       <c r="O34">
-        <v>3.090366133812495</v>
+        <v>3.677729235090631</v>
       </c>
       <c r="P34">
-        <v>3.677729235090631</v>
+        <v>254.6676356766044</v>
       </c>
       <c r="Q34">
-        <v>254.6676356766044</v>
+        <v>13.90238095238095</v>
       </c>
       <c r="R34">
-        <v>13.90238095238095</v>
+        <v>775</v>
       </c>
       <c r="S34">
-        <v>775</v>
+        <v>5.304347826086956</v>
       </c>
       <c r="T34">
-        <v>5.304347826086956</v>
+        <v>0.2046035805626598</v>
       </c>
       <c r="U34">
-        <v>0.2046035805626598</v>
+        <v>0.6127413127413128</v>
       </c>
       <c r="V34">
-        <v>0.6127413127413128</v>
+        <v>4.875</v>
       </c>
       <c r="W34">
-        <v>4.875</v>
+        <v>3.81855785496234</v>
       </c>
       <c r="X34">
-        <v>3.81855785496234</v>
+        <v>0.2070581040359157</v>
       </c>
       <c r="Y34">
-        <v>0.2070581040359157</v>
-      </c>
-      <c r="Z34">
         <v>0.1358177191094921</v>
       </c>
     </row>
@@ -2494,70 +2489,70 @@
       <c r="C35">
         <v>2</v>
       </c>
+      <c r="D35">
+        <v>75</v>
+      </c>
       <c r="E35">
-        <v>75</v>
+        <v>8.454611580417231</v>
       </c>
       <c r="F35">
-        <v>8.454611580417231</v>
+        <v>4.057327692341826</v>
       </c>
       <c r="G35">
         <v>4.057327692341826</v>
       </c>
       <c r="H35">
+        <v>4.403981694131073</v>
+      </c>
+      <c r="I35">
         <v>4.057327692341826</v>
       </c>
-      <c r="I35">
-        <v>4.403981694131073</v>
-      </c>
       <c r="J35">
-        <v>4.057327692341826</v>
+        <v>3.251545195872579</v>
       </c>
       <c r="K35">
-        <v>3.251545195872579</v>
+        <v>5.543736198592026</v>
       </c>
       <c r="L35">
-        <v>5.543736198592026</v>
+        <v>3.128769535864024</v>
       </c>
       <c r="M35">
-        <v>3.128769535864024</v>
+        <v>4.485014801418045</v>
       </c>
       <c r="N35">
-        <v>4.485014801418045</v>
+        <v>3.944859323023876</v>
       </c>
       <c r="O35">
-        <v>3.944859323023876</v>
+        <v>4.497441146629991</v>
       </c>
       <c r="P35">
-        <v>4.497441146629991</v>
+        <v>214.2802136508226</v>
       </c>
       <c r="Q35">
-        <v>214.2802136508226</v>
+        <v>11.27142857142857</v>
       </c>
       <c r="R35">
-        <v>11.27142857142857</v>
+        <v>591.6666666666666</v>
       </c>
       <c r="S35">
-        <v>591.6666666666666</v>
+        <v>5.672131147540983</v>
       </c>
       <c r="T35">
-        <v>5.672131147540983</v>
+        <v>0.239344262295082</v>
       </c>
       <c r="U35">
-        <v>0.239344262295082</v>
+        <v>0.7876799322607958</v>
       </c>
       <c r="V35">
-        <v>0.7876799322607958</v>
+        <v>5.294117647058823</v>
       </c>
       <c r="W35">
-        <v>5.294117647058823</v>
+        <v>33.84610814191203</v>
       </c>
       <c r="X35">
-        <v>33.84610814191203</v>
+        <v>1.768389404216912</v>
       </c>
       <c r="Y35">
-        <v>1.768389404216912</v>
-      </c>
-      <c r="Z35">
         <v>1.413053833990821</v>
       </c>
     </row>
@@ -2573,70 +2568,70 @@
       <c r="C36">
         <v>2</v>
       </c>
+      <c r="D36">
+        <v>70.83333333333333</v>
+      </c>
       <c r="E36">
-        <v>70.83333333333333</v>
+        <v>9.085062512702445</v>
       </c>
       <c r="F36">
-        <v>9.085062512702445</v>
+        <v>4.258028993847819</v>
       </c>
       <c r="G36">
         <v>4.258028993847819</v>
       </c>
       <c r="H36">
+        <v>4.688768230228948</v>
+      </c>
+      <c r="I36">
         <v>4.258028993847819</v>
       </c>
-      <c r="I36">
-        <v>4.688768230228948</v>
-      </c>
       <c r="J36">
-        <v>4.258028993847819</v>
+        <v>3.490579454237428</v>
       </c>
       <c r="K36">
-        <v>3.490579454237428</v>
+        <v>6.934506408201944</v>
       </c>
       <c r="L36">
-        <v>6.934506408201944</v>
+        <v>3.34329260944142</v>
       </c>
       <c r="M36">
-        <v>3.34329260944142</v>
+        <v>4.674251859248032</v>
       </c>
       <c r="N36">
-        <v>4.674251859248032</v>
+        <v>4.155682366964984</v>
       </c>
       <c r="O36">
-        <v>4.155682366964984</v>
+        <v>4.666014736355721</v>
       </c>
       <c r="P36">
-        <v>4.666014736355721</v>
+        <v>188.7940307032386</v>
       </c>
       <c r="Q36">
-        <v>188.7940307032386</v>
+        <v>9.728571428571428</v>
       </c>
       <c r="R36">
-        <v>9.728571428571428</v>
+        <v>500</v>
       </c>
       <c r="S36">
-        <v>500</v>
+        <v>5.777777777777778</v>
       </c>
       <c r="T36">
-        <v>5.777777777777778</v>
+        <v>0.2529699510831586</v>
       </c>
       <c r="U36">
-        <v>0.2529699510831586</v>
+        <v>0.8804347826086957</v>
       </c>
       <c r="V36">
-        <v>0.8804347826086957</v>
+        <v>5.40625</v>
       </c>
       <c r="W36">
-        <v>5.40625</v>
+        <v>23.30907744506155</v>
       </c>
       <c r="X36">
-        <v>23.30907744506155</v>
+        <v>0.8331214421404067</v>
       </c>
       <c r="Y36">
-        <v>0.8331214421404067</v>
-      </c>
-      <c r="Z36">
         <v>0.68855761209275</v>
       </c>
     </row>
@@ -2652,66 +2647,66 @@
       <c r="C37">
         <v>2</v>
       </c>
+      <c r="D37">
+        <v>12.5</v>
+      </c>
       <c r="E37">
-        <v>12.5</v>
+        <v>184.5827516720262</v>
       </c>
       <c r="F37">
-        <v>184.5827516720262</v>
+        <v>6.480741421711892</v>
       </c>
       <c r="G37">
         <v>6.480741421711892</v>
       </c>
-      <c r="H37">
-        <v>6.480741421711892</v>
+      <c r="I37">
+        <v>6.480741421711891</v>
       </c>
       <c r="J37">
-        <v>6.480741421711891</v>
-      </c>
-      <c r="K37">
         <v>6.529597760949039</v>
       </c>
+      <c r="L37">
+        <v>6.40405371929852</v>
+      </c>
       <c r="M37">
-        <v>6.40405371929852</v>
+        <v>6.510558621048612</v>
       </c>
       <c r="N37">
-        <v>6.510558621048612</v>
+        <v>6.480361001170294</v>
       </c>
       <c r="O37">
-        <v>6.480361001170294</v>
+        <v>3.495939281035708</v>
       </c>
       <c r="P37">
-        <v>3.495939281035708</v>
+        <v>6.486821294270757</v>
       </c>
       <c r="Q37">
-        <v>6.486821294270757</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="R37">
-        <v>0.4285714285714285</v>
+        <v>12.5</v>
       </c>
       <c r="S37">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="T37">
-        <v>7</v>
-      </c>
-      <c r="U37">
         <v>1</v>
       </c>
-      <c r="V37" t="inlineStr">
+      <c r="U37" t="inlineStr">
         <is>
           <t>Inf</t>
         </is>
       </c>
+      <c r="V37">
+        <v>5</v>
+      </c>
       <c r="W37">
-        <v>5</v>
+        <v>-146.718906149696</v>
       </c>
       <c r="X37">
-        <v>-146.718906149696</v>
+        <v>4.428578837236228E-06</v>
       </c>
       <c r="Y37">
-        <v>4.428578837236228E-06</v>
-      </c>
-      <c r="Z37">
         <v>2.367174959391358E-06</v>
       </c>
     </row>
@@ -2727,64 +2722,64 @@
       <c r="C38">
         <v>2</v>
       </c>
+      <c r="D38">
+        <v>33.33333333333333</v>
+      </c>
       <c r="E38">
-        <v>33.33333333333333</v>
+        <v>4.008211418668727</v>
       </c>
       <c r="F38">
-        <v>4.008211418668727</v>
+        <v>4.912830855523764</v>
       </c>
       <c r="G38">
         <v>4.912830855523764</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>4.912830855523764</v>
       </c>
       <c r="J38">
-        <v>4.912830855523764</v>
-      </c>
-      <c r="K38">
         <v>3.97672976140282</v>
       </c>
+      <c r="L38">
+        <v>2.839617942543751</v>
+      </c>
       <c r="M38">
-        <v>2.839617942543751</v>
+        <v>6.069285182323338</v>
       </c>
       <c r="N38">
-        <v>6.069285182323338</v>
+        <v>4.326150431526919</v>
       </c>
       <c r="O38">
-        <v>4.326150431526919</v>
+        <v>3.592647763320336</v>
       </c>
       <c r="P38">
-        <v>3.592647763320336</v>
+        <v>68.59377615745612</v>
       </c>
       <c r="Q38">
-        <v>68.59377615745612</v>
+        <v>3.692857142857143</v>
       </c>
       <c r="R38">
-        <v>3.692857142857143</v>
+        <v>187.5</v>
       </c>
       <c r="S38">
-        <v>187.5</v>
+        <v>5.75</v>
       </c>
       <c r="T38">
-        <v>5.75</v>
+        <v>0.2263157894736842</v>
       </c>
       <c r="U38">
-        <v>0.2263157894736842</v>
+        <v>0.6299212598425197</v>
       </c>
       <c r="V38">
-        <v>0.6299212598425197</v>
+        <v>5.625</v>
       </c>
       <c r="W38">
-        <v>5.625</v>
+        <v>43.66226665672122</v>
       </c>
       <c r="X38">
-        <v>43.66226665672122</v>
+        <v>3.565211471307639</v>
       </c>
       <c r="Y38">
-        <v>3.565211471307639</v>
-      </c>
-      <c r="Z38">
         <v>2.401517520189651</v>
       </c>
     </row>
@@ -2800,64 +2795,64 @@
       <c r="C39">
         <v>2</v>
       </c>
+      <c r="D39">
+        <v>29.16666666666666</v>
+      </c>
       <c r="E39">
-        <v>29.16666666666666</v>
+        <v>6.073917173408198</v>
       </c>
       <c r="F39">
-        <v>6.073917173408198</v>
+        <v>3.937140534349644</v>
       </c>
       <c r="G39">
         <v>3.937140534349644</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>3.937140534349644</v>
       </c>
       <c r="J39">
-        <v>3.937140534349644</v>
-      </c>
-      <c r="K39">
         <v>3.537226734275836</v>
       </c>
+      <c r="L39">
+        <v>2.742053713549812</v>
+      </c>
       <c r="M39">
-        <v>2.742053713549812</v>
+        <v>4.526515645986486</v>
       </c>
       <c r="N39">
-        <v>4.526515645986486</v>
+        <v>3.727527563040264</v>
       </c>
       <c r="O39">
-        <v>3.727527563040264</v>
+        <v>4.226869997678651</v>
       </c>
       <c r="P39">
-        <v>4.226869997678651</v>
+        <v>85.25318563794283</v>
       </c>
       <c r="Q39">
-        <v>85.25318563794283</v>
+        <v>4.5</v>
       </c>
       <c r="R39">
-        <v>4.5</v>
+        <v>237.5</v>
       </c>
       <c r="S39">
-        <v>237.5</v>
+        <v>5.625</v>
       </c>
       <c r="T39">
-        <v>5.625</v>
+        <v>0.2101449275362319</v>
       </c>
       <c r="U39">
-        <v>0.2101449275362319</v>
+        <v>0.7137546468401487</v>
       </c>
       <c r="V39">
-        <v>0.7137546468401487</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="W39">
-        <v>5.357142857142857</v>
+        <v>31.36991866353755</v>
       </c>
       <c r="X39">
-        <v>31.36991866353755</v>
+        <v>1.48171250109387</v>
       </c>
       <c r="Y39">
-        <v>1.48171250109387</v>
-      </c>
-      <c r="Z39">
         <v>1.162673829509139</v>
       </c>
     </row>
@@ -2873,64 +2868,64 @@
       <c r="C40">
         <v>2</v>
       </c>
+      <c r="D40">
+        <v>37.5</v>
+      </c>
       <c r="E40">
-        <v>37.5</v>
+        <v>7.478930640949296</v>
       </c>
       <c r="F40">
-        <v>7.478930640949296</v>
+        <v>4.394707577367086</v>
       </c>
       <c r="G40">
         <v>4.394707577367086</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>4.394707577367086</v>
       </c>
       <c r="J40">
-        <v>4.394707577367086</v>
-      </c>
-      <c r="K40">
         <v>3.83872735200104</v>
       </c>
+      <c r="L40">
+        <v>3.275964703424899</v>
+      </c>
       <c r="M40">
-        <v>3.275964703424899</v>
+        <v>4.921888533143838</v>
       </c>
       <c r="N40">
-        <v>4.921888533143838</v>
+        <v>4.239432538842119</v>
       </c>
       <c r="O40">
-        <v>4.239432538842119</v>
+        <v>4.596544859968883</v>
       </c>
       <c r="P40">
-        <v>4.596544859968883</v>
+        <v>93.97913811828893</v>
       </c>
       <c r="Q40">
-        <v>93.97913811828893</v>
+        <v>5.069047619047619</v>
       </c>
       <c r="R40">
-        <v>5.069047619047619</v>
+        <v>258.3333333333333</v>
       </c>
       <c r="S40">
-        <v>258.3333333333333</v>
+        <v>5.785714285714286</v>
       </c>
       <c r="T40">
-        <v>5.785714285714286</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="U40">
-        <v>0.2380952380952381</v>
+        <v>0.8065843621399177</v>
       </c>
       <c r="V40">
-        <v>0.8065843621399177</v>
+        <v>5.5</v>
       </c>
       <c r="W40">
-        <v>5.5</v>
+        <v>33.72693579595044</v>
       </c>
       <c r="X40">
-        <v>33.72693579595044</v>
+        <v>1.753400211494138</v>
       </c>
       <c r="Y40">
-        <v>1.753400211494138</v>
-      </c>
-      <c r="Z40">
         <v>1.274698408915202</v>
       </c>
     </row>
@@ -2946,67 +2941,67 @@
       <c r="C41">
         <v>2</v>
       </c>
+      <c r="D41">
+        <v>54.16666666666666</v>
+      </c>
       <c r="E41">
-        <v>54.16666666666666</v>
+        <v>8.898960192924655</v>
       </c>
       <c r="F41">
-        <v>8.898960192924655</v>
+        <v>4.447893962459351</v>
       </c>
       <c r="G41">
         <v>4.447893962459351</v>
       </c>
       <c r="H41">
+        <v>5.880644327266851</v>
+      </c>
+      <c r="I41">
         <v>4.447893962459351</v>
       </c>
-      <c r="I41">
-        <v>5.880644327266851</v>
-      </c>
       <c r="J41">
-        <v>4.447893962459351</v>
-      </c>
-      <c r="K41">
         <v>3.764119597960247</v>
       </c>
+      <c r="L41">
+        <v>3.474750592421757</v>
+      </c>
       <c r="M41">
-        <v>3.474750592421757</v>
+        <v>4.892208551451955</v>
       </c>
       <c r="N41">
-        <v>4.892208551451955</v>
+        <v>4.336503429151024</v>
       </c>
       <c r="O41">
-        <v>4.336503429151024</v>
+        <v>4.761910239984327</v>
       </c>
       <c r="P41">
-        <v>4.761910239984327</v>
+        <v>134.0024479157343</v>
       </c>
       <c r="Q41">
-        <v>134.0024479157343</v>
+        <v>6.823809523809524</v>
       </c>
       <c r="R41">
-        <v>6.823809523809524</v>
+        <v>341.6666666666666</v>
       </c>
       <c r="S41">
-        <v>341.6666666666666</v>
+        <v>5.897435897435898</v>
       </c>
       <c r="T41">
-        <v>5.897435897435898</v>
+        <v>0.2672064777327935</v>
       </c>
       <c r="U41">
-        <v>0.2672064777327935</v>
+        <v>1.037517053206003</v>
       </c>
       <c r="V41">
-        <v>1.037517053206003</v>
+        <v>5.538461538461538</v>
       </c>
       <c r="W41">
-        <v>5.538461538461538</v>
+        <v>34.63777057269886</v>
       </c>
       <c r="X41">
-        <v>34.63777057269886</v>
+        <v>1.871268433682268</v>
       </c>
       <c r="Y41">
-        <v>1.871268433682268</v>
-      </c>
-      <c r="Z41">
         <v>1.447018156858619</v>
       </c>
     </row>
@@ -3022,60 +3017,60 @@
       <c r="C42">
         <v>2</v>
       </c>
+      <c r="D42">
+        <v>4.166666666666666</v>
+      </c>
       <c r="E42">
-        <v>4.166666666666666</v>
+        <v>170.4162502172665</v>
       </c>
       <c r="F42">
-        <v>170.4162502172665</v>
+        <v>6.480740892712731</v>
       </c>
       <c r="G42">
         <v>6.480740892712731</v>
       </c>
-      <c r="H42">
-        <v>6.480740892712731</v>
-      </c>
-      <c r="J42">
+      <c r="I42">
         <v>6.480740892712732</v>
       </c>
+      <c r="L42">
+        <v>6.397719241032239</v>
+      </c>
       <c r="M42">
-        <v>6.397719241032239</v>
+        <v>6.513042925334348</v>
       </c>
       <c r="N42">
-        <v>6.513042925334348</v>
+        <v>6.48029459704158</v>
       </c>
       <c r="O42">
-        <v>6.48029459704158</v>
+        <v>3.495240283421138</v>
       </c>
       <c r="P42">
-        <v>3.495240283421138</v>
+        <v>2.162050426859686</v>
       </c>
       <c r="Q42">
-        <v>2.162050426859686</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R42">
-        <v>0.1428571428571428</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="S42">
-        <v>4.166666666666666</v>
-      </c>
-      <c r="T42">
         <v>7</v>
       </c>
-      <c r="V42" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>Inf</t>
         </is>
       </c>
+      <c r="V42">
+        <v>7</v>
+      </c>
       <c r="W42">
-        <v>7</v>
+        <v>-146.8130657591605</v>
       </c>
       <c r="X42">
-        <v>-146.8130657591605</v>
+        <v>4.398893543710246E-06</v>
       </c>
       <c r="Y42">
-        <v>4.398893543710246E-06</v>
-      </c>
-      <c r="Z42">
         <v>2.351307503034438E-06</v>
       </c>
     </row>
@@ -3091,61 +3086,61 @@
       <c r="C43">
         <v>2</v>
       </c>
+      <c r="D43">
+        <v>8.333333333333332</v>
+      </c>
       <c r="E43">
-        <v>8.333333333333332</v>
+        <v>150.0136134691178</v>
       </c>
       <c r="F43">
-        <v>150.0136134691178</v>
+        <v>5.477225745792368</v>
       </c>
       <c r="G43">
         <v>5.477225745792368</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>5.477225745792368</v>
       </c>
-      <c r="J43">
-        <v>5.477225745792368</v>
+      <c r="L43">
+        <v>5.397586382513623</v>
       </c>
       <c r="M43">
-        <v>5.397586382513623</v>
+        <v>5.508249413036311</v>
       </c>
       <c r="N43">
-        <v>5.508249413036311</v>
+        <v>5.476738984061988</v>
       </c>
       <c r="O43">
-        <v>5.476738984061988</v>
+        <v>5.97762579750949</v>
       </c>
       <c r="P43">
-        <v>5.97762579750949</v>
+        <v>12.68644896718743</v>
       </c>
       <c r="Q43">
-        <v>12.68644896718743</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="R43">
-        <v>0.6190476190476191</v>
+        <v>25</v>
       </c>
       <c r="S43">
-        <v>25</v>
+        <v>6.5</v>
       </c>
       <c r="T43">
-        <v>6.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="U43">
-        <v>0.3333333333333333</v>
+        <v>4</v>
       </c>
       <c r="V43">
-        <v>4</v>
+        <v>6.25</v>
       </c>
       <c r="W43">
-        <v>6.25</v>
+        <v>-144.6755367496498</v>
       </c>
       <c r="X43">
-        <v>-144.6755367496498</v>
+        <v>5.124503721461537E-06</v>
       </c>
       <c r="Y43">
-        <v>5.124503721461537E-06</v>
-      </c>
-      <c r="Z43">
         <v>2.739162457789121E-06</v>
       </c>
     </row>
@@ -3174,61 +3169,61 @@
       <c r="C45">
         <v>2</v>
       </c>
+      <c r="D45">
+        <v>4.166666666666666</v>
+      </c>
       <c r="E45">
-        <v>4.166666666666666</v>
+        <v>143.9493858137125</v>
       </c>
       <c r="F45">
-        <v>143.9493858137125</v>
+        <v>5.477225467539248</v>
       </c>
       <c r="G45">
         <v>5.477225467539248</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>5.477225467539248</v>
       </c>
-      <c r="J45">
-        <v>5.477225467539248</v>
+      <c r="L45">
+        <v>5.394256638695284</v>
       </c>
       <c r="M45">
-        <v>5.394256638695284</v>
+        <v>5.509559932994044</v>
       </c>
       <c r="N45">
-        <v>5.509559932994044</v>
+        <v>5.476696831205251</v>
       </c>
       <c r="O45">
-        <v>5.476696831205251</v>
+        <v>5.977659700600321</v>
       </c>
       <c r="P45">
-        <v>5.977659700600321</v>
+        <v>6.343082117504698</v>
       </c>
       <c r="Q45">
-        <v>6.343082117504698</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="R45">
-        <v>0.3095238095238095</v>
+        <v>12.5</v>
       </c>
       <c r="S45">
-        <v>12.5</v>
+        <v>6.5</v>
       </c>
       <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>4</v>
+      </c>
+      <c r="V45">
         <v>6.5</v>
       </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>4</v>
-      </c>
       <c r="W45">
-        <v>6.5</v>
+        <v>-146.6401331787996</v>
       </c>
       <c r="X45">
-        <v>-146.6401331787996</v>
+        <v>4.453567093557385E-06</v>
       </c>
       <c r="Y45">
-        <v>4.453567093557385E-06</v>
-      </c>
-      <c r="Z45">
         <v>2.380531744973181E-06</v>
       </c>
     </row>
@@ -3244,64 +3239,64 @@
       <c r="C46">
         <v>2</v>
       </c>
+      <c r="D46">
+        <v>16.66666666666666</v>
+      </c>
       <c r="E46">
-        <v>16.66666666666666</v>
+        <v>108.5387316592359</v>
       </c>
       <c r="F46">
-        <v>108.5387316592359</v>
+        <v>5.939575247307629</v>
       </c>
       <c r="G46">
         <v>5.939575247307629</v>
       </c>
-      <c r="H46">
-        <v>5.939575247307629</v>
+      <c r="I46">
+        <v>5.93957524730763</v>
       </c>
       <c r="J46">
-        <v>5.93957524730763</v>
-      </c>
-      <c r="K46">
         <v>5.961805048423881</v>
       </c>
+      <c r="L46">
+        <v>5.820545188376075</v>
+      </c>
       <c r="M46">
-        <v>5.820545188376075</v>
+        <v>5.986123458847114</v>
       </c>
       <c r="N46">
-        <v>5.986123458847114</v>
+        <v>5.938566943695434</v>
       </c>
       <c r="O46">
-        <v>5.938566943695434</v>
+        <v>6.326999178840116</v>
       </c>
       <c r="P46">
-        <v>6.326999178840116</v>
+        <v>17.65992215645836</v>
       </c>
       <c r="Q46">
-        <v>17.65992215645836</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="R46">
-        <v>1.071428571428571</v>
+        <v>41.66666666666666</v>
       </c>
       <c r="S46">
-        <v>41.66666666666666</v>
+        <v>6.571428571428571</v>
       </c>
       <c r="T46">
-        <v>6.571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="U46">
-        <v>0.4285714285714285</v>
+        <v>4.083333333333334</v>
       </c>
       <c r="V46">
-        <v>4.083333333333334</v>
+        <v>6.25</v>
       </c>
       <c r="W46">
-        <v>6.25</v>
+        <v>-196.816250529236</v>
       </c>
       <c r="X46">
-        <v>-196.816250529236</v>
+        <v>1.236496626797656E-07</v>
       </c>
       <c r="Y46">
-        <v>1.236496626797656E-07</v>
-      </c>
-      <c r="Z46">
         <v>6.360442710480524E-08</v>
       </c>
     </row>
@@ -3382,64 +3377,64 @@
       <c r="C52">
         <v>3</v>
       </c>
+      <c r="D52">
+        <v>25</v>
+      </c>
       <c r="E52">
-        <v>25</v>
+        <v>8.563867625607138</v>
       </c>
       <c r="F52">
-        <v>8.563867625607138</v>
+        <v>4.953903294211027</v>
       </c>
       <c r="G52">
         <v>4.953903294211027</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>4.953903294211027</v>
       </c>
       <c r="J52">
-        <v>4.953903294211027</v>
-      </c>
-      <c r="K52">
         <v>4.724821503027306</v>
       </c>
+      <c r="L52">
+        <v>3.832842214111519</v>
+      </c>
       <c r="M52">
-        <v>3.832842214111519</v>
+        <v>5.469102367797973</v>
       </c>
       <c r="N52">
-        <v>5.469102367797973</v>
+        <v>4.820031818093132</v>
       </c>
       <c r="O52">
-        <v>4.820031818093132</v>
+        <v>4.82012047113034</v>
       </c>
       <c r="P52">
-        <v>4.82012047113034</v>
+        <v>49.50018020725579</v>
       </c>
       <c r="Q52">
-        <v>49.50018020725579</v>
+        <v>2.54047619047619</v>
       </c>
       <c r="R52">
-        <v>2.54047619047619</v>
+        <v>120.8333333333333</v>
       </c>
       <c r="S52">
-        <v>120.8333333333333</v>
+        <v>6.066666666666666</v>
       </c>
       <c r="T52">
-        <v>6.066666666666666</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="U52">
-        <v>0.2666666666666667</v>
+        <v>1.15979381443299</v>
       </c>
       <c r="V52">
-        <v>1.15979381443299</v>
+        <v>5.8</v>
       </c>
       <c r="W52">
-        <v>5.8</v>
+        <v>18.36304152791384</v>
       </c>
       <c r="X52">
-        <v>18.36304152791384</v>
+        <v>0.5851634094555374</v>
       </c>
       <c r="Y52">
-        <v>0.5851634094555374</v>
-      </c>
-      <c r="Z52">
         <v>0.4137194702810332</v>
       </c>
     </row>
@@ -3455,11 +3450,14 @@
       <c r="C53">
         <v>3</v>
       </c>
+      <c r="D53">
+        <v>100</v>
+      </c>
       <c r="E53">
-        <v>100</v>
+        <v>5.976394032555646</v>
       </c>
       <c r="F53">
-        <v>5.976394032555646</v>
+        <v>3.214613818743745</v>
       </c>
       <c r="G53">
         <v>3.214613818743745</v>
@@ -3471,54 +3469,51 @@
         <v>3.214613818743745</v>
       </c>
       <c r="J53">
-        <v>3.214613818743745</v>
+        <v>2.225667070898382</v>
       </c>
       <c r="K53">
+        <v>3.704251921127244</v>
+      </c>
+      <c r="L53">
         <v>2.225667070898382</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>3.704251921127244</v>
       </c>
-      <c r="M53">
-        <v>2.225667070898382</v>
-      </c>
       <c r="N53">
-        <v>3.704251921127244</v>
+        <v>3.037942261115212</v>
       </c>
       <c r="O53">
-        <v>3.037942261115212</v>
+        <v>3.740853889140504</v>
       </c>
       <c r="P53">
-        <v>3.740853889140504</v>
+        <v>364.5803976631498</v>
       </c>
       <c r="Q53">
-        <v>364.5803976631498</v>
+        <v>19.57857142857143</v>
       </c>
       <c r="R53">
-        <v>19.57857142857143</v>
+        <v>1083.333333333333</v>
       </c>
       <c r="S53">
-        <v>1083.333333333333</v>
+        <v>5.319587628865979</v>
       </c>
       <c r="T53">
-        <v>5.319587628865979</v>
+        <v>0.2048969072164948</v>
       </c>
       <c r="U53">
-        <v>0.2048969072164948</v>
+        <v>0.5805157946692991</v>
       </c>
       <c r="V53">
-        <v>0.5805157946692991</v>
+        <v>4.909090909090909</v>
       </c>
       <c r="W53">
-        <v>4.909090909090909</v>
+        <v>42.36272242773231</v>
       </c>
       <c r="X53">
-        <v>42.36272242773231</v>
+        <v>3.249167413505305</v>
       </c>
       <c r="Y53">
-        <v>3.249167413505305</v>
-      </c>
-      <c r="Z53">
         <v>2.366178072032605</v>
       </c>
     </row>
@@ -3534,70 +3529,70 @@
       <c r="C54">
         <v>3</v>
       </c>
+      <c r="D54">
+        <v>87.5</v>
+      </c>
       <c r="E54">
-        <v>87.5</v>
+        <v>6.317366520660202</v>
       </c>
       <c r="F54">
-        <v>6.317366520660202</v>
+        <v>4.203093440185616</v>
       </c>
       <c r="G54">
         <v>4.203093440185616</v>
       </c>
       <c r="H54">
-        <v>4.203093440185616</v>
+        <v>4.398920096382701</v>
       </c>
       <c r="I54">
-        <v>4.398920096382701</v>
+        <v>4.203093440185617</v>
       </c>
       <c r="J54">
-        <v>4.203093440185617</v>
+        <v>3.039471618991513</v>
       </c>
       <c r="K54">
-        <v>3.039471618991513</v>
+        <v>5.234454311050172</v>
       </c>
       <c r="L54">
-        <v>5.234454311050172</v>
+        <v>2.968372263819586</v>
       </c>
       <c r="M54">
-        <v>2.968372263819586</v>
+        <v>4.806373222796068</v>
       </c>
       <c r="N54">
-        <v>4.806373222796068</v>
+        <v>3.995952422469867</v>
       </c>
       <c r="O54">
-        <v>3.995952422469867</v>
+        <v>4.368258380716152</v>
       </c>
       <c r="P54">
-        <v>4.368258380716152</v>
+        <v>233.631571450433</v>
       </c>
       <c r="Q54">
-        <v>233.631571450433</v>
+        <v>12.11666666666667</v>
       </c>
       <c r="R54">
-        <v>12.11666666666667</v>
+        <v>629.1666666666666</v>
       </c>
       <c r="S54">
-        <v>629.1666666666666</v>
+        <v>5.712121212121212</v>
       </c>
       <c r="T54">
-        <v>5.712121212121212</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="U54">
-        <v>0.2424242424242424</v>
+        <v>0.7716563330380868</v>
       </c>
       <c r="V54">
-        <v>0.7716563330380868</v>
+        <v>5.361111111111111</v>
       </c>
       <c r="W54">
-        <v>5.361111111111111</v>
+        <v>36.37800690586641</v>
       </c>
       <c r="X54">
-        <v>36.37800690586641</v>
+        <v>2.118946651969974</v>
       </c>
       <c r="Y54">
-        <v>2.118946651969974</v>
-      </c>
-      <c r="Z54">
         <v>1.553419136246257</v>
       </c>
     </row>
@@ -3613,70 +3608,70 @@
       <c r="C55">
         <v>3</v>
       </c>
+      <c r="D55">
+        <v>79.16666666666666</v>
+      </c>
       <c r="E55">
-        <v>79.16666666666666</v>
+        <v>8.603333541001616</v>
       </c>
       <c r="F55">
-        <v>8.603333541001616</v>
+        <v>3.855513218471212</v>
       </c>
       <c r="G55">
         <v>3.855513218471212</v>
       </c>
       <c r="H55">
+        <v>4.10478701026159</v>
+      </c>
+      <c r="I55">
         <v>3.855513218471212</v>
       </c>
-      <c r="I55">
-        <v>4.10478701026159</v>
-      </c>
       <c r="J55">
-        <v>3.855513218471212</v>
+        <v>3.079339789775849</v>
       </c>
       <c r="K55">
-        <v>3.079339789775849</v>
+        <v>4.883190317966044</v>
       </c>
       <c r="L55">
-        <v>4.883190317966044</v>
+        <v>2.98652915151378</v>
       </c>
       <c r="M55">
-        <v>2.98652915151378</v>
+        <v>4.254549840384681</v>
       </c>
       <c r="N55">
-        <v>4.254549840384681</v>
+        <v>3.752269113520884</v>
       </c>
       <c r="O55">
-        <v>3.752269113520884</v>
+        <v>4.348693912452105</v>
       </c>
       <c r="P55">
-        <v>4.348693912452105</v>
+        <v>242.4778031857115</v>
       </c>
       <c r="Q55">
-        <v>242.4778031857115</v>
+        <v>12.69761904761905</v>
       </c>
       <c r="R55">
-        <v>12.69761904761905</v>
+        <v>675</v>
       </c>
       <c r="S55">
-        <v>675</v>
+        <v>5.617647058823529</v>
       </c>
       <c r="T55">
-        <v>5.617647058823529</v>
+        <v>0.2344161545215101</v>
       </c>
       <c r="U55">
-        <v>0.2344161545215101</v>
+        <v>0.7722110888443553</v>
       </c>
       <c r="V55">
-        <v>0.7722110888443553</v>
+        <v>5.236842105263158</v>
       </c>
       <c r="W55">
-        <v>5.236842105263158</v>
+        <v>21.5208126234288</v>
       </c>
       <c r="X55">
-        <v>21.5208126234288</v>
+        <v>0.733220312057874</v>
       </c>
       <c r="Y55">
-        <v>0.733220312057874</v>
-      </c>
-      <c r="Z55">
         <v>0.476119995978853</v>
       </c>
     </row>
@@ -3692,70 +3687,70 @@
       <c r="C56">
         <v>3</v>
       </c>
+      <c r="D56">
+        <v>87.5</v>
+      </c>
       <c r="E56">
-        <v>87.5</v>
+        <v>7.510976901893</v>
       </c>
       <c r="F56">
-        <v>7.510976901893</v>
+        <v>3.276556903704132</v>
       </c>
       <c r="G56">
         <v>3.276556903704132</v>
       </c>
       <c r="H56">
+        <v>3.404488467745055</v>
+      </c>
+      <c r="I56">
         <v>3.276556903704132</v>
       </c>
-      <c r="I56">
-        <v>3.404488467745055</v>
-      </c>
       <c r="J56">
-        <v>3.276556903704132</v>
+        <v>2.494694924534327</v>
       </c>
       <c r="K56">
-        <v>2.494694924534327</v>
+        <v>3.940715326482858</v>
       </c>
       <c r="L56">
-        <v>3.940715326482858</v>
+        <v>2.445520589186244</v>
       </c>
       <c r="M56">
-        <v>2.445520589186244</v>
+        <v>3.667833241822098</v>
       </c>
       <c r="N56">
-        <v>3.667833241822098</v>
+        <v>3.161762778158188</v>
       </c>
       <c r="O56">
-        <v>3.161762778158188</v>
+        <v>3.824832417772939</v>
       </c>
       <c r="P56">
-        <v>3.824832417772939</v>
+        <v>317.5816598982839</v>
       </c>
       <c r="Q56">
-        <v>317.5816598982839</v>
+        <v>16.93333333333333</v>
       </c>
       <c r="R56">
-        <v>16.93333333333333</v>
+        <v>933.3333333333334</v>
       </c>
       <c r="S56">
-        <v>933.3333333333334</v>
+        <v>5.364705882352941</v>
       </c>
       <c r="T56">
-        <v>5.364705882352941</v>
+        <v>0.2092436974789916</v>
       </c>
       <c r="U56">
-        <v>0.2092436974789916</v>
+        <v>0.6084722924035708</v>
       </c>
       <c r="V56">
-        <v>0.6084722924035708</v>
+        <v>5</v>
       </c>
       <c r="W56">
-        <v>5</v>
+        <v>44.38098421753468</v>
       </c>
       <c r="X56">
-        <v>44.38098421753468</v>
+        <v>3.75301808696465</v>
       </c>
       <c r="Y56">
-        <v>3.75301808696465</v>
-      </c>
-      <c r="Z56">
         <v>2.341653633885953</v>
       </c>
     </row>
@@ -3771,64 +3766,64 @@
       <c r="C57">
         <v>3</v>
       </c>
+      <c r="D57">
+        <v>16.66666666666666</v>
+      </c>
       <c r="E57">
-        <v>16.66666666666666</v>
+        <v>8.987768478392955</v>
       </c>
       <c r="F57">
-        <v>8.987768478392955</v>
+        <v>4.780470171498499</v>
       </c>
       <c r="G57">
         <v>4.780470171498499</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>4.780470171498499</v>
       </c>
       <c r="J57">
-        <v>4.780470171498499</v>
-      </c>
-      <c r="K57">
         <v>5.001070021061507</v>
       </c>
+      <c r="L57">
+        <v>3.743685646506688</v>
+      </c>
       <c r="M57">
-        <v>3.743685646506688</v>
+        <v>5.253062459591696</v>
       </c>
       <c r="N57">
-        <v>5.253062459591696</v>
+        <v>4.663085551048368</v>
       </c>
       <c r="O57">
-        <v>4.663085551048368</v>
+        <v>4.87836349280744</v>
       </c>
       <c r="P57">
-        <v>4.87836349280744</v>
+        <v>35.81335363234375</v>
       </c>
       <c r="Q57">
-        <v>35.81335363234375</v>
+        <v>1.888095238095238</v>
       </c>
       <c r="R57">
-        <v>1.888095238095238</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="S57">
-        <v>91.66666666666666</v>
+        <v>6</v>
       </c>
       <c r="T57">
-        <v>6</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="U57">
-        <v>0.2363636363636364</v>
+        <v>1.1</v>
       </c>
       <c r="V57">
-        <v>1.1</v>
+        <v>5.75</v>
       </c>
       <c r="W57">
-        <v>5.75</v>
+        <v>27.33372673359628</v>
       </c>
       <c r="X57">
-        <v>27.33372673359628</v>
+        <v>1.110598534895517</v>
       </c>
       <c r="Y57">
-        <v>1.110598534895517</v>
-      </c>
-      <c r="Z57">
         <v>0.8177985780558298</v>
       </c>
     </row>
@@ -3844,70 +3839,70 @@
       <c r="C58">
         <v>3</v>
       </c>
+      <c r="D58">
+        <v>79.16666666666667</v>
+      </c>
       <c r="E58">
-        <v>79.16666666666667</v>
+        <v>4.24489260165404</v>
       </c>
       <c r="F58">
-        <v>4.24489260165404</v>
+        <v>4.181151494081775</v>
       </c>
       <c r="G58">
         <v>4.181151494081775</v>
       </c>
       <c r="H58">
+        <v>4.747233290080488</v>
+      </c>
+      <c r="I58">
         <v>4.181151494081775</v>
       </c>
-      <c r="I58">
-        <v>4.747233290080488</v>
-      </c>
       <c r="J58">
-        <v>4.181151494081775</v>
+        <v>2.651156339589921</v>
       </c>
       <c r="K58">
-        <v>2.651156339589921</v>
+        <v>6.749690743470157</v>
       </c>
       <c r="L58">
-        <v>6.749690743470157</v>
+        <v>2.49171350176369</v>
       </c>
       <c r="M58">
-        <v>2.49171350176369</v>
+        <v>5.104848428869703</v>
       </c>
       <c r="N58">
-        <v>5.104848428869703</v>
+        <v>3.733958682701151</v>
       </c>
       <c r="O58">
-        <v>3.733958682701151</v>
+        <v>3.849644805861436</v>
       </c>
       <c r="P58">
-        <v>3.849644805861436</v>
+        <v>209.1841307016229</v>
       </c>
       <c r="Q58">
-        <v>209.1841307016229</v>
+        <v>10.98095238095238</v>
       </c>
       <c r="R58">
-        <v>10.98095238095238</v>
+        <v>579.1666666666666</v>
       </c>
       <c r="S58">
-        <v>579.1666666666666</v>
+        <v>5.603448275862069</v>
       </c>
       <c r="T58">
-        <v>5.603448275862069</v>
+        <v>0.2268602540834846</v>
       </c>
       <c r="U58">
-        <v>0.2268602540834846</v>
+        <v>0.6453098024170343</v>
       </c>
       <c r="V58">
-        <v>0.6453098024170343</v>
+        <v>5.269230769230769</v>
       </c>
       <c r="W58">
-        <v>5.269230769230769</v>
+        <v>50.53480500966683</v>
       </c>
       <c r="X58">
-        <v>50.53480500966683</v>
+        <v>5.824766818465734</v>
       </c>
       <c r="Y58">
-        <v>5.824766818465734</v>
-      </c>
-      <c r="Z58">
         <v>4.501007259696719</v>
       </c>
     </row>
@@ -3923,70 +3918,70 @@
       <c r="C59">
         <v>3</v>
       </c>
+      <c r="D59">
+        <v>87.5</v>
+      </c>
       <c r="E59">
-        <v>87.5</v>
+        <v>5.384865530058056</v>
       </c>
       <c r="F59">
-        <v>5.384865530058056</v>
+        <v>3.780514734804034</v>
       </c>
       <c r="G59">
         <v>3.780514734804034</v>
       </c>
       <c r="H59">
+        <v>3.987978106881852</v>
+      </c>
+      <c r="I59">
         <v>3.780514734804034</v>
       </c>
-      <c r="I59">
-        <v>3.987978106881852</v>
-      </c>
       <c r="J59">
-        <v>3.780514734804034</v>
+        <v>2.584654970608907</v>
       </c>
       <c r="K59">
-        <v>2.584654970608907</v>
+        <v>4.89054075395435</v>
       </c>
       <c r="L59">
-        <v>4.89054075395435</v>
+        <v>2.513869340974538</v>
       </c>
       <c r="M59">
-        <v>2.513869340974538</v>
+        <v>4.424725226497569</v>
       </c>
       <c r="N59">
-        <v>4.424725226497569</v>
+        <v>3.525693961298039</v>
       </c>
       <c r="O59">
-        <v>3.525693961298039</v>
+        <v>4.054324349427122</v>
       </c>
       <c r="P59">
-        <v>4.054324349427122</v>
+        <v>267.1496103590713</v>
       </c>
       <c r="Q59">
-        <v>267.1496103590713</v>
+        <v>13.75</v>
       </c>
       <c r="R59">
-        <v>13.75</v>
+        <v>737.5</v>
       </c>
       <c r="S59">
-        <v>737.5</v>
+        <v>5.541666666666667</v>
       </c>
       <c r="T59">
-        <v>5.541666666666667</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="U59">
-        <v>0.2253521126760563</v>
+        <v>0.6674391657010429</v>
       </c>
       <c r="V59">
-        <v>0.6674391657010429</v>
+        <v>5.194444444444445</v>
       </c>
       <c r="W59">
-        <v>5.194444444444445</v>
+        <v>52.85605500579268</v>
       </c>
       <c r="X59">
-        <v>52.85605500579268</v>
+        <v>6.875212406990705</v>
       </c>
       <c r="Y59">
-        <v>6.875212406990705</v>
-      </c>
-      <c r="Z59">
         <v>5.711719447893669</v>
       </c>
     </row>
@@ -4002,70 +3997,70 @@
       <c r="C60">
         <v>3</v>
       </c>
+      <c r="D60">
+        <v>83.33333333333333</v>
+      </c>
       <c r="E60">
-        <v>83.33333333333333</v>
+        <v>11.42226479910111</v>
       </c>
       <c r="F60">
-        <v>11.42226479910111</v>
+        <v>3.741194815710664</v>
       </c>
       <c r="G60">
         <v>3.741194815710664</v>
       </c>
       <c r="H60">
+        <v>3.876384214072996</v>
+      </c>
+      <c r="I60">
         <v>3.741194815710664</v>
       </c>
-      <c r="I60">
-        <v>3.876384214072996</v>
-      </c>
       <c r="J60">
-        <v>3.741194815710664</v>
+        <v>3.142350643932069</v>
       </c>
       <c r="K60">
-        <v>3.142350643932069</v>
+        <v>4.325726479949187</v>
       </c>
       <c r="L60">
-        <v>4.325726479949187</v>
+        <v>3.086512236834033</v>
       </c>
       <c r="M60">
-        <v>3.086512236834033</v>
+        <v>4.029267215770128</v>
       </c>
       <c r="N60">
-        <v>4.029267215770128</v>
+        <v>3.684136868299445</v>
       </c>
       <c r="O60">
-        <v>3.684136868299445</v>
+        <v>4.272930416434004</v>
       </c>
       <c r="P60">
-        <v>4.272930416434004</v>
+        <v>267.6450448181267</v>
       </c>
       <c r="Q60">
-        <v>267.6450448181267</v>
+        <v>13.62380952380952</v>
       </c>
       <c r="R60">
-        <v>13.62380952380952</v>
+        <v>729.1666666666667</v>
       </c>
       <c r="S60">
-        <v>729.1666666666667</v>
+        <v>5.602739726027397</v>
       </c>
       <c r="T60">
-        <v>5.602739726027397</v>
+        <v>0.2374429223744292</v>
       </c>
       <c r="U60">
-        <v>0.2374429223744292</v>
+        <v>0.7979934112009583</v>
       </c>
       <c r="V60">
-        <v>0.7979934112009583</v>
+        <v>5.2</v>
       </c>
       <c r="W60">
-        <v>5.2</v>
+        <v>37.26499076036777</v>
       </c>
       <c r="X60">
-        <v>37.26499076036777</v>
+        <v>2.257538572486707</v>
       </c>
       <c r="Y60">
-        <v>2.257538572486707</v>
-      </c>
-      <c r="Z60">
         <v>1.34584363731593</v>
       </c>
     </row>
@@ -4081,70 +4076,70 @@
       <c r="C61">
         <v>3</v>
       </c>
+      <c r="D61">
+        <v>83.33333333333333</v>
+      </c>
       <c r="E61">
-        <v>83.33333333333333</v>
+        <v>6.557874694509708</v>
       </c>
       <c r="F61">
-        <v>6.557874694509708</v>
+        <v>4.127122944867218</v>
       </c>
       <c r="G61">
         <v>4.127122944867218</v>
       </c>
       <c r="H61">
+        <v>4.39035143514361</v>
+      </c>
+      <c r="I61">
         <v>4.127122944867218</v>
       </c>
-      <c r="I61">
-        <v>4.39035143514361</v>
-      </c>
       <c r="J61">
-        <v>4.127122944867218</v>
+        <v>3.045782960376112</v>
       </c>
       <c r="K61">
-        <v>3.045782960376112</v>
+        <v>5.31451168430582</v>
       </c>
       <c r="L61">
-        <v>5.31451168430582</v>
+        <v>2.952136719932312</v>
       </c>
       <c r="M61">
-        <v>2.952136719932312</v>
+        <v>4.696340831799283</v>
       </c>
       <c r="N61">
-        <v>4.696340831799283</v>
+        <v>3.938143920882014</v>
       </c>
       <c r="O61">
-        <v>3.938143920882014</v>
+        <v>4.375765549816566</v>
       </c>
       <c r="P61">
-        <v>4.375765549816566</v>
+        <v>229.1275881182612</v>
       </c>
       <c r="Q61">
-        <v>229.1275881182612</v>
+        <v>11.40714285714286</v>
       </c>
       <c r="R61">
-        <v>11.40714285714286</v>
+        <v>591.6666666666666</v>
       </c>
       <c r="S61">
-        <v>591.6666666666666</v>
+        <v>5.746031746031746</v>
       </c>
       <c r="T61">
-        <v>5.746031746031746</v>
+        <v>0.250384024577573</v>
       </c>
       <c r="U61">
-        <v>0.250384024577573</v>
+        <v>0.8520824388149421</v>
       </c>
       <c r="V61">
-        <v>0.8520824388149421</v>
+        <v>5.388888888888889</v>
       </c>
       <c r="W61">
-        <v>5.388888888888889</v>
+        <v>49.60036623130399</v>
       </c>
       <c r="X61">
-        <v>49.60036623130399</v>
+        <v>5.448679798154794</v>
       </c>
       <c r="Y61">
-        <v>5.448679798154794</v>
-      </c>
-      <c r="Z61">
         <v>4.161459144664661</v>
       </c>
     </row>
@@ -4173,64 +4168,64 @@
       <c r="C63">
         <v>3</v>
       </c>
+      <c r="D63">
+        <v>25</v>
+      </c>
       <c r="E63">
-        <v>25</v>
+        <v>18.84773472551043</v>
       </c>
       <c r="F63">
-        <v>18.84773472551043</v>
+        <v>3.681707528497797</v>
       </c>
       <c r="G63">
         <v>3.681707528497797</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>3.681707528497797</v>
       </c>
       <c r="J63">
-        <v>3.681707528497797</v>
-      </c>
-      <c r="K63">
         <v>3.603350028779065</v>
       </c>
+      <c r="L63">
+        <v>3.276576080404277</v>
+      </c>
       <c r="M63">
-        <v>3.276576080404277</v>
+        <v>3.850994928437913</v>
       </c>
       <c r="N63">
-        <v>3.850994928437913</v>
+        <v>3.661018225908765</v>
       </c>
       <c r="O63">
-        <v>3.661018225908765</v>
+        <v>4.198578562372204</v>
       </c>
       <c r="P63">
-        <v>4.198578562372204</v>
+        <v>82.52977428184413</v>
       </c>
       <c r="Q63">
-        <v>82.52977428184413</v>
+        <v>3.940476190476191</v>
       </c>
       <c r="R63">
-        <v>3.940476190476191</v>
+        <v>212.5</v>
       </c>
       <c r="S63">
-        <v>212.5</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="T63">
-        <v>5.571428571428571</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="U63">
-        <v>0.2142857142857143</v>
+        <v>0.7736842105263158</v>
       </c>
       <c r="V63">
-        <v>0.7736842105263158</v>
+        <v>5.2</v>
       </c>
       <c r="W63">
-        <v>5.2</v>
+        <v>37.00037974952015</v>
       </c>
       <c r="X63">
-        <v>37.00037974952015</v>
+        <v>2.215270030605889</v>
       </c>
       <c r="Y63">
-        <v>2.215270030605889</v>
-      </c>
-      <c r="Z63">
         <v>1.276276531147342</v>
       </c>
     </row>
@@ -4246,67 +4241,67 @@
       <c r="C64">
         <v>3</v>
       </c>
+      <c r="D64">
+        <v>58.33333333333333</v>
+      </c>
       <c r="E64">
-        <v>58.33333333333333</v>
+        <v>4.766379896377289</v>
       </c>
       <c r="F64">
-        <v>4.766379896377289</v>
+        <v>4.336260015531362</v>
       </c>
       <c r="G64">
         <v>4.336260015531362</v>
       </c>
       <c r="H64">
+        <v>6.315004318715577</v>
+      </c>
+      <c r="I64">
         <v>4.336260015531362</v>
       </c>
-      <c r="I64">
-        <v>6.315004318715577</v>
-      </c>
       <c r="J64">
-        <v>4.336260015531362</v>
-      </c>
-      <c r="K64">
         <v>3.115719917905196</v>
       </c>
+      <c r="L64">
+        <v>2.734717911826111</v>
+      </c>
       <c r="M64">
-        <v>2.734717911826111</v>
+        <v>5.179858397784032</v>
       </c>
       <c r="N64">
-        <v>5.179858397784032</v>
+        <v>3.965575028277979</v>
       </c>
       <c r="O64">
-        <v>3.965575028277979</v>
+        <v>4.023023507220615</v>
       </c>
       <c r="P64">
-        <v>4.023023507220615</v>
+        <v>146.6897765903328</v>
       </c>
       <c r="Q64">
-        <v>146.6897765903328</v>
+        <v>7.55</v>
       </c>
       <c r="R64">
-        <v>7.55</v>
+        <v>391.6666666666667</v>
       </c>
       <c r="S64">
-        <v>391.6666666666667</v>
+        <v>5.707317073170731</v>
       </c>
       <c r="T64">
-        <v>5.707317073170731</v>
+        <v>0.2353658536585366</v>
       </c>
       <c r="U64">
-        <v>0.2353658536585366</v>
+        <v>0.7258203799654577</v>
       </c>
       <c r="V64">
-        <v>0.7258203799654577</v>
+        <v>5.4</v>
       </c>
       <c r="W64">
-        <v>5.4</v>
+        <v>46.00592892706341</v>
       </c>
       <c r="X64">
-        <v>46.00592892706341</v>
+        <v>4.214908228961534</v>
       </c>
       <c r="Y64">
-        <v>4.214908228961534</v>
-      </c>
-      <c r="Z64">
         <v>3.49767969689262</v>
       </c>
     </row>
@@ -4322,67 +4317,67 @@
       <c r="C65">
         <v>3</v>
       </c>
+      <c r="D65">
+        <v>58.33333333333334</v>
+      </c>
       <c r="E65">
-        <v>58.33333333333334</v>
+        <v>6.984547616655165</v>
       </c>
       <c r="F65">
-        <v>6.984547616655165</v>
+        <v>4.550224800308918</v>
       </c>
       <c r="G65">
         <v>4.550224800308918</v>
       </c>
       <c r="H65">
+        <v>5.880892680632665</v>
+      </c>
+      <c r="I65">
         <v>4.550224800308918</v>
       </c>
-      <c r="I65">
-        <v>5.880892680632665</v>
-      </c>
       <c r="J65">
-        <v>4.550224800308918</v>
-      </c>
-      <c r="K65">
         <v>3.631341224336525</v>
       </c>
+      <c r="L65">
+        <v>3.322086252478448</v>
+      </c>
       <c r="M65">
-        <v>3.322086252478448</v>
+        <v>5.137091074479288</v>
       </c>
       <c r="N65">
-        <v>5.137091074479288</v>
+        <v>4.366212317491142</v>
       </c>
       <c r="O65">
-        <v>4.366212317491142</v>
+        <v>4.558087734491529</v>
       </c>
       <c r="P65">
-        <v>4.558087734491529</v>
+        <v>137.0317326215618</v>
       </c>
       <c r="Q65">
-        <v>137.0317326215618</v>
+        <v>7.016666666666667</v>
       </c>
       <c r="R65">
-        <v>7.016666666666667</v>
+        <v>350</v>
       </c>
       <c r="S65">
-        <v>350</v>
+        <v>5.9</v>
       </c>
       <c r="T65">
-        <v>5.9</v>
+        <v>0.2653846153846154</v>
       </c>
       <c r="U65">
-        <v>0.2653846153846154</v>
+        <v>0.9615384615384615</v>
       </c>
       <c r="V65">
-        <v>0.9615384615384615</v>
+        <v>5.576923076923077</v>
       </c>
       <c r="W65">
-        <v>5.576923076923077</v>
+        <v>41.86444757653939</v>
       </c>
       <c r="X65">
-        <v>41.86444757653939</v>
+        <v>3.135559798510611</v>
       </c>
       <c r="Y65">
-        <v>3.135559798510611</v>
-      </c>
-      <c r="Z65">
         <v>2.60560988945357</v>
       </c>
     </row>
@@ -4398,64 +4393,64 @@
       <c r="C66">
         <v>3</v>
       </c>
+      <c r="D66">
+        <v>37.5</v>
+      </c>
       <c r="E66">
-        <v>37.5</v>
+        <v>6.192925874831711</v>
       </c>
       <c r="F66">
-        <v>6.192925874831711</v>
+        <v>3.99507269864247</v>
       </c>
       <c r="G66">
         <v>3.99507269864247</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>3.99507269864247</v>
       </c>
       <c r="J66">
-        <v>3.99507269864247</v>
-      </c>
-      <c r="K66">
         <v>3.392998220048947</v>
       </c>
+      <c r="L66">
+        <v>2.801810730926241</v>
+      </c>
       <c r="M66">
-        <v>2.801810730926241</v>
+        <v>4.580823696204733</v>
       </c>
       <c r="N66">
-        <v>4.580823696204733</v>
+        <v>3.790330601072032</v>
       </c>
       <c r="O66">
-        <v>3.790330601072032</v>
+        <v>4.269521540627356</v>
       </c>
       <c r="P66">
-        <v>4.269521540627356</v>
+        <v>107.6069365002253</v>
       </c>
       <c r="Q66">
-        <v>107.6069365002253</v>
+        <v>5.319047619047619</v>
       </c>
       <c r="R66">
-        <v>5.319047619047619</v>
+        <v>279.1666666666666</v>
       </c>
       <c r="S66">
-        <v>279.1666666666666</v>
+        <v>5.689655172413793</v>
       </c>
       <c r="T66">
-        <v>5.689655172413793</v>
+        <v>0.2315270935960591</v>
       </c>
       <c r="U66">
-        <v>0.2315270935960591</v>
+        <v>0.800952380952381</v>
       </c>
       <c r="V66">
-        <v>0.800952380952381</v>
+        <v>5.375</v>
       </c>
       <c r="W66">
-        <v>5.375</v>
+        <v>44.2208502212789</v>
       </c>
       <c r="X66">
-        <v>44.2208502212789</v>
+        <v>3.710335103324891</v>
       </c>
       <c r="Y66">
-        <v>3.710335103324891</v>
-      </c>
-      <c r="Z66">
         <v>2.80751005100046</v>
       </c>
     </row>
@@ -4471,64 +4466,64 @@
       <c r="C67">
         <v>3</v>
       </c>
+      <c r="D67">
+        <v>12.5</v>
+      </c>
       <c r="E67">
-        <v>12.5</v>
+        <v>155.1523502184269</v>
       </c>
       <c r="F67">
-        <v>155.1523502184269</v>
+        <v>5.477226183417972</v>
       </c>
       <c r="G67">
         <v>5.477226183417972</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>5.477226183417972</v>
       </c>
       <c r="J67">
-        <v>5.477226183417972</v>
-      </c>
-      <c r="K67">
         <v>5.526384775984881</v>
       </c>
+      <c r="L67">
+        <v>5.40020588174016</v>
+      </c>
       <c r="M67">
-        <v>5.40020588174016</v>
+        <v>5.507219522870317</v>
       </c>
       <c r="N67">
-        <v>5.507219522870317</v>
+        <v>5.476771130475918</v>
       </c>
       <c r="O67">
-        <v>5.476771130475918</v>
+        <v>5.977600280483752</v>
       </c>
       <c r="P67">
-        <v>5.977600280483752</v>
+        <v>19.02999402837043</v>
       </c>
       <c r="Q67">
-        <v>19.02999402837043</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="R67">
-        <v>0.9285714285714286</v>
+        <v>37.5</v>
       </c>
       <c r="S67">
-        <v>37.5</v>
+        <v>6.5</v>
       </c>
       <c r="T67">
-        <v>6.5</v>
+        <v>0.4</v>
       </c>
       <c r="U67">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="V67">
-        <v>4</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="W67">
-        <v>6.166666666666667</v>
+        <v>-145.557336596668</v>
       </c>
       <c r="X67">
-        <v>-145.557336596668</v>
+        <v>4.811688115650528E-06</v>
       </c>
       <c r="Y67">
-        <v>4.811688115650528E-06</v>
-      </c>
-      <c r="Z67">
         <v>2.57195548258612E-06</v>
       </c>
     </row>
@@ -4557,64 +4552,64 @@
       <c r="C69">
         <v>3</v>
       </c>
+      <c r="D69">
+        <v>20.83333333333333</v>
+      </c>
       <c r="E69">
-        <v>20.83333333333333</v>
+        <v>10.4566193817578</v>
       </c>
       <c r="F69">
-        <v>10.4566193817578</v>
+        <v>5.662486479299914</v>
       </c>
       <c r="G69">
         <v>5.662486479299914</v>
       </c>
-      <c r="H69">
-        <v>5.662486479299914</v>
+      <c r="I69">
+        <v>5.662486479299913</v>
       </c>
       <c r="J69">
-        <v>5.662486479299913</v>
-      </c>
-      <c r="K69">
         <v>5.6193070891791</v>
       </c>
+      <c r="L69">
+        <v>4.589336589967957</v>
+      </c>
       <c r="M69">
-        <v>4.589336589967957</v>
+        <v>6.140418570962738</v>
       </c>
       <c r="N69">
-        <v>6.140418570962738</v>
+        <v>5.559541347959992</v>
       </c>
       <c r="O69">
-        <v>5.559541347959992</v>
+        <v>4.671651921976068</v>
       </c>
       <c r="P69">
-        <v>4.671651921976068</v>
+        <v>27.66958172155926</v>
       </c>
       <c r="Q69">
-        <v>27.66958172155926</v>
+        <v>1.664285714285714</v>
       </c>
       <c r="R69">
-        <v>1.664285714285714</v>
+        <v>75</v>
       </c>
       <c r="S69">
-        <v>75</v>
+        <v>6.2</v>
       </c>
       <c r="T69">
-        <v>6.2</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="U69">
-        <v>0.2888888888888889</v>
+        <v>1.041666666666667</v>
       </c>
       <c r="V69">
-        <v>1.041666666666667</v>
+        <v>6.1</v>
       </c>
       <c r="W69">
-        <v>6.1</v>
+        <v>32.63360287599104</v>
       </c>
       <c r="X69">
-        <v>32.63360287599104</v>
+        <v>1.621678416095162</v>
       </c>
       <c r="Y69">
-        <v>1.621678416095162</v>
-      </c>
-      <c r="Z69">
         <v>0.9960842382717369</v>
       </c>
     </row>
@@ -4630,64 +4625,64 @@
       <c r="C70">
         <v>3</v>
       </c>
+      <c r="D70">
+        <v>45.83333333333333</v>
+      </c>
       <c r="E70">
-        <v>45.83333333333333</v>
+        <v>122.8301000808966</v>
       </c>
       <c r="F70">
-        <v>122.8301000808966</v>
+        <v>6.048103312305495</v>
       </c>
       <c r="G70">
         <v>6.048103312305495</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>6.048103312305495</v>
       </c>
       <c r="J70">
-        <v>6.048103312305495</v>
-      </c>
-      <c r="K70">
         <v>5.985584520257521</v>
       </c>
+      <c r="L70">
+        <v>5.940874811526006</v>
+      </c>
       <c r="M70">
-        <v>5.940874811526006</v>
+        <v>6.089968136887077</v>
       </c>
       <c r="N70">
-        <v>6.089968136887077</v>
+        <v>6.047301596593613</v>
       </c>
       <c r="O70">
-        <v>6.047301596593613</v>
+        <v>6.095107107266655</v>
       </c>
       <c r="P70">
-        <v>6.095107107266655</v>
+        <v>43.59837278504361</v>
       </c>
       <c r="Q70">
-        <v>43.59837278504361</v>
+        <v>2.071428571428571</v>
       </c>
       <c r="R70">
-        <v>2.071428571428571</v>
+        <v>70.83333333333333</v>
       </c>
       <c r="S70">
-        <v>70.83333333333333</v>
+        <v>6.785714285714286</v>
       </c>
       <c r="T70">
-        <v>6.785714285714286</v>
+        <v>0.6373626373626373</v>
       </c>
       <c r="U70">
-        <v>0.6373626373626373</v>
+        <v>5.939393939393939</v>
       </c>
       <c r="V70">
-        <v>5.939393939393939</v>
+        <v>6.409090909090909</v>
       </c>
       <c r="W70">
-        <v>6.409090909090909</v>
+        <v>-185.536176708734</v>
       </c>
       <c r="X70">
-        <v>-185.536176708734</v>
+        <v>2.76765845209633E-07</v>
       </c>
       <c r="Y70">
-        <v>2.76765845209633E-07</v>
-      </c>
-      <c r="Z70">
         <v>1.103663754610644E-07</v>
       </c>
     </row>
@@ -4703,64 +4698,64 @@
       <c r="C71">
         <v>3</v>
       </c>
+      <c r="D71">
+        <v>37.5</v>
+      </c>
       <c r="E71">
-        <v>37.5</v>
+        <v>40.61241710812473</v>
       </c>
       <c r="F71">
-        <v>40.61241710812473</v>
+        <v>5.156602663735154</v>
       </c>
       <c r="G71">
         <v>5.156602663735154</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>5.156602663735154</v>
       </c>
       <c r="J71">
-        <v>5.156602663735154</v>
-      </c>
-      <c r="K71">
         <v>5.029745083524128</v>
       </c>
+      <c r="L71">
+        <v>4.885031231627535</v>
+      </c>
       <c r="M71">
-        <v>4.885031231627535</v>
+        <v>5.265315084116799</v>
       </c>
       <c r="N71">
-        <v>5.265315084116799</v>
+        <v>5.150352369748495</v>
       </c>
       <c r="O71">
-        <v>5.150352369748495</v>
+        <v>5.659448952252359</v>
       </c>
       <c r="P71">
-        <v>5.659448952252359</v>
+        <v>68.93443963108328</v>
       </c>
       <c r="Q71">
-        <v>68.93443963108328</v>
+        <v>3.435714285714286</v>
       </c>
       <c r="R71">
-        <v>3.435714285714286</v>
+        <v>154.1666666666667</v>
       </c>
       <c r="S71">
-        <v>154.1666666666667</v>
+        <v>6.238095238095238</v>
       </c>
       <c r="T71">
-        <v>6.238095238095238</v>
+        <v>0.3476190476190476</v>
       </c>
       <c r="U71">
-        <v>0.3476190476190476</v>
+        <v>1.520689655172414</v>
       </c>
       <c r="V71">
-        <v>1.520689655172414</v>
+        <v>5.888888888888889</v>
       </c>
       <c r="W71">
-        <v>5.888888888888889</v>
+        <v>32.22178358169047</v>
       </c>
       <c r="X71">
-        <v>32.22178358169047</v>
+        <v>1.574670443788921</v>
       </c>
       <c r="Y71">
-        <v>1.574670443788921</v>
-      </c>
-      <c r="Z71">
         <v>0.6067179853356519</v>
       </c>
     </row>
@@ -4789,61 +4784,61 @@
       <c r="C73">
         <v>3</v>
       </c>
+      <c r="D73">
+        <v>4.166666666666666</v>
+      </c>
       <c r="E73">
-        <v>4.166666666666666</v>
+        <v>143.9493858137125</v>
       </c>
       <c r="F73">
-        <v>143.9493858137125</v>
+        <v>5.477225467539248</v>
       </c>
       <c r="G73">
         <v>5.477225467539248</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>5.477225467539248</v>
       </c>
-      <c r="J73">
-        <v>5.477225467539248</v>
+      <c r="L73">
+        <v>5.394256638695284</v>
       </c>
       <c r="M73">
-        <v>5.394256638695284</v>
+        <v>5.509559932994044</v>
       </c>
       <c r="N73">
-        <v>5.509559932994044</v>
+        <v>5.476696831205251</v>
       </c>
       <c r="O73">
-        <v>5.476696831205251</v>
+        <v>5.977659700600321</v>
       </c>
       <c r="P73">
-        <v>5.977659700600321</v>
+        <v>6.343082117504698</v>
       </c>
       <c r="Q73">
-        <v>6.343082117504698</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="R73">
-        <v>0.3095238095238095</v>
+        <v>12.5</v>
       </c>
       <c r="S73">
-        <v>12.5</v>
+        <v>6.5</v>
       </c>
       <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>4</v>
+      </c>
+      <c r="V73">
         <v>6.5</v>
       </c>
-      <c r="U73">
-        <v>0</v>
-      </c>
-      <c r="V73">
-        <v>4</v>
-      </c>
       <c r="W73">
-        <v>6.5</v>
+        <v>-146.6401331787996</v>
       </c>
       <c r="X73">
-        <v>-146.6401331787996</v>
+        <v>4.453567093557385E-06</v>
       </c>
       <c r="Y73">
-        <v>4.453567093557385E-06</v>
-      </c>
-      <c r="Z73">
         <v>2.380531744973181E-06</v>
       </c>
     </row>
@@ -4872,61 +4867,61 @@
       <c r="C75">
         <v>3</v>
       </c>
+      <c r="D75">
+        <v>4.166666666666666</v>
+      </c>
       <c r="E75">
-        <v>4.166666666666666</v>
+        <v>143.9493858137125</v>
       </c>
       <c r="F75">
-        <v>143.9493858137125</v>
+        <v>5.477225467539248</v>
       </c>
       <c r="G75">
         <v>5.477225467539248</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>5.477225467539248</v>
       </c>
-      <c r="J75">
-        <v>5.477225467539248</v>
+      <c r="L75">
+        <v>5.394256638695284</v>
       </c>
       <c r="M75">
-        <v>5.394256638695284</v>
+        <v>5.509559932994044</v>
       </c>
       <c r="N75">
-        <v>5.509559932994044</v>
+        <v>5.476696831205251</v>
       </c>
       <c r="O75">
-        <v>5.476696831205251</v>
+        <v>5.977659700600321</v>
       </c>
       <c r="P75">
-        <v>5.977659700600321</v>
+        <v>6.343082117504698</v>
       </c>
       <c r="Q75">
-        <v>6.343082117504698</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="R75">
-        <v>0.3095238095238095</v>
+        <v>12.5</v>
       </c>
       <c r="S75">
-        <v>12.5</v>
+        <v>6.5</v>
       </c>
       <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>4</v>
+      </c>
+      <c r="V75">
         <v>6.5</v>
       </c>
-      <c r="U75">
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <v>4</v>
-      </c>
       <c r="W75">
-        <v>6.5</v>
+        <v>-146.6401331787996</v>
       </c>
       <c r="X75">
-        <v>-146.6401331787996</v>
+        <v>4.453567093557385E-06</v>
       </c>
       <c r="Y75">
-        <v>4.453567093557385E-06</v>
-      </c>
-      <c r="Z75">
         <v>2.380531744973181E-06</v>
       </c>
     </row>
@@ -4942,64 +4937,64 @@
       <c r="C76">
         <v>3</v>
       </c>
+      <c r="D76">
+        <v>12.5</v>
+      </c>
       <c r="E76">
-        <v>12.5</v>
+        <v>112.6032697976963</v>
       </c>
       <c r="F76">
-        <v>112.6032697976963</v>
+        <v>5.96317949768241</v>
       </c>
       <c r="G76">
         <v>5.96317949768241</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>5.96317949768241</v>
       </c>
       <c r="J76">
-        <v>5.96317949768241</v>
-      </c>
-      <c r="K76">
         <v>6.037047856138225</v>
       </c>
+      <c r="L76">
+        <v>5.847948046741445</v>
+      </c>
       <c r="M76">
-        <v>5.847948046741445</v>
+        <v>6.008219454679089</v>
       </c>
       <c r="N76">
-        <v>6.008219454679089</v>
+        <v>5.962238945187655</v>
       </c>
       <c r="O76">
-        <v>5.962238945187655</v>
+        <v>6.309909325157341</v>
       </c>
       <c r="P76">
-        <v>6.309909325157341</v>
+        <v>12.9505852358919</v>
       </c>
       <c r="Q76">
-        <v>12.9505852358919</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="R76">
-        <v>0.7619047619047619</v>
+        <v>29.16666666666666</v>
       </c>
       <c r="S76">
-        <v>29.16666666666666</v>
+        <v>6.6</v>
       </c>
       <c r="T76">
-        <v>6.6</v>
+        <v>0.4</v>
       </c>
       <c r="U76">
-        <v>0.4</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="V76">
-        <v>4.166666666666666</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="W76">
-        <v>6.333333333333333</v>
+        <v>-204.8963667578089</v>
       </c>
       <c r="X76">
-        <v>-204.8963667578089</v>
+        <v>6.942875415857742E-08</v>
       </c>
       <c r="Y76">
-        <v>6.942875415857742E-08</v>
-      </c>
-      <c r="Z76">
         <v>3.157354738058712E-08</v>
       </c>
     </row>
@@ -5015,61 +5010,61 @@
       <c r="C77">
         <v>4</v>
       </c>
+      <c r="D77">
+        <v>8.333333333333332</v>
+      </c>
       <c r="E77">
-        <v>8.333333333333332</v>
+        <v>95.36559433154007</v>
       </c>
       <c r="F77">
-        <v>95.36559433154007</v>
+        <v>3.464102065277851</v>
       </c>
       <c r="G77">
         <v>3.464102065277851</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>3.464102065277851</v>
       </c>
-      <c r="J77">
-        <v>3.464102065277851</v>
+      <c r="L77">
+        <v>3.385201532010218</v>
       </c>
       <c r="M77">
-        <v>3.385201532010218</v>
+        <v>3.495016819149762</v>
       </c>
       <c r="N77">
-        <v>3.495016819149762</v>
+        <v>3.46334032766559</v>
       </c>
       <c r="O77">
-        <v>3.46334032766559</v>
+        <v>3.964728694655502</v>
       </c>
       <c r="P77">
-        <v>3.964728694655502</v>
+        <v>29.46059421146405</v>
       </c>
       <c r="Q77">
-        <v>29.46059421146405</v>
+        <v>1.519047619047619</v>
       </c>
       <c r="R77">
-        <v>1.519047619047619</v>
+        <v>83.33333333333331</v>
       </c>
       <c r="S77">
-        <v>83.33333333333331</v>
+        <v>5.5</v>
       </c>
       <c r="T77">
-        <v>5.5</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="U77">
-        <v>0.1428571428571428</v>
+        <v>0.8</v>
       </c>
       <c r="V77">
-        <v>0.8</v>
+        <v>5.25</v>
       </c>
       <c r="W77">
-        <v>5.25</v>
+        <v>-145.2653299728532</v>
       </c>
       <c r="X77">
-        <v>-145.2653299728532</v>
+        <v>4.913102412261128E-06</v>
       </c>
       <c r="Y77">
-        <v>4.913102412261128E-06</v>
-      </c>
-      <c r="Z77">
         <v>2.626163705247325E-06</v>
       </c>
     </row>
@@ -5085,70 +5080,70 @@
       <c r="C78">
         <v>4</v>
       </c>
+      <c r="D78">
+        <v>79.16666666666667</v>
+      </c>
       <c r="E78">
-        <v>79.16666666666667</v>
+        <v>7.889588285317301</v>
       </c>
       <c r="F78">
-        <v>7.889588285317301</v>
+        <v>2.981183088915131</v>
       </c>
       <c r="G78">
         <v>2.981183088915131</v>
       </c>
       <c r="H78">
+        <v>3.191968064821458</v>
+      </c>
+      <c r="I78">
         <v>2.981183088915131</v>
       </c>
-      <c r="I78">
-        <v>3.191968064821458</v>
-      </c>
       <c r="J78">
-        <v>2.981183088915131</v>
+        <v>2.333094283321873</v>
       </c>
       <c r="K78">
-        <v>2.333094283321873</v>
+        <v>3.857393380319974</v>
       </c>
       <c r="L78">
-        <v>3.857393380319974</v>
+        <v>2.256519307207477</v>
       </c>
       <c r="M78">
-        <v>2.256519307207477</v>
+        <v>3.319169710384994</v>
       </c>
       <c r="N78">
-        <v>3.319169710384994</v>
+        <v>2.886416321840229</v>
       </c>
       <c r="O78">
-        <v>2.886416321840229</v>
+        <v>3.543344307895508</v>
       </c>
       <c r="P78">
-        <v>3.543344307895508</v>
+        <v>311.8976754309683</v>
       </c>
       <c r="Q78">
-        <v>311.8976754309683</v>
+        <v>17.06428571428571</v>
       </c>
       <c r="R78">
-        <v>17.06428571428571</v>
+        <v>954.1666666666667</v>
       </c>
       <c r="S78">
-        <v>954.1666666666667</v>
+        <v>5.240963855421687</v>
       </c>
       <c r="T78">
-        <v>5.240963855421687</v>
+        <v>0.1986482515427564</v>
       </c>
       <c r="U78">
-        <v>0.1986482515427564</v>
+        <v>0.5639325474787165</v>
       </c>
       <c r="V78">
-        <v>0.5639325474787165</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="W78">
-        <v>4.833333333333333</v>
+        <v>33.75005801832501</v>
       </c>
       <c r="X78">
-        <v>33.75005801832501</v>
+        <v>1.756298497764723</v>
       </c>
       <c r="Y78">
-        <v>1.756298497764723</v>
-      </c>
-      <c r="Z78">
         <v>1.268059864998568</v>
       </c>
     </row>
@@ -5164,67 +5159,67 @@
       <c r="C79">
         <v>4</v>
       </c>
+      <c r="D79">
+        <v>66.66666666666666</v>
+      </c>
       <c r="E79">
-        <v>66.66666666666666</v>
+        <v>4.481903371611341</v>
       </c>
       <c r="F79">
-        <v>4.481903371611341</v>
+        <v>3.412674641314692</v>
       </c>
       <c r="G79">
         <v>3.412674641314692</v>
       </c>
       <c r="H79">
+        <v>4.360637014999236</v>
+      </c>
+      <c r="I79">
         <v>3.412674641314692</v>
       </c>
-      <c r="I79">
-        <v>4.360637014999236</v>
-      </c>
       <c r="J79">
-        <v>3.412674641314692</v>
-      </c>
-      <c r="K79">
         <v>2.317462949790293</v>
       </c>
+      <c r="L79">
+        <v>2.090185266566263</v>
+      </c>
       <c r="M79">
-        <v>2.090185266566263</v>
+        <v>4.122851368305231</v>
       </c>
       <c r="N79">
-        <v>4.122851368305231</v>
+        <v>3.084002790651654</v>
       </c>
       <c r="O79">
-        <v>3.084002790651654</v>
+        <v>3.728238917732858</v>
       </c>
       <c r="P79">
-        <v>3.728238917732858</v>
+        <v>224.6627324693638</v>
       </c>
       <c r="Q79">
-        <v>224.6627324693638</v>
+        <v>12.01904761904762</v>
       </c>
       <c r="R79">
-        <v>12.01904761904762</v>
+        <v>658.3333333333334</v>
       </c>
       <c r="S79">
-        <v>658.3333333333334</v>
+        <v>5.366666666666666</v>
       </c>
       <c r="T79">
-        <v>5.366666666666666</v>
+        <v>0.2022598870056497</v>
       </c>
       <c r="U79">
-        <v>0.2022598870056497</v>
+        <v>0.5663939584644431</v>
       </c>
       <c r="V79">
-        <v>0.5663939584644431</v>
+        <v>5.035714285714286</v>
       </c>
       <c r="W79">
-        <v>5.035714285714286</v>
+        <v>45.76442643335293</v>
       </c>
       <c r="X79">
-        <v>45.76442643335293</v>
+        <v>4.14282383307357</v>
       </c>
       <c r="Y79">
-        <v>4.14282383307357</v>
-      </c>
-      <c r="Z79">
         <v>3.514451681672969</v>
       </c>
     </row>
@@ -5240,70 +5235,70 @@
       <c r="C80">
         <v>4</v>
       </c>
+      <c r="D80">
+        <v>79.16666666666667</v>
+      </c>
       <c r="E80">
-        <v>79.16666666666667</v>
+        <v>7.005517789492697</v>
       </c>
       <c r="F80">
-        <v>7.005517789492697</v>
+        <v>3.519946402189226</v>
       </c>
       <c r="G80">
         <v>3.519946402189226</v>
       </c>
       <c r="H80">
-        <v>3.519946402189226</v>
+        <v>3.801457764721713</v>
       </c>
       <c r="I80">
-        <v>3.801457764721713</v>
+        <v>3.519946402189227</v>
       </c>
       <c r="J80">
-        <v>3.519946402189227</v>
+        <v>2.670824130611186</v>
       </c>
       <c r="K80">
-        <v>2.670824130611186</v>
+        <v>4.705040500128061</v>
       </c>
       <c r="L80">
-        <v>4.705040500128061</v>
+        <v>2.572308558730151</v>
       </c>
       <c r="M80">
-        <v>2.572308558730151</v>
+        <v>3.97248950297865</v>
       </c>
       <c r="N80">
-        <v>3.97248950297865</v>
+        <v>3.37843804365306</v>
       </c>
       <c r="O80">
-        <v>3.37843804365306</v>
+        <v>4.026362149285998</v>
       </c>
       <c r="P80">
-        <v>4.026362149285998</v>
+        <v>266.6849175531525</v>
       </c>
       <c r="Q80">
-        <v>266.6849175531525</v>
+        <v>14.39761904761905</v>
       </c>
       <c r="R80">
-        <v>14.39761904761905</v>
+        <v>783.3333333333333</v>
       </c>
       <c r="S80">
-        <v>783.3333333333333</v>
+        <v>5.45945945945946</v>
       </c>
       <c r="T80">
-        <v>5.45945945945946</v>
+        <v>0.2158459829692706</v>
       </c>
       <c r="U80">
-        <v>0.2158459829692706</v>
+        <v>0.6584896584896586</v>
       </c>
       <c r="V80">
-        <v>0.6584896584896586</v>
+        <v>5.078947368421052</v>
       </c>
       <c r="W80">
-        <v>5.078947368421052</v>
+        <v>31.78313691481389</v>
       </c>
       <c r="X80">
-        <v>31.78313691481389</v>
+        <v>1.526097927638576</v>
       </c>
       <c r="Y80">
-        <v>1.526097927638576</v>
-      </c>
-      <c r="Z80">
         <v>1.348914993800808</v>
       </c>
     </row>
@@ -5319,70 +5314,70 @@
       <c r="C81">
         <v>4</v>
       </c>
+      <c r="D81">
+        <v>70.83333333333333</v>
+      </c>
       <c r="E81">
-        <v>70.83333333333333</v>
+        <v>5.955183032853493</v>
       </c>
       <c r="F81">
-        <v>5.955183032853493</v>
+        <v>3.379153032216818</v>
       </c>
       <c r="G81">
         <v>3.379153032216818</v>
       </c>
       <c r="H81">
+        <v>3.914292661266461</v>
+      </c>
+      <c r="I81">
         <v>3.379153032216818</v>
       </c>
-      <c r="I81">
-        <v>3.914292661266461</v>
-      </c>
       <c r="J81">
-        <v>3.379153032216818</v>
+        <v>2.495364856481328</v>
       </c>
       <c r="K81">
-        <v>2.495364856481328</v>
+        <v>7.111065328164452</v>
       </c>
       <c r="L81">
-        <v>7.111065328164452</v>
+        <v>2.336525635099085</v>
       </c>
       <c r="M81">
-        <v>2.336525635099085</v>
+        <v>3.895819903279611</v>
       </c>
       <c r="N81">
-        <v>3.895819903279611</v>
+        <v>3.192138242254376</v>
       </c>
       <c r="O81">
-        <v>3.192138242254376</v>
+        <v>3.868907938899975</v>
       </c>
       <c r="P81">
-        <v>3.868907938899975</v>
+        <v>246.3038482848118</v>
       </c>
       <c r="Q81">
-        <v>246.3038482848118</v>
+        <v>13.29523809523809</v>
       </c>
       <c r="R81">
-        <v>13.29523809523809</v>
+        <v>729.1666666666666</v>
       </c>
       <c r="S81">
-        <v>729.1666666666666</v>
+        <v>5.388059701492537</v>
       </c>
       <c r="T81">
-        <v>5.388059701492537</v>
+        <v>0.2066938037087291</v>
       </c>
       <c r="U81">
-        <v>0.2066938037087291</v>
+        <v>0.6095871808799566</v>
       </c>
       <c r="V81">
-        <v>0.6095871808799566</v>
+        <v>5</v>
       </c>
       <c r="W81">
-        <v>5</v>
+        <v>34.46307382716295</v>
       </c>
       <c r="X81">
-        <v>34.46307382716295</v>
+        <v>1.848063194394128</v>
       </c>
       <c r="Y81">
-        <v>1.848063194394128</v>
-      </c>
-      <c r="Z81">
         <v>1.63504678927746</v>
       </c>
     </row>
@@ -5398,66 +5393,66 @@
       <c r="C82">
         <v>4</v>
       </c>
+      <c r="D82">
+        <v>25</v>
+      </c>
       <c r="E82">
-        <v>25</v>
+        <v>195.1693315368337</v>
       </c>
       <c r="F82">
-        <v>195.1693315368337</v>
+        <v>6.480740786679148</v>
       </c>
       <c r="G82">
         <v>6.480740786679148</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>6.480740786679148</v>
       </c>
       <c r="J82">
-        <v>6.480740786679148</v>
-      </c>
-      <c r="K82">
         <v>6.467290996240612</v>
       </c>
+      <c r="L82">
+        <v>6.408189492242049</v>
+      </c>
       <c r="M82">
-        <v>6.408189492242049</v>
+        <v>6.508937094220555</v>
       </c>
       <c r="N82">
-        <v>6.508937094220555</v>
+        <v>6.480400516494711</v>
       </c>
       <c r="O82">
-        <v>6.480400516494711</v>
+        <v>3.496371524337679</v>
       </c>
       <c r="P82">
-        <v>3.496371524337679</v>
+        <v>12.97448373976215</v>
       </c>
       <c r="Q82">
-        <v>12.97448373976215</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="R82">
-        <v>0.8571428571428571</v>
+        <v>25</v>
       </c>
       <c r="S82">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="T82">
-        <v>7</v>
-      </c>
-      <c r="U82">
         <v>1</v>
       </c>
-      <c r="V82" t="inlineStr">
+      <c r="U82" t="inlineStr">
         <is>
           <t>Inf</t>
         </is>
       </c>
+      <c r="V82">
+        <v>4.5</v>
+      </c>
       <c r="W82">
-        <v>4.5</v>
+        <v>-148.4383398370912</v>
       </c>
       <c r="X82">
-        <v>-148.4383398370912</v>
+        <v>3.916749248393302E-06</v>
       </c>
       <c r="Y82">
-        <v>3.916749248393302E-06</v>
-      </c>
-      <c r="Z82">
         <v>2.093590536762902E-06</v>
       </c>
     </row>
@@ -5473,70 +5468,70 @@
       <c r="C83">
         <v>4</v>
       </c>
+      <c r="D83">
+        <v>70.83333333333334</v>
+      </c>
       <c r="E83">
-        <v>70.83333333333334</v>
+        <v>4.947517039807493</v>
       </c>
       <c r="F83">
-        <v>4.947517039807493</v>
+        <v>3.33080632180967</v>
       </c>
       <c r="G83">
         <v>3.33080632180967</v>
       </c>
       <c r="H83">
+        <v>3.975559705741946</v>
+      </c>
+      <c r="I83">
         <v>3.33080632180967</v>
       </c>
-      <c r="I83">
-        <v>3.975559705741946</v>
-      </c>
       <c r="J83">
-        <v>3.33080632180967</v>
+        <v>2.312370563336405</v>
       </c>
       <c r="K83">
-        <v>2.312370563336405</v>
+        <v>8.15619809129481</v>
       </c>
       <c r="L83">
-        <v>8.15619809129481</v>
+        <v>2.1363694997872</v>
       </c>
       <c r="M83">
-        <v>2.1363694997872</v>
+        <v>3.952987421462442</v>
       </c>
       <c r="N83">
-        <v>3.952987421462442</v>
+        <v>3.065980416428009</v>
       </c>
       <c r="O83">
-        <v>3.065980416428009</v>
+        <v>3.751154111384848</v>
       </c>
       <c r="P83">
-        <v>3.751154111384848</v>
+        <v>246.4178783790861</v>
       </c>
       <c r="Q83">
-        <v>246.4178783790861</v>
+        <v>13.26190476190476</v>
       </c>
       <c r="R83">
-        <v>13.26190476190476</v>
+        <v>729.1666666666667</v>
       </c>
       <c r="S83">
-        <v>729.1666666666667</v>
+        <v>5.348484848484849</v>
       </c>
       <c r="T83">
-        <v>5.348484848484849</v>
+        <v>0.2018648018648019</v>
       </c>
       <c r="U83">
-        <v>0.2018648018648019</v>
+        <v>0.5739886678086704</v>
       </c>
       <c r="V83">
-        <v>0.5739886678086704</v>
+        <v>4.966666666666667</v>
       </c>
       <c r="W83">
-        <v>4.966666666666667</v>
+        <v>40.92977672655568</v>
       </c>
       <c r="X83">
-        <v>40.92977672655568</v>
+        <v>2.933057864838652</v>
       </c>
       <c r="Y83">
-        <v>2.933057864838652</v>
-      </c>
-      <c r="Z83">
         <v>2.152763257615497</v>
       </c>
     </row>
@@ -5552,70 +5547,70 @@
       <c r="C84">
         <v>4</v>
       </c>
+      <c r="D84">
+        <v>79.16666666666667</v>
+      </c>
       <c r="E84">
-        <v>79.16666666666667</v>
+        <v>9.304537753065764</v>
       </c>
       <c r="F84">
-        <v>9.304537753065764</v>
+        <v>3.641501179998304</v>
       </c>
       <c r="G84">
         <v>3.641501179998304</v>
       </c>
       <c r="H84">
+        <v>3.858676915431632</v>
+      </c>
+      <c r="I84">
         <v>3.641501179998304</v>
       </c>
-      <c r="I84">
-        <v>3.858676915431632</v>
-      </c>
       <c r="J84">
-        <v>3.641501179998304</v>
+        <v>2.958101082701484</v>
       </c>
       <c r="K84">
-        <v>2.958101082701484</v>
+        <v>4.530730182459471</v>
       </c>
       <c r="L84">
-        <v>4.530730182459471</v>
+        <v>2.875568874441546</v>
       </c>
       <c r="M84">
-        <v>2.875568874441546</v>
+        <v>3.988674113077245</v>
       </c>
       <c r="N84">
-        <v>3.988674113077245</v>
+        <v>3.558022557935118</v>
       </c>
       <c r="O84">
-        <v>3.558022557935118</v>
+        <v>4.172945315210939</v>
       </c>
       <c r="P84">
-        <v>4.172945315210939</v>
+        <v>260.482355895035</v>
       </c>
       <c r="Q84">
-        <v>260.482355895035</v>
+        <v>13.93095238095238</v>
       </c>
       <c r="R84">
-        <v>13.93095238095238</v>
+        <v>754.1666666666666</v>
       </c>
       <c r="S84">
-        <v>754.1666666666666</v>
+        <v>5.52054794520548</v>
       </c>
       <c r="T84">
-        <v>5.52054794520548</v>
+        <v>0.226027397260274</v>
       </c>
       <c r="U84">
-        <v>0.226027397260274</v>
+        <v>0.7284034991798797</v>
       </c>
       <c r="V84">
-        <v>0.7284034991798797</v>
+        <v>5.105263157894737</v>
       </c>
       <c r="W84">
-        <v>5.105263157894737</v>
+        <v>33.46371615657429</v>
       </c>
       <c r="X84">
-        <v>33.46371615657429</v>
+        <v>1.720741801820826</v>
       </c>
       <c r="Y84">
-        <v>1.720741801820826</v>
-      </c>
-      <c r="Z84">
         <v>1.165156365817537</v>
       </c>
     </row>
@@ -5631,67 +5626,67 @@
       <c r="C85">
         <v>4</v>
       </c>
+      <c r="D85">
+        <v>62.5</v>
+      </c>
       <c r="E85">
-        <v>62.5</v>
+        <v>11.68350403042546</v>
       </c>
       <c r="F85">
-        <v>11.68350403042546</v>
+        <v>4.124224538917486</v>
       </c>
       <c r="G85">
         <v>4.124224538917486</v>
       </c>
       <c r="H85">
-        <v>4.124224538917486</v>
+        <v>4.643795375562723</v>
       </c>
       <c r="I85">
-        <v>4.643795375562723</v>
+        <v>4.124224538917485</v>
       </c>
       <c r="J85">
-        <v>4.124224538917485</v>
-      </c>
-      <c r="K85">
         <v>3.578518932182361</v>
       </c>
+      <c r="L85">
+        <v>3.417180815210247</v>
+      </c>
       <c r="M85">
-        <v>3.417180815210247</v>
+        <v>4.43442909423354</v>
       </c>
       <c r="N85">
-        <v>4.43442909423354</v>
+        <v>4.064092694639747</v>
       </c>
       <c r="O85">
-        <v>4.064092694639747</v>
+        <v>4.631503284296623</v>
       </c>
       <c r="P85">
-        <v>4.631503284296623</v>
+        <v>176.6880202201572</v>
       </c>
       <c r="Q85">
-        <v>176.6880202201572</v>
+        <v>9.109523809523809</v>
       </c>
       <c r="R85">
-        <v>9.109523809523809</v>
+        <v>475</v>
       </c>
       <c r="S85">
-        <v>475</v>
+        <v>5.72</v>
       </c>
       <c r="T85">
-        <v>5.72</v>
+        <v>0.2465306122448979</v>
       </c>
       <c r="U85">
-        <v>0.2465306122448979</v>
+        <v>0.8608815426997244</v>
       </c>
       <c r="V85">
-        <v>0.8608815426997244</v>
+        <v>5.321428571428571</v>
       </c>
       <c r="W85">
-        <v>5.321428571428571</v>
+        <v>34.03510359584375</v>
       </c>
       <c r="X85">
-        <v>34.03510359584375</v>
+        <v>1.792423951227986</v>
       </c>
       <c r="Y85">
-        <v>1.792423951227986</v>
-      </c>
-      <c r="Z85">
         <v>1.248682657382776</v>
       </c>
     </row>
@@ -5707,69 +5702,69 @@
       <c r="C86">
         <v>4</v>
       </c>
+      <c r="D86">
+        <v>50</v>
+      </c>
       <c r="E86">
-        <v>50</v>
+        <v>5.837394285106033</v>
       </c>
       <c r="F86">
-        <v>5.837394285106033</v>
+        <v>4.105437908287664</v>
       </c>
       <c r="G86">
         <v>4.105437908287664</v>
       </c>
-      <c r="H86">
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
+      </c>
+      <c r="I86">
         <v>4.105437908287664</v>
       </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
-      </c>
       <c r="J86">
-        <v>4.105437908287664</v>
-      </c>
-      <c r="K86">
         <v>3.237583701755559</v>
       </c>
+      <c r="L86">
+        <v>2.817661774237047</v>
+      </c>
       <c r="M86">
-        <v>2.817661774237047</v>
+        <v>4.746760700931054</v>
       </c>
       <c r="N86">
-        <v>4.746760700931054</v>
+        <v>3.869147377123373</v>
       </c>
       <c r="O86">
-        <v>3.869147377123373</v>
+        <v>4.255940954801153</v>
       </c>
       <c r="P86">
-        <v>4.255940954801153</v>
+        <v>137.6221798164316</v>
       </c>
       <c r="Q86">
-        <v>137.6221798164316</v>
+        <v>6.764285714285714</v>
       </c>
       <c r="R86">
-        <v>6.764285714285714</v>
+        <v>354.1666666666667</v>
       </c>
       <c r="S86">
-        <v>354.1666666666667</v>
+        <v>5.702702702702703</v>
       </c>
       <c r="T86">
-        <v>5.702702702702703</v>
+        <v>0.2387387387387387</v>
       </c>
       <c r="U86">
-        <v>0.2387387387387387</v>
+        <v>0.8091016548463357</v>
       </c>
       <c r="V86">
-        <v>0.8091016548463357</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="W86">
-        <v>5.333333333333333</v>
+        <v>47.18443863364426</v>
       </c>
       <c r="X86">
-        <v>47.18443863364426</v>
+        <v>4.585077843762735</v>
       </c>
       <c r="Y86">
-        <v>4.585077843762735</v>
-      </c>
-      <c r="Z86">
         <v>3.415121409666289</v>
       </c>
     </row>
@@ -5785,63 +5780,63 @@
       <c r="C87">
         <v>4</v>
       </c>
+      <c r="D87">
+        <v>8.333333333333332</v>
+      </c>
       <c r="E87">
-        <v>8.333333333333332</v>
+        <v>179.1835870842763</v>
       </c>
       <c r="F87">
-        <v>179.1835870842763</v>
+        <v>6.48074039435116</v>
       </c>
       <c r="G87">
         <v>6.48074039435116</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>6.48074039435116</v>
       </c>
-      <c r="J87">
-        <v>6.48074039435116</v>
+      <c r="L87">
+        <v>6.401756086514158</v>
       </c>
       <c r="M87">
-        <v>6.401756086514158</v>
+        <v>6.511458167418546</v>
       </c>
       <c r="N87">
-        <v>6.511458167418546</v>
+        <v>6.480336703274455</v>
       </c>
       <c r="O87">
-        <v>6.480336703274455</v>
+        <v>3.495697803843817</v>
       </c>
       <c r="P87">
-        <v>3.495697803843817</v>
+        <v>4.324396697838851</v>
       </c>
       <c r="Q87">
-        <v>4.324396697838851</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="R87">
-        <v>0.2857142857142857</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="S87">
-        <v>8.333333333333332</v>
+        <v>7</v>
       </c>
       <c r="T87">
-        <v>7</v>
-      </c>
-      <c r="U87">
         <v>1</v>
       </c>
-      <c r="V87" t="inlineStr">
+      <c r="U87" t="inlineStr">
         <is>
           <t>Inf</t>
         </is>
       </c>
+      <c r="V87">
+        <v>5.5</v>
+      </c>
       <c r="W87">
-        <v>5.5</v>
+        <v>-146.5694282153577</v>
       </c>
       <c r="X87">
-        <v>-146.5694282153577</v>
+        <v>4.476116078566282E-06</v>
       </c>
       <c r="Y87">
-        <v>4.476116078566282E-06</v>
-      </c>
-      <c r="Z87">
         <v>2.392584684119054E-06</v>
       </c>
     </row>
@@ -5857,64 +5852,64 @@
       <c r="C88">
         <v>4</v>
       </c>
+      <c r="D88">
+        <v>41.66666666666666</v>
+      </c>
       <c r="E88">
-        <v>41.66666666666666</v>
+        <v>3.641184958464718</v>
       </c>
       <c r="F88">
-        <v>3.641184958464718</v>
+        <v>4.358177256484416</v>
       </c>
       <c r="G88">
         <v>4.358177256484416</v>
       </c>
-      <c r="H88">
-        <v>4.358177256484416</v>
+      <c r="I88">
+        <v>4.358177256484415</v>
       </c>
       <c r="J88">
-        <v>4.358177256484415</v>
-      </c>
-      <c r="K88">
         <v>3.175568810202141</v>
       </c>
+      <c r="L88">
+        <v>2.383612574888251</v>
+      </c>
       <c r="M88">
-        <v>2.383612574888251</v>
+        <v>5.50002311415246</v>
       </c>
       <c r="N88">
-        <v>5.50002311415246</v>
+        <v>3.733066901667499</v>
       </c>
       <c r="O88">
-        <v>3.733066901667499</v>
+        <v>3.583894324764637</v>
       </c>
       <c r="P88">
-        <v>3.583894324764637</v>
+        <v>103.7655221029591</v>
       </c>
       <c r="Q88">
-        <v>103.7655221029591</v>
+        <v>5.545238095238095</v>
       </c>
       <c r="R88">
-        <v>5.545238095238095</v>
+        <v>291.6666666666667</v>
       </c>
       <c r="S88">
-        <v>291.6666666666667</v>
+        <v>5.586206896551724</v>
       </c>
       <c r="T88">
-        <v>5.586206896551724</v>
+        <v>0.2118226600985222</v>
       </c>
       <c r="U88">
-        <v>0.2118226600985222</v>
+        <v>0.5914205344585092</v>
       </c>
       <c r="V88">
-        <v>0.5914205344585092</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="W88">
-        <v>5.333333333333333</v>
+        <v>44.6168033884766</v>
       </c>
       <c r="X88">
-        <v>44.6168033884766</v>
+        <v>3.816770193780398</v>
       </c>
       <c r="Y88">
-        <v>3.816770193780398</v>
-      </c>
-      <c r="Z88">
         <v>2.842667112991226</v>
       </c>
     </row>
@@ -5930,64 +5925,64 @@
       <c r="C89">
         <v>4</v>
       </c>
+      <c r="D89">
+        <v>37.5</v>
+      </c>
       <c r="E89">
-        <v>37.5</v>
+        <v>7.370771169733088</v>
       </c>
       <c r="F89">
-        <v>7.370771169733088</v>
+        <v>4.276625362943503</v>
       </c>
       <c r="G89">
         <v>4.276625362943503</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>4.276625362943503</v>
       </c>
       <c r="J89">
-        <v>4.276625362943503</v>
-      </c>
-      <c r="K89">
         <v>3.72817676178057</v>
       </c>
+      <c r="L89">
+        <v>3.1742282920082</v>
+      </c>
       <c r="M89">
-        <v>3.1742282920082</v>
+        <v>4.797610550704561</v>
       </c>
       <c r="N89">
-        <v>4.797610550704561</v>
+        <v>4.121110174232256</v>
       </c>
       <c r="O89">
-        <v>4.121110174232256</v>
+        <v>4.538568306631001</v>
       </c>
       <c r="P89">
-        <v>4.538568306631001</v>
+        <v>98.24321031461233</v>
       </c>
       <c r="Q89">
-        <v>98.24321031461233</v>
+        <v>4.985714285714286</v>
       </c>
       <c r="R89">
-        <v>4.985714285714286</v>
+        <v>254.1666666666667</v>
       </c>
       <c r="S89">
-        <v>254.1666666666667</v>
+        <v>5.821428571428571</v>
       </c>
       <c r="T89">
-        <v>5.821428571428571</v>
+        <v>0.246031746031746</v>
       </c>
       <c r="U89">
-        <v>0.246031746031746</v>
+        <v>0.930011862396204</v>
       </c>
       <c r="V89">
-        <v>0.930011862396204</v>
+        <v>5.5</v>
       </c>
       <c r="W89">
-        <v>5.5</v>
+        <v>36.8998107920586</v>
       </c>
       <c r="X89">
-        <v>36.8998107920586</v>
+        <v>2.199413665333704</v>
       </c>
       <c r="Y89">
-        <v>2.199413665333704</v>
-      </c>
-      <c r="Z89">
         <v>1.780399440762218</v>
       </c>
     </row>
@@ -6003,64 +5998,64 @@
       <c r="C90">
         <v>4</v>
       </c>
+      <c r="D90">
+        <v>33.33333333333333</v>
+      </c>
       <c r="E90">
-        <v>33.33333333333333</v>
+        <v>10.52916160888677</v>
       </c>
       <c r="F90">
-        <v>10.52916160888677</v>
+        <v>4.026134403971429</v>
       </c>
       <c r="G90">
         <v>4.026134403971429</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>4.026134403971429</v>
       </c>
       <c r="J90">
-        <v>4.026134403971429</v>
-      </c>
-      <c r="K90">
         <v>3.714838369292812</v>
       </c>
+      <c r="L90">
+        <v>3.267832081473494</v>
+      </c>
       <c r="M90">
-        <v>3.267832081473494</v>
+        <v>4.363516424518949</v>
       </c>
       <c r="N90">
-        <v>4.363516424518949</v>
+        <v>3.953937545045972</v>
       </c>
       <c r="O90">
-        <v>3.953937545045972</v>
+        <v>4.531259363654749</v>
       </c>
       <c r="P90">
-        <v>4.531259363654749</v>
+        <v>97.18901025882172</v>
       </c>
       <c r="Q90">
-        <v>97.18901025882172</v>
+        <v>4.876190476190476</v>
       </c>
       <c r="R90">
-        <v>4.876190476190476</v>
+        <v>254.1666666666666</v>
       </c>
       <c r="S90">
-        <v>254.1666666666666</v>
+        <v>5.74074074074074</v>
       </c>
       <c r="T90">
-        <v>5.74074074074074</v>
+        <v>0.2364672364672365</v>
       </c>
       <c r="U90">
-        <v>0.2364672364672365</v>
+        <v>0.9251269035532995</v>
       </c>
       <c r="V90">
-        <v>0.9251269035532995</v>
+        <v>5.375</v>
       </c>
       <c r="W90">
-        <v>5.375</v>
+        <v>21.60892054669952</v>
       </c>
       <c r="X90">
-        <v>21.60892054669952</v>
+        <v>0.7378493286016882</v>
       </c>
       <c r="Y90">
-        <v>0.7378493286016882</v>
-      </c>
-      <c r="Z90">
         <v>0.5284394393635394</v>
       </c>
     </row>
@@ -6076,64 +6071,64 @@
       <c r="C91">
         <v>4</v>
       </c>
+      <c r="D91">
+        <v>45.83333333333334</v>
+      </c>
       <c r="E91">
-        <v>45.83333333333334</v>
+        <v>5.346418987670547</v>
       </c>
       <c r="F91">
-        <v>5.346418987670547</v>
+        <v>4.455724717855245</v>
       </c>
       <c r="G91">
         <v>4.455724717855245</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>4.455724717855245</v>
       </c>
       <c r="J91">
-        <v>4.455724717855245</v>
-      </c>
-      <c r="K91">
         <v>3.509488885475248</v>
       </c>
+      <c r="L91">
+        <v>2.954172144144048</v>
+      </c>
       <c r="M91">
-        <v>2.954172144144048</v>
+        <v>5.220897033679194</v>
       </c>
       <c r="N91">
-        <v>5.220897033679194</v>
+        <v>4.151158636426394</v>
       </c>
       <c r="O91">
-        <v>4.151158636426394</v>
+        <v>4.191337072626534</v>
       </c>
       <c r="P91">
-        <v>4.191337072626534</v>
+        <v>110.7151534553145</v>
       </c>
       <c r="Q91">
-        <v>110.7151534553145</v>
+        <v>5.554761904761905</v>
       </c>
       <c r="R91">
-        <v>5.554761904761905</v>
+        <v>283.3333333333333</v>
       </c>
       <c r="S91">
-        <v>283.3333333333333</v>
+        <v>5.806451612903226</v>
       </c>
       <c r="T91">
-        <v>5.806451612903226</v>
+        <v>0.2451612903225806</v>
       </c>
       <c r="U91">
-        <v>0.2451612903225806</v>
+        <v>0.8415061295971979</v>
       </c>
       <c r="V91">
-        <v>0.8415061295971979</v>
+        <v>5.5</v>
       </c>
       <c r="W91">
-        <v>5.5</v>
+        <v>42.97300343042183</v>
       </c>
       <c r="X91">
-        <v>42.97300343042183</v>
+        <v>3.39393590980926</v>
       </c>
       <c r="Y91">
-        <v>3.39393590980926</v>
-      </c>
-      <c r="Z91">
         <v>2.7171710148068</v>
       </c>
     </row>
@@ -6175,64 +6170,64 @@
       <c r="C94">
         <v>4</v>
       </c>
+      <c r="D94">
+        <v>16.66666666666666</v>
+      </c>
       <c r="E94">
-        <v>16.66666666666666</v>
+        <v>9.836815836270718</v>
       </c>
       <c r="F94">
-        <v>9.836815836270718</v>
+        <v>5.125061436881044</v>
       </c>
       <c r="G94">
         <v>5.125061436881044</v>
       </c>
-      <c r="H94">
-        <v>5.125061436881044</v>
+      <c r="I94">
+        <v>5.125061436881045</v>
       </c>
       <c r="J94">
-        <v>5.125061436881045</v>
-      </c>
-      <c r="K94">
         <v>5.340726297910415</v>
       </c>
+      <c r="L94">
+        <v>4.099131211699563</v>
+      </c>
       <c r="M94">
-        <v>4.099131211699563</v>
+        <v>5.586080573780873</v>
       </c>
       <c r="N94">
-        <v>5.586080573780873</v>
+        <v>5.019858756478228</v>
       </c>
       <c r="O94">
-        <v>5.019858756478228</v>
+        <v>4.973543128669642</v>
       </c>
       <c r="P94">
-        <v>4.973543128669642</v>
+        <v>30.38112167220381</v>
       </c>
       <c r="Q94">
-        <v>30.38112167220381</v>
+        <v>1.471428571428572</v>
       </c>
       <c r="R94">
-        <v>1.471428571428572</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="S94">
-        <v>66.66666666666666</v>
+        <v>6.222222222222222</v>
       </c>
       <c r="T94">
-        <v>6.222222222222222</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="U94">
-        <v>0.2777777777777778</v>
+        <v>1.62</v>
       </c>
       <c r="V94">
-        <v>1.62</v>
+        <v>6</v>
       </c>
       <c r="W94">
-        <v>6</v>
+        <v>23.4056419295416</v>
       </c>
       <c r="X94">
-        <v>23.4056419295416</v>
+        <v>0.8388877301282839</v>
       </c>
       <c r="Y94">
-        <v>0.8388877301282839</v>
-      </c>
-      <c r="Z94">
         <v>0.6320809056875829</v>
       </c>
     </row>
@@ -6261,66 +6256,66 @@
       <c r="C96">
         <v>4</v>
       </c>
+      <c r="D96">
+        <v>12.5</v>
+      </c>
       <c r="E96">
-        <v>12.5</v>
+        <v>184.5827516720262</v>
       </c>
       <c r="F96">
-        <v>184.5827516720262</v>
+        <v>6.480741421711892</v>
       </c>
       <c r="G96">
         <v>6.480741421711892</v>
       </c>
-      <c r="H96">
-        <v>6.480741421711892</v>
+      <c r="I96">
+        <v>6.480741421711891</v>
       </c>
       <c r="J96">
-        <v>6.480741421711891</v>
-      </c>
-      <c r="K96">
         <v>6.529597760949039</v>
       </c>
+      <c r="L96">
+        <v>6.40405371929852</v>
+      </c>
       <c r="M96">
-        <v>6.40405371929852</v>
+        <v>6.510558621048612</v>
       </c>
       <c r="N96">
-        <v>6.510558621048612</v>
+        <v>6.480361001170294</v>
       </c>
       <c r="O96">
-        <v>6.480361001170294</v>
+        <v>3.495939281035708</v>
       </c>
       <c r="P96">
-        <v>3.495939281035708</v>
+        <v>6.486821294270757</v>
       </c>
       <c r="Q96">
-        <v>6.486821294270757</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="R96">
-        <v>0.4285714285714285</v>
+        <v>12.5</v>
       </c>
       <c r="S96">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="T96">
-        <v>7</v>
-      </c>
-      <c r="U96">
         <v>1</v>
       </c>
-      <c r="V96" t="inlineStr">
+      <c r="U96" t="inlineStr">
         <is>
           <t>Inf</t>
         </is>
       </c>
+      <c r="V96">
+        <v>5</v>
+      </c>
       <c r="W96">
-        <v>5</v>
+        <v>-146.718906149696</v>
       </c>
       <c r="X96">
-        <v>-146.718906149696</v>
+        <v>4.428578837236228E-06</v>
       </c>
       <c r="Y96">
-        <v>4.428578837236228E-06</v>
-      </c>
-      <c r="Z96">
         <v>2.367174959391358E-06</v>
       </c>
     </row>
@@ -6375,61 +6370,61 @@
       <c r="C100">
         <v>4</v>
       </c>
+      <c r="D100">
+        <v>4.166666666666666</v>
+      </c>
       <c r="E100">
-        <v>4.166666666666666</v>
+        <v>143.9493858137125</v>
       </c>
       <c r="F100">
-        <v>143.9493858137125</v>
+        <v>5.477225467539248</v>
       </c>
       <c r="G100">
         <v>5.477225467539248</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>5.477225467539248</v>
       </c>
-      <c r="J100">
-        <v>5.477225467539248</v>
+      <c r="L100">
+        <v>5.394256638695284</v>
       </c>
       <c r="M100">
-        <v>5.394256638695284</v>
+        <v>5.509559932994044</v>
       </c>
       <c r="N100">
-        <v>5.509559932994044</v>
+        <v>5.476696831205251</v>
       </c>
       <c r="O100">
-        <v>5.476696831205251</v>
+        <v>5.977659700600321</v>
       </c>
       <c r="P100">
-        <v>5.977659700600321</v>
+        <v>6.343082117504698</v>
       </c>
       <c r="Q100">
-        <v>6.343082117504698</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="R100">
-        <v>0.3095238095238095</v>
+        <v>12.5</v>
       </c>
       <c r="S100">
-        <v>12.5</v>
+        <v>6.5</v>
       </c>
       <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>4</v>
+      </c>
+      <c r="V100">
         <v>6.5</v>
       </c>
-      <c r="U100">
-        <v>0</v>
-      </c>
-      <c r="V100">
-        <v>4</v>
-      </c>
       <c r="W100">
-        <v>6.5</v>
+        <v>-146.6401331787996</v>
       </c>
       <c r="X100">
-        <v>-146.6401331787996</v>
+        <v>4.453567093557385E-06</v>
       </c>
       <c r="Y100">
-        <v>4.453567093557385E-06</v>
-      </c>
-      <c r="Z100">
         <v>2.380531744973181E-06</v>
       </c>
     </row>

--- a/data/mod_res.xlsx
+++ b/data/mod_res.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y101"/>
+  <dimension ref="A1:W101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,100 +385,90 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>t50</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>dlag50</t>
+          <t>t50germ</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>t50</t>
+          <t>txtot10</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>t50germ</t>
+          <t>txtot70</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>txtot10</t>
+          <t>txger10</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>txtot70</t>
+          <t>txger70</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>txger10</t>
+          <t>tmgr</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>txger70</t>
+          <t>mgt</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>tmgr</t>
+          <t>auc</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>mgt</t>
+          <t>ivg</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>auc</t>
+          <t>timson</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>ivg</t>
+          <t>meangermtime</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>timson</t>
+          <t>sync</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>meangermtime</t>
+          <t>cugerm</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>sync</t>
+          <t>tt50</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>cugerm</t>
+          <t>aic</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>tt50</t>
+          <t>rmse</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>aic</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>mae</t>
         </is>
@@ -502,58 +492,52 @@
       <c r="E2">
         <v>155.1523502184269</v>
       </c>
-      <c r="F2">
-        <v>5.477226183417972</v>
-      </c>
       <c r="G2">
         <v>5.477226183417972</v>
       </c>
-      <c r="I2">
-        <v>5.477226183417972</v>
+      <c r="H2">
+        <v>5.526384775984881</v>
       </c>
       <c r="J2">
-        <v>5.526384775984881</v>
+        <v>5.40020588174016</v>
+      </c>
+      <c r="K2">
+        <v>5.507219522870317</v>
       </c>
       <c r="L2">
-        <v>5.40020588174016</v>
+        <v>5.476771130475918</v>
       </c>
       <c r="M2">
-        <v>5.507219522870317</v>
+        <v>5.977600280483752</v>
       </c>
       <c r="N2">
-        <v>5.476771130475918</v>
+        <v>19.02999402837043</v>
       </c>
       <c r="O2">
-        <v>5.977600280483752</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="P2">
-        <v>19.02999402837043</v>
+        <v>37.5</v>
       </c>
       <c r="Q2">
-        <v>0.9285714285714286</v>
+        <v>6.5</v>
       </c>
       <c r="R2">
-        <v>37.5</v>
+        <v>0.4</v>
       </c>
       <c r="S2">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="T2">
-        <v>0.4</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="U2">
-        <v>4</v>
+        <v>-145.557336596668</v>
       </c>
       <c r="V2">
-        <v>6.166666666666667</v>
+        <v>4.811688115650528E-06</v>
       </c>
       <c r="W2">
-        <v>-145.557336596668</v>
-      </c>
-      <c r="X2">
-        <v>4.811688115650528E-06</v>
-      </c>
-      <c r="Y2">
         <v>2.57195548258612E-06</v>
       </c>
     </row>
@@ -576,60 +560,54 @@
         <v>7.136683971907967</v>
       </c>
       <c r="F3">
-        <v>4.677868424502929</v>
+        <v>5.68079751517284</v>
       </c>
       <c r="G3">
-        <v>4.677868424502929</v>
+        <v>4.67786842450293</v>
       </c>
       <c r="H3">
-        <v>5.68079751517284</v>
-      </c>
-      <c r="I3">
-        <v>4.67786842450293</v>
+        <v>3.707989445007803</v>
       </c>
       <c r="J3">
-        <v>3.707989445007803</v>
+        <v>3.438258245634204</v>
+      </c>
+      <c r="K3">
+        <v>5.267557847182656</v>
       </c>
       <c r="L3">
-        <v>3.438258245634204</v>
+        <v>4.496568867818296</v>
       </c>
       <c r="M3">
-        <v>5.267557847182656</v>
+        <v>4.593637365919323</v>
       </c>
       <c r="N3">
-        <v>4.496568867818296</v>
+        <v>139.387734262009</v>
       </c>
       <c r="O3">
-        <v>4.593637365919323</v>
+        <v>7.742857142857143</v>
       </c>
       <c r="P3">
-        <v>139.387734262009</v>
+        <v>387.5</v>
       </c>
       <c r="Q3">
-        <v>7.742857142857143</v>
+        <v>5.837209302325581</v>
       </c>
       <c r="R3">
-        <v>387.5</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="S3">
-        <v>5.837209302325581</v>
+        <v>0.7697751873438801</v>
       </c>
       <c r="T3">
-        <v>0.2558139534883721</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="U3">
-        <v>0.7697751873438801</v>
+        <v>44.29839440436697</v>
       </c>
       <c r="V3">
-        <v>5.571428571428571</v>
+        <v>3.730943188003918</v>
       </c>
       <c r="W3">
-        <v>44.29839440436697</v>
-      </c>
-      <c r="X3">
-        <v>3.730943188003918</v>
-      </c>
-      <c r="Y3">
         <v>2.948318847332908</v>
       </c>
     </row>
@@ -652,63 +630,57 @@
         <v>6.365419648676219</v>
       </c>
       <c r="F4">
-        <v>4.589598115714325</v>
+        <v>4.891458687763336</v>
       </c>
       <c r="G4">
         <v>4.589598115714325</v>
       </c>
       <c r="H4">
-        <v>4.891458687763336</v>
+        <v>3.356114847391076</v>
       </c>
       <c r="I4">
-        <v>4.589598115714325</v>
+        <v>5.955398742590979</v>
       </c>
       <c r="J4">
-        <v>3.356114847391076</v>
+        <v>3.249857165328512</v>
       </c>
       <c r="K4">
-        <v>5.955398742590979</v>
+        <v>5.243042549465105</v>
       </c>
       <c r="L4">
-        <v>3.249857165328512</v>
+        <v>4.366755068651332</v>
       </c>
       <c r="M4">
-        <v>5.243042549465105</v>
+        <v>4.438900768834865</v>
       </c>
       <c r="N4">
-        <v>4.366755068651332</v>
+        <v>192.0686800096043</v>
       </c>
       <c r="O4">
-        <v>4.438900768834865</v>
+        <v>10.25714285714286</v>
       </c>
       <c r="P4">
-        <v>192.0686800096043</v>
+        <v>516.6666666666667</v>
       </c>
       <c r="Q4">
-        <v>10.25714285714286</v>
+        <v>5.824561403508772</v>
       </c>
       <c r="R4">
-        <v>516.6666666666667</v>
+        <v>0.2556390977443609</v>
       </c>
       <c r="S4">
-        <v>5.824561403508772</v>
+        <v>0.7889752306945118</v>
       </c>
       <c r="T4">
-        <v>0.2556390977443609</v>
+        <v>5.529411764705882</v>
       </c>
       <c r="U4">
-        <v>0.7889752306945118</v>
+        <v>39.04642505841807</v>
       </c>
       <c r="V4">
-        <v>5.529411764705882</v>
+        <v>2.563876573244293</v>
       </c>
       <c r="W4">
-        <v>39.04642505841807</v>
-      </c>
-      <c r="X4">
-        <v>2.563876573244293</v>
-      </c>
-      <c r="Y4">
         <v>1.771562492403543</v>
       </c>
     </row>
@@ -731,63 +703,57 @@
         <v>12.96288709455819</v>
       </c>
       <c r="F5">
-        <v>4.744606560601031</v>
+        <v>5.076109222251117</v>
       </c>
       <c r="G5">
         <v>4.744606560601031</v>
       </c>
       <c r="H5">
-        <v>5.076109222251117</v>
+        <v>4.127707614073764</v>
       </c>
       <c r="I5">
-        <v>4.744606560601031</v>
+        <v>6.677985564283013</v>
       </c>
       <c r="J5">
-        <v>4.127707614073764</v>
+        <v>4.004854852440255</v>
       </c>
       <c r="K5">
-        <v>6.677985564283013</v>
+        <v>5.065089826796018</v>
       </c>
       <c r="L5">
-        <v>4.004854852440255</v>
+        <v>4.688359042381968</v>
       </c>
       <c r="M5">
-        <v>5.065089826796018</v>
+        <v>5.14351508983751</v>
       </c>
       <c r="N5">
-        <v>4.688359042381968</v>
+        <v>156.7115976725847</v>
       </c>
       <c r="O5">
-        <v>5.14351508983751</v>
+        <v>7.961904761904762</v>
       </c>
       <c r="P5">
-        <v>156.7115976725847</v>
+        <v>383.3333333333334</v>
       </c>
       <c r="Q5">
-        <v>7.961904761904762</v>
+        <v>6.042553191489362</v>
       </c>
       <c r="R5">
-        <v>383.3333333333334</v>
+        <v>0.303422756706753</v>
       </c>
       <c r="S5">
-        <v>6.042553191489362</v>
+        <v>1.308649289099526</v>
       </c>
       <c r="T5">
-        <v>0.303422756706753</v>
+        <v>5.647058823529412</v>
       </c>
       <c r="U5">
-        <v>1.308649289099526</v>
+        <v>30.63717466207036</v>
       </c>
       <c r="V5">
-        <v>5.647058823529412</v>
+        <v>1.406155882798661</v>
       </c>
       <c r="W5">
-        <v>30.63717466207036</v>
-      </c>
-      <c r="X5">
-        <v>1.406155882798661</v>
-      </c>
-      <c r="Y5">
         <v>0.913017511590178</v>
       </c>
     </row>
@@ -810,63 +776,57 @@
         <v>9.47134242015148</v>
       </c>
       <c r="F6">
-        <v>4.992960671361815</v>
+        <v>5.372066623867273</v>
       </c>
       <c r="G6">
-        <v>4.992960671361815</v>
+        <v>4.992960671361814</v>
       </c>
       <c r="H6">
-        <v>5.372066623867273</v>
+        <v>4.097598558215187</v>
       </c>
       <c r="I6">
-        <v>4.992960671361814</v>
+        <v>6.597330470619449</v>
       </c>
       <c r="J6">
-        <v>4.097598558215187</v>
+        <v>3.959201839454488</v>
       </c>
       <c r="K6">
-        <v>6.597330470619449</v>
+        <v>5.46021498985529</v>
       </c>
       <c r="L6">
-        <v>3.959201839454488</v>
+        <v>4.882467271347094</v>
       </c>
       <c r="M6">
-        <v>5.46021498985529</v>
+        <v>4.94658912383333</v>
       </c>
       <c r="N6">
-        <v>4.882467271347094</v>
+        <v>146.0504962290354</v>
       </c>
       <c r="O6">
-        <v>4.94658912383333</v>
+        <v>7.154761904761905</v>
       </c>
       <c r="P6">
-        <v>146.0504962290354</v>
+        <v>333.3333333333334</v>
       </c>
       <c r="Q6">
-        <v>7.154761904761905</v>
+        <v>6.13953488372093</v>
       </c>
       <c r="R6">
-        <v>333.3333333333334</v>
+        <v>0.3200442967884828</v>
       </c>
       <c r="S6">
-        <v>6.13953488372093</v>
+        <v>1.379850746268657</v>
       </c>
       <c r="T6">
-        <v>0.3200442967884828</v>
+        <v>5.785714285714286</v>
       </c>
       <c r="U6">
-        <v>1.379850746268657</v>
+        <v>42.01894474898707</v>
       </c>
       <c r="V6">
-        <v>5.785714285714286</v>
+        <v>3.170353939767978</v>
       </c>
       <c r="W6">
-        <v>42.01894474898707</v>
-      </c>
-      <c r="X6">
-        <v>3.170353939767978</v>
-      </c>
-      <c r="Y6">
         <v>2.421163040806701</v>
       </c>
     </row>
@@ -888,58 +848,52 @@
       <c r="E7">
         <v>112.6032697976963</v>
       </c>
-      <c r="F7">
-        <v>5.96317949768241</v>
-      </c>
       <c r="G7">
         <v>5.96317949768241</v>
       </c>
-      <c r="I7">
-        <v>5.96317949768241</v>
+      <c r="H7">
+        <v>6.037047856138225</v>
       </c>
       <c r="J7">
-        <v>6.037047856138225</v>
+        <v>5.847948046741445</v>
+      </c>
+      <c r="K7">
+        <v>6.008219454679089</v>
       </c>
       <c r="L7">
-        <v>5.847948046741445</v>
+        <v>5.962238945187655</v>
       </c>
       <c r="M7">
-        <v>6.008219454679089</v>
+        <v>6.309909325157341</v>
       </c>
       <c r="N7">
-        <v>5.962238945187655</v>
+        <v>12.9505852358919</v>
       </c>
       <c r="O7">
-        <v>6.309909325157341</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="P7">
-        <v>12.9505852358919</v>
+        <v>29.16666666666666</v>
       </c>
       <c r="Q7">
-        <v>0.7619047619047619</v>
+        <v>6.6</v>
       </c>
       <c r="R7">
-        <v>29.16666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="S7">
-        <v>6.6</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="T7">
-        <v>0.4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="U7">
-        <v>4.166666666666666</v>
+        <v>-204.8963667578089</v>
       </c>
       <c r="V7">
-        <v>6.333333333333333</v>
+        <v>6.942875415857742E-08</v>
       </c>
       <c r="W7">
-        <v>-204.8963667578089</v>
-      </c>
-      <c r="X7">
-        <v>6.942875415857742E-08</v>
-      </c>
-      <c r="Y7">
         <v>3.157354738058712E-08</v>
       </c>
     </row>
@@ -961,63 +915,57 @@
       <c r="E8">
         <v>10.25924675753948</v>
       </c>
-      <c r="F8">
-        <v>4.749618372551072</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="G8">
         <v>4.749618372551072</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
-      </c>
-      <c r="I8">
-        <v>4.749618372551072</v>
+      <c r="H8">
+        <v>4.149292933980491</v>
       </c>
       <c r="J8">
-        <v>4.149292933980491</v>
+        <v>3.833944261487812</v>
+      </c>
+      <c r="K8">
+        <v>5.158536797726676</v>
       </c>
       <c r="L8">
-        <v>3.833944261487812</v>
+        <v>4.659936210571834</v>
       </c>
       <c r="M8">
-        <v>5.158536797726676</v>
+        <v>4.996994061811813</v>
       </c>
       <c r="N8">
-        <v>4.659936210571834</v>
+        <v>109.4674226756194</v>
       </c>
       <c r="O8">
-        <v>4.996994061811813</v>
+        <v>6.280952380952381</v>
       </c>
       <c r="P8">
-        <v>109.4674226756194</v>
+        <v>312.5</v>
       </c>
       <c r="Q8">
-        <v>6.280952380952381</v>
+        <v>5.857142857142857</v>
       </c>
       <c r="R8">
-        <v>312.5</v>
+        <v>0.2605042016806723</v>
       </c>
       <c r="S8">
-        <v>5.857142857142857</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="T8">
-        <v>0.2605042016806723</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="U8">
-        <v>0.7903225806451613</v>
+        <v>43.47528582446211</v>
       </c>
       <c r="V8">
-        <v>5.583333333333333</v>
+        <v>3.517911878013463</v>
       </c>
       <c r="W8">
-        <v>43.47528582446211</v>
-      </c>
-      <c r="X8">
-        <v>3.517911878013463</v>
-      </c>
-      <c r="Y8">
         <v>2.323242741799769</v>
       </c>
     </row>
@@ -1040,60 +988,54 @@
         <v>10.71220994864787</v>
       </c>
       <c r="F9">
-        <v>4.84982752833444</v>
+        <v>6.1160270149042</v>
       </c>
       <c r="G9">
         <v>4.84982752833444</v>
       </c>
       <c r="H9">
-        <v>6.1160270149042</v>
-      </c>
-      <c r="I9">
-        <v>4.84982752833444</v>
+        <v>4.221879132186773</v>
       </c>
       <c r="J9">
-        <v>4.221879132186773</v>
+        <v>3.950448476632201</v>
+      </c>
+      <c r="K9">
+        <v>5.249010595192723</v>
       </c>
       <c r="L9">
-        <v>3.950448476632201</v>
+        <v>4.765789800290963</v>
       </c>
       <c r="M9">
-        <v>5.249010595192723</v>
+        <v>5.064584324681457</v>
       </c>
       <c r="N9">
-        <v>4.765789800290963</v>
+        <v>113.4228642432531</v>
       </c>
       <c r="O9">
-        <v>5.064584324681457</v>
+        <v>5.54047619047619</v>
       </c>
       <c r="P9">
-        <v>113.4228642432531</v>
+        <v>262.5</v>
       </c>
       <c r="Q9">
-        <v>5.54047619047619</v>
+        <v>6.090909090909091</v>
       </c>
       <c r="R9">
-        <v>262.5</v>
+        <v>0.3049242424242424</v>
       </c>
       <c r="S9">
-        <v>6.090909090909091</v>
+        <v>1.334558823529412</v>
       </c>
       <c r="T9">
-        <v>0.3049242424242424</v>
+        <v>5.727272727272728</v>
       </c>
       <c r="U9">
-        <v>1.334558823529412</v>
+        <v>32.98030817816717</v>
       </c>
       <c r="V9">
-        <v>5.727272727272728</v>
+        <v>1.662340146866858</v>
       </c>
       <c r="W9">
-        <v>32.98030817816717</v>
-      </c>
-      <c r="X9">
-        <v>1.662340146866858</v>
-      </c>
-      <c r="Y9">
         <v>1.209728321390435</v>
       </c>
     </row>
@@ -1116,63 +1058,57 @@
         <v>7.676829175189007</v>
       </c>
       <c r="F10">
-        <v>4.693676823902614</v>
+        <v>5.260660846555814</v>
       </c>
       <c r="G10">
         <v>4.693676823902614</v>
       </c>
       <c r="H10">
-        <v>5.260660846555814</v>
+        <v>3.709960100909427</v>
       </c>
       <c r="I10">
-        <v>4.693676823902614</v>
+        <v>8.359376231769698</v>
       </c>
       <c r="J10">
-        <v>3.709960100909427</v>
+        <v>3.525425460906368</v>
       </c>
       <c r="K10">
-        <v>8.359376231769698</v>
+        <v>5.24139171265962</v>
       </c>
       <c r="L10">
-        <v>3.525425460906368</v>
+        <v>4.536182885369666</v>
       </c>
       <c r="M10">
-        <v>5.24139171265962</v>
+        <v>4.687169823039159</v>
       </c>
       <c r="N10">
-        <v>4.536182885369666</v>
+        <v>157.2806639760778</v>
       </c>
       <c r="O10">
-        <v>4.687169823039159</v>
+        <v>8.145238095238096</v>
       </c>
       <c r="P10">
-        <v>157.2806639760778</v>
+        <v>400</v>
       </c>
       <c r="Q10">
-        <v>8.145238095238096</v>
+        <v>5.957446808510638</v>
       </c>
       <c r="R10">
-        <v>400</v>
+        <v>0.2793709528214616</v>
       </c>
       <c r="S10">
-        <v>5.957446808510638</v>
+        <v>1.023632993512511</v>
       </c>
       <c r="T10">
-        <v>0.2793709528214616</v>
+        <v>5.625</v>
       </c>
       <c r="U10">
-        <v>1.023632993512511</v>
+        <v>44.80049562417651</v>
       </c>
       <c r="V10">
-        <v>5.625</v>
+        <v>3.867179538635936</v>
       </c>
       <c r="W10">
-        <v>44.80049562417651</v>
-      </c>
-      <c r="X10">
-        <v>3.867179538635936</v>
-      </c>
-      <c r="Y10">
         <v>3.108294629836124</v>
       </c>
     </row>
@@ -1195,60 +1131,54 @@
         <v>11.51411098234757</v>
       </c>
       <c r="F11">
-        <v>5.654110438887034</v>
+        <v>7.016024999018521</v>
       </c>
       <c r="G11">
-        <v>5.654110438887034</v>
+        <v>5.654110438887035</v>
       </c>
       <c r="H11">
-        <v>7.016024999018521</v>
-      </c>
-      <c r="I11">
-        <v>5.654110438887035</v>
+        <v>4.96978784120081</v>
       </c>
       <c r="J11">
-        <v>4.96978784120081</v>
+        <v>4.671844400285392</v>
+      </c>
+      <c r="K11">
+        <v>6.085875360040318</v>
       </c>
       <c r="L11">
-        <v>4.671844400285392</v>
+        <v>5.569241452804652</v>
       </c>
       <c r="M11">
-        <v>6.085875360040318</v>
+        <v>4.835887714767762</v>
       </c>
       <c r="N11">
-        <v>5.569241452804652</v>
+        <v>72.03513852346778</v>
       </c>
       <c r="O11">
-        <v>4.835887714767762</v>
+        <v>3.79047619047619</v>
       </c>
       <c r="P11">
-        <v>72.03513852346778</v>
+        <v>158.3333333333333</v>
       </c>
       <c r="Q11">
-        <v>3.79047619047619</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="R11">
-        <v>158.3333333333333</v>
+        <v>0.394927536231884</v>
       </c>
       <c r="S11">
-        <v>6.416666666666667</v>
+        <v>2.028169014084507</v>
       </c>
       <c r="T11">
-        <v>0.394927536231884</v>
+        <v>6.115384615384615</v>
       </c>
       <c r="U11">
-        <v>2.028169014084507</v>
+        <v>36.04717576455867</v>
       </c>
       <c r="V11">
-        <v>6.115384615384615</v>
+        <v>2.069461248797948</v>
       </c>
       <c r="W11">
-        <v>36.04717576455867</v>
-      </c>
-      <c r="X11">
-        <v>2.069461248797948</v>
-      </c>
-      <c r="Y11">
         <v>1.410974886448275</v>
       </c>
     </row>
@@ -1270,55 +1200,49 @@
       <c r="E12">
         <v>116.5868436108727</v>
       </c>
-      <c r="F12">
-        <v>4.472135916683231</v>
-      </c>
       <c r="G12">
-        <v>4.472135916683231</v>
-      </c>
-      <c r="I12">
         <v>4.47213591668323</v>
       </c>
+      <c r="J12">
+        <v>4.388642176893181</v>
+      </c>
+      <c r="K12">
+        <v>4.504755667416535</v>
+      </c>
       <c r="L12">
-        <v>4.388642176893181</v>
+        <v>4.471477918643703</v>
       </c>
       <c r="M12">
-        <v>4.504755667416535</v>
+        <v>4.972677170773323</v>
       </c>
       <c r="N12">
-        <v>4.471477918643703</v>
+        <v>10.53051178847591</v>
       </c>
       <c r="O12">
-        <v>4.972677170773323</v>
+        <v>0.5095238095238095</v>
       </c>
       <c r="P12">
-        <v>10.53051178847591</v>
+        <v>25</v>
       </c>
       <c r="Q12">
-        <v>0.5095238095238095</v>
+        <v>6</v>
       </c>
       <c r="R12">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="S12">
+        <v>1.5</v>
+      </c>
+      <c r="T12">
         <v>6</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
       <c r="U12">
-        <v>1.5</v>
+        <v>-145.033819973534</v>
       </c>
       <c r="V12">
-        <v>6</v>
+        <v>4.995023049728013E-06</v>
       </c>
       <c r="W12">
-        <v>-145.033819973534</v>
-      </c>
-      <c r="X12">
-        <v>4.995023049728013E-06</v>
-      </c>
-      <c r="Y12">
         <v>2.669952128062956E-06</v>
       </c>
     </row>
@@ -1340,58 +1264,52 @@
       <c r="E13">
         <v>112.6032697976963</v>
       </c>
-      <c r="F13">
-        <v>5.96317949768241</v>
-      </c>
       <c r="G13">
         <v>5.96317949768241</v>
       </c>
-      <c r="I13">
-        <v>5.96317949768241</v>
+      <c r="H13">
+        <v>6.037047856138225</v>
       </c>
       <c r="J13">
-        <v>6.037047856138225</v>
+        <v>5.847948046741445</v>
+      </c>
+      <c r="K13">
+        <v>6.008219454679089</v>
       </c>
       <c r="L13">
-        <v>5.847948046741445</v>
+        <v>5.962238945187655</v>
       </c>
       <c r="M13">
-        <v>6.008219454679089</v>
+        <v>6.309909325157341</v>
       </c>
       <c r="N13">
-        <v>5.962238945187655</v>
+        <v>12.9505852358919</v>
       </c>
       <c r="O13">
-        <v>6.309909325157341</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="P13">
-        <v>12.9505852358919</v>
+        <v>29.16666666666666</v>
       </c>
       <c r="Q13">
-        <v>0.7619047619047619</v>
+        <v>6.6</v>
       </c>
       <c r="R13">
-        <v>29.16666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="S13">
-        <v>6.6</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="T13">
-        <v>0.4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="U13">
-        <v>4.166666666666666</v>
+        <v>-204.8963667578089</v>
       </c>
       <c r="V13">
-        <v>6.333333333333333</v>
+        <v>6.942875415857742E-08</v>
       </c>
       <c r="W13">
-        <v>-204.8963667578089</v>
-      </c>
-      <c r="X13">
-        <v>6.942875415857742E-08</v>
-      </c>
-      <c r="Y13">
         <v>3.157354738058712E-08</v>
       </c>
     </row>
@@ -1413,58 +1331,52 @@
       <c r="E14">
         <v>19.13725202294791</v>
       </c>
-      <c r="F14">
-        <v>5.03905471704212</v>
-      </c>
       <c r="G14">
         <v>5.03905471704212</v>
       </c>
-      <c r="I14">
-        <v>5.03905471704212</v>
+      <c r="H14">
+        <v>4.713953470685383</v>
       </c>
       <c r="J14">
-        <v>4.713953470685383</v>
+        <v>4.492478266313293</v>
+      </c>
+      <c r="K14">
+        <v>5.267170444178169</v>
       </c>
       <c r="L14">
-        <v>4.492478266313293</v>
+        <v>5.011586574834284</v>
       </c>
       <c r="M14">
-        <v>5.267170444178169</v>
+        <v>5.482326436699293</v>
       </c>
       <c r="N14">
-        <v>5.011586574834284</v>
+        <v>88.86882239374293</v>
       </c>
       <c r="O14">
-        <v>5.482326436699293</v>
+        <v>4.654761904761905</v>
       </c>
       <c r="P14">
-        <v>88.86882239374293</v>
+        <v>216.6666666666667</v>
       </c>
       <c r="Q14">
-        <v>4.654761904761905</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="R14">
-        <v>216.6666666666667</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="S14">
-        <v>6.142857142857143</v>
+        <v>1.441176470588236</v>
       </c>
       <c r="T14">
-        <v>0.3174603174603174</v>
+        <v>5.772727272727272</v>
       </c>
       <c r="U14">
-        <v>1.441176470588236</v>
+        <v>31.5304238929024</v>
       </c>
       <c r="V14">
-        <v>5.772727272727272</v>
+        <v>1.498797580180088</v>
       </c>
       <c r="W14">
-        <v>31.5304238929024</v>
-      </c>
-      <c r="X14">
-        <v>1.498797580180088</v>
-      </c>
-      <c r="Y14">
         <v>0.8081319323853942</v>
       </c>
     </row>
@@ -1486,58 +1398,52 @@
       <c r="E15">
         <v>110.2242465068549</v>
       </c>
-      <c r="F15">
-        <v>5.095223167394615</v>
-      </c>
       <c r="G15">
-        <v>5.095223167394615</v>
-      </c>
-      <c r="I15">
         <v>5.095223167394614</v>
       </c>
+      <c r="H15">
+        <v>5.048674858878645</v>
+      </c>
       <c r="J15">
-        <v>5.048674858878645</v>
+        <v>4.994659970938014</v>
+      </c>
+      <c r="K15">
+        <v>5.134541262583954</v>
       </c>
       <c r="L15">
-        <v>4.994659970938014</v>
+        <v>5.094384451066343</v>
       </c>
       <c r="M15">
-        <v>5.134541262583954</v>
+        <v>5.595913081359454</v>
       </c>
       <c r="N15">
-        <v>5.094384451066343</v>
+        <v>71.40325923115269</v>
       </c>
       <c r="O15">
-        <v>5.595913081359454</v>
+        <v>2.985714285714286</v>
       </c>
       <c r="P15">
-        <v>71.40325923115269</v>
+        <v>125</v>
       </c>
       <c r="Q15">
-        <v>2.985714285714286</v>
+        <v>6.421052631578948</v>
       </c>
       <c r="R15">
-        <v>125</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="S15">
-        <v>6.421052631578948</v>
+        <v>2.865079365079365</v>
       </c>
       <c r="T15">
-        <v>0.4210526315789473</v>
+        <v>6</v>
       </c>
       <c r="U15">
-        <v>2.865079365079365</v>
+        <v>-189.2315556667714</v>
       </c>
       <c r="V15">
-        <v>6</v>
+        <v>2.125582747074498E-07</v>
       </c>
       <c r="W15">
-        <v>-189.2315556667714</v>
-      </c>
-      <c r="X15">
-        <v>2.125582747074498E-07</v>
-      </c>
-      <c r="Y15">
         <v>8.445921694172789E-08</v>
       </c>
     </row>
@@ -1559,63 +1465,57 @@
       <c r="E16">
         <v>15.1604614803427</v>
       </c>
-      <c r="F16">
-        <v>5.381319798333409</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="G16">
-        <v>5.381319798333409</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
-      </c>
-      <c r="I16">
         <v>5.38131979833341</v>
       </c>
+      <c r="H16">
+        <v>4.911071883682723</v>
+      </c>
       <c r="J16">
-        <v>4.911071883682723</v>
+        <v>4.655281648596134</v>
+      </c>
+      <c r="K16">
+        <v>5.690637717005627</v>
       </c>
       <c r="L16">
-        <v>4.655281648596134</v>
+        <v>5.334628702265441</v>
       </c>
       <c r="M16">
-        <v>5.690637717005627</v>
+        <v>5.430192570470084</v>
       </c>
       <c r="N16">
-        <v>5.334628702265441</v>
+        <v>79.45328176906921</v>
       </c>
       <c r="O16">
-        <v>5.430192570470084</v>
+        <v>3.980952380952381</v>
       </c>
       <c r="P16">
-        <v>79.45328176906921</v>
+        <v>170.8333333333333</v>
       </c>
       <c r="Q16">
-        <v>3.980952380952381</v>
+        <v>6.36</v>
       </c>
       <c r="R16">
-        <v>170.8333333333333</v>
+        <v>0.38</v>
       </c>
       <c r="S16">
-        <v>6.36</v>
+        <v>2.125850340136055</v>
       </c>
       <c r="T16">
-        <v>0.38</v>
+        <v>6</v>
       </c>
       <c r="U16">
-        <v>2.125850340136055</v>
+        <v>13.70063565375319</v>
       </c>
       <c r="V16">
-        <v>6</v>
+        <v>0.4194155311515235</v>
       </c>
       <c r="W16">
-        <v>13.70063565375319</v>
-      </c>
-      <c r="X16">
-        <v>0.4194155311515235</v>
-      </c>
-      <c r="Y16">
         <v>0.2702440114494704</v>
       </c>
     </row>
@@ -1637,55 +1537,49 @@
       <c r="E17">
         <v>143.9493858137125</v>
       </c>
-      <c r="F17">
-        <v>5.477225467539248</v>
-      </c>
       <c r="G17">
         <v>5.477225467539248</v>
       </c>
-      <c r="I17">
-        <v>5.477225467539248</v>
+      <c r="J17">
+        <v>5.394256638695284</v>
+      </c>
+      <c r="K17">
+        <v>5.509559932994044</v>
       </c>
       <c r="L17">
-        <v>5.394256638695284</v>
+        <v>5.476696831205251</v>
       </c>
       <c r="M17">
-        <v>5.509559932994044</v>
+        <v>5.977659700600321</v>
       </c>
       <c r="N17">
-        <v>5.476696831205251</v>
+        <v>6.343082117504698</v>
       </c>
       <c r="O17">
-        <v>5.977659700600321</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="P17">
-        <v>6.343082117504698</v>
+        <v>12.5</v>
       </c>
       <c r="Q17">
-        <v>0.3095238095238095</v>
+        <v>6.5</v>
       </c>
       <c r="R17">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="T17">
         <v>6.5</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
       <c r="U17">
-        <v>4</v>
+        <v>-146.6401331787996</v>
       </c>
       <c r="V17">
-        <v>6.5</v>
+        <v>4.453567093557385E-06</v>
       </c>
       <c r="W17">
-        <v>-146.6401331787996</v>
-      </c>
-      <c r="X17">
-        <v>4.453567093557385E-06</v>
-      </c>
-      <c r="Y17">
         <v>2.380531744973181E-06</v>
       </c>
     </row>
@@ -1733,58 +1627,52 @@
       <c r="E20">
         <v>159.7864591972859</v>
       </c>
-      <c r="F20">
-        <v>5.477225947592557</v>
-      </c>
       <c r="G20">
-        <v>5.477225947592557</v>
-      </c>
-      <c r="I20">
         <v>5.477225947592556</v>
       </c>
+      <c r="H20">
+        <v>5.491142296486604</v>
+      </c>
       <c r="J20">
-        <v>5.491142296486604</v>
+        <v>5.402424059399171</v>
+      </c>
+      <c r="K20">
+        <v>5.506347114037439</v>
       </c>
       <c r="L20">
-        <v>5.402424059399171</v>
+        <v>5.476796906029246</v>
       </c>
       <c r="M20">
-        <v>5.506347114037439</v>
+        <v>5.977578719859831</v>
       </c>
       <c r="N20">
-        <v>5.476796906029246</v>
+        <v>25.37368591226824</v>
       </c>
       <c r="O20">
-        <v>5.977578719859831</v>
+        <v>1.238095238095238</v>
       </c>
       <c r="P20">
-        <v>25.37368591226824</v>
+        <v>49.99999999999999</v>
       </c>
       <c r="Q20">
-        <v>1.238095238095238</v>
+        <v>6.5</v>
       </c>
       <c r="R20">
-        <v>49.99999999999999</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="S20">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="T20">
-        <v>0.4285714285714285</v>
+        <v>6.125</v>
       </c>
       <c r="U20">
-        <v>4</v>
+        <v>-147.4440698512757</v>
       </c>
       <c r="V20">
-        <v>6.125</v>
+        <v>4.205029551465189E-06</v>
       </c>
       <c r="W20">
-        <v>-147.4440698512757</v>
-      </c>
-      <c r="X20">
-        <v>4.205029551465189E-06</v>
-      </c>
-      <c r="Y20">
         <v>2.247682840273314E-06</v>
       </c>
     </row>
@@ -1884,58 +1772,52 @@
       <c r="E27">
         <v>10.09532312072669</v>
       </c>
-      <c r="F27">
-        <v>5.452413265424018</v>
-      </c>
       <c r="G27">
         <v>5.452413265424018</v>
       </c>
-      <c r="I27">
-        <v>5.452413265424018</v>
+      <c r="H27">
+        <v>5.237763809717527</v>
       </c>
       <c r="J27">
-        <v>5.237763809717527</v>
+        <v>4.385968817454244</v>
+      </c>
+      <c r="K27">
+        <v>5.929785576282991</v>
       </c>
       <c r="L27">
-        <v>4.385968817454244</v>
+        <v>5.346112472008344</v>
       </c>
       <c r="M27">
-        <v>5.929785576282991</v>
+        <v>4.835491146993151</v>
       </c>
       <c r="N27">
-        <v>5.346112472008344</v>
+        <v>37.95312694954404</v>
       </c>
       <c r="O27">
-        <v>4.835491146993151</v>
+        <v>1.923809523809524</v>
       </c>
       <c r="P27">
-        <v>37.95312694954404</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="Q27">
-        <v>1.923809523809524</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="R27">
-        <v>83.33333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>6.333333333333333</v>
+        <v>1.8</v>
       </c>
       <c r="T27">
-        <v>0.3333333333333333</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>26.42928589980247</v>
       </c>
       <c r="V27">
-        <v>6.083333333333333</v>
+        <v>1.041119080857544</v>
       </c>
       <c r="W27">
-        <v>26.42928589980247</v>
-      </c>
-      <c r="X27">
-        <v>1.041119080857544</v>
-      </c>
-      <c r="Y27">
         <v>0.7694002987640256</v>
       </c>
     </row>
@@ -1958,60 +1840,54 @@
         <v>4.794191642653089</v>
       </c>
       <c r="F28">
-        <v>3.023405335847694</v>
+        <v>4.037174324497043</v>
       </c>
       <c r="G28">
         <v>3.023405335847694</v>
       </c>
       <c r="H28">
-        <v>4.037174324497043</v>
-      </c>
-      <c r="I28">
-        <v>3.023405335847694</v>
+        <v>2.13934790285614</v>
       </c>
       <c r="J28">
-        <v>2.13934790285614</v>
+        <v>1.911855203997344</v>
+      </c>
+      <c r="K28">
+        <v>3.607871693720103</v>
       </c>
       <c r="L28">
-        <v>1.911855203997344</v>
+        <v>2.767852650801649</v>
       </c>
       <c r="M28">
-        <v>3.607871693720103</v>
+        <v>3.527979909457366</v>
       </c>
       <c r="N28">
-        <v>2.767852650801649</v>
+        <v>236.3479485867436</v>
       </c>
       <c r="O28">
-        <v>3.527979909457366</v>
+        <v>12.82619047619048</v>
       </c>
       <c r="P28">
-        <v>236.3479485867436</v>
+        <v>712.5</v>
       </c>
       <c r="Q28">
-        <v>12.82619047619048</v>
+        <v>5.241935483870968</v>
       </c>
       <c r="R28">
-        <v>712.5</v>
+        <v>0.1930195663670016</v>
       </c>
       <c r="S28">
-        <v>5.241935483870968</v>
+        <v>0.5282396592002199</v>
       </c>
       <c r="T28">
-        <v>0.1930195663670016</v>
+        <v>4.884615384615385</v>
       </c>
       <c r="U28">
-        <v>0.5282396592002199</v>
+        <v>46.47688766060121</v>
       </c>
       <c r="V28">
-        <v>4.884615384615385</v>
+        <v>4.359109216159352</v>
       </c>
       <c r="W28">
-        <v>46.47688766060121</v>
-      </c>
-      <c r="X28">
-        <v>4.359109216159352</v>
-      </c>
-      <c r="Y28">
         <v>3.519136524384858</v>
       </c>
     </row>
@@ -2034,63 +1910,57 @@
         <v>7.246840098116862</v>
       </c>
       <c r="F29">
-        <v>3.066841878844955</v>
+        <v>3.191036916431903</v>
       </c>
       <c r="G29">
-        <v>3.066841878844955</v>
+        <v>3.066841878844954</v>
       </c>
       <c r="H29">
-        <v>3.191036916431903</v>
+        <v>2.311934872464752</v>
       </c>
       <c r="I29">
-        <v>3.066841878844954</v>
+        <v>3.713388194186337</v>
       </c>
       <c r="J29">
-        <v>2.311934872464752</v>
+        <v>2.264719071465897</v>
       </c>
       <c r="K29">
-        <v>3.713388194186337</v>
+        <v>3.447219478420193</v>
       </c>
       <c r="L29">
-        <v>2.264719071465897</v>
+        <v>2.951521137604996</v>
       </c>
       <c r="M29">
-        <v>3.447219478420193</v>
+        <v>3.628380208572149</v>
       </c>
       <c r="N29">
-        <v>2.951521137604996</v>
+        <v>335.8056009494484</v>
       </c>
       <c r="O29">
-        <v>3.628380208572149</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="P29">
-        <v>335.8056009494484</v>
+        <v>1020.833333333333</v>
       </c>
       <c r="Q29">
-        <v>18.33333333333333</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="R29">
-        <v>1020.833333333333</v>
+        <v>0.2017478152309613</v>
       </c>
       <c r="S29">
-        <v>5.277777777777778</v>
+        <v>0.5767176931292275</v>
       </c>
       <c r="T29">
-        <v>0.2017478152309613</v>
+        <v>4.875</v>
       </c>
       <c r="U29">
-        <v>0.5767176931292275</v>
+        <v>33.72261465538469</v>
       </c>
       <c r="V29">
-        <v>4.875</v>
+        <v>1.752859102949944</v>
       </c>
       <c r="W29">
-        <v>33.72261465538469</v>
-      </c>
-      <c r="X29">
-        <v>1.752859102949944</v>
-      </c>
-      <c r="Y29">
         <v>1.30932691382645</v>
       </c>
     </row>
@@ -2113,63 +1983,57 @@
         <v>7.152765673888992</v>
       </c>
       <c r="F30">
-        <v>3.910157204636257</v>
+        <v>4.011106898709893</v>
       </c>
       <c r="G30">
         <v>3.910157204636257</v>
       </c>
       <c r="H30">
-        <v>4.011106898709893</v>
+        <v>2.915310537217237</v>
       </c>
       <c r="I30">
-        <v>3.910157204636257</v>
+        <v>4.606788517334015</v>
       </c>
       <c r="J30">
-        <v>2.915310537217237</v>
+        <v>2.875976485990004</v>
       </c>
       <c r="K30">
-        <v>4.606788517334015</v>
+        <v>4.401894234085605</v>
       </c>
       <c r="L30">
-        <v>2.875976485990004</v>
+        <v>3.759283532655779</v>
       </c>
       <c r="M30">
-        <v>4.401894234085605</v>
+        <v>4.320308190907567</v>
       </c>
       <c r="N30">
-        <v>3.759283532655779</v>
+        <v>273.0543752250777</v>
       </c>
       <c r="O30">
-        <v>4.320308190907567</v>
+        <v>14.12619047619048</v>
       </c>
       <c r="P30">
-        <v>273.0543752250777</v>
+        <v>745.8333333333333</v>
       </c>
       <c r="Q30">
-        <v>14.12619047619048</v>
+        <v>5.644736842105263</v>
       </c>
       <c r="R30">
-        <v>745.8333333333333</v>
+        <v>0.2375438596491228</v>
       </c>
       <c r="S30">
-        <v>5.644736842105263</v>
+        <v>0.7645268034414295</v>
       </c>
       <c r="T30">
-        <v>0.2375438596491228</v>
+        <v>5.295454545454546</v>
       </c>
       <c r="U30">
-        <v>0.7645268034414295</v>
+        <v>45.02390476996496</v>
       </c>
       <c r="V30">
-        <v>5.295454545454546</v>
+        <v>3.929386222009839</v>
       </c>
       <c r="W30">
-        <v>45.02390476996496</v>
-      </c>
-      <c r="X30">
-        <v>3.929386222009839</v>
-      </c>
-      <c r="Y30">
         <v>3.125037025058926</v>
       </c>
     </row>
@@ -2192,63 +2056,57 @@
         <v>5.331641945258179</v>
       </c>
       <c r="F31">
-        <v>3.711150785088869</v>
+        <v>3.840252616112418</v>
       </c>
       <c r="G31">
         <v>3.711150785088869</v>
       </c>
       <c r="H31">
-        <v>3.840252616112418</v>
+        <v>2.502914098700939</v>
       </c>
       <c r="I31">
-        <v>3.711150785088869</v>
+        <v>4.624169639828034</v>
       </c>
       <c r="J31">
-        <v>2.502914098700939</v>
+        <v>2.457714148956299</v>
       </c>
       <c r="K31">
-        <v>4.624169639828034</v>
+        <v>4.350369398731066</v>
       </c>
       <c r="L31">
-        <v>2.457714148956299</v>
+        <v>3.456104232693681</v>
       </c>
       <c r="M31">
-        <v>4.350369398731066</v>
+        <v>4.013637445603583</v>
       </c>
       <c r="N31">
-        <v>3.456104232693681</v>
+        <v>285.9168849963527</v>
       </c>
       <c r="O31">
-        <v>4.013637445603583</v>
+        <v>15.45952380952381</v>
       </c>
       <c r="P31">
-        <v>285.9168849963527</v>
+        <v>829.1666666666666</v>
       </c>
       <c r="Q31">
-        <v>15.45952380952381</v>
+        <v>5.5125</v>
       </c>
       <c r="R31">
-        <v>829.1666666666666</v>
+        <v>0.2186708860759494</v>
       </c>
       <c r="S31">
-        <v>5.5125</v>
+        <v>0.6349836293283064</v>
       </c>
       <c r="T31">
-        <v>0.2186708860759494</v>
+        <v>5.204545454545454</v>
       </c>
       <c r="U31">
-        <v>0.6349836293283064</v>
+        <v>44.39020399548463</v>
       </c>
       <c r="V31">
-        <v>5.204545454545454</v>
+        <v>3.755490471934163</v>
       </c>
       <c r="W31">
-        <v>44.39020399548463</v>
-      </c>
-      <c r="X31">
-        <v>3.755490471934163</v>
-      </c>
-      <c r="Y31">
         <v>3.089639580325174</v>
       </c>
     </row>
@@ -2270,58 +2128,52 @@
       <c r="E32">
         <v>4.714773355817814</v>
       </c>
-      <c r="F32">
-        <v>4.15519059109331</v>
-      </c>
       <c r="G32">
         <v>4.15519059109331</v>
       </c>
-      <c r="I32">
-        <v>4.15519059109331</v>
+      <c r="H32">
+        <v>5.575546410415414</v>
       </c>
       <c r="J32">
-        <v>5.575546410415414</v>
+        <v>2.607334832406239</v>
+      </c>
+      <c r="K32">
+        <v>4.973230144932915</v>
       </c>
       <c r="L32">
-        <v>2.607334832406239</v>
+        <v>3.792400892562665</v>
       </c>
       <c r="M32">
-        <v>4.973230144932915</v>
+        <v>4.002576612140373</v>
       </c>
       <c r="N32">
-        <v>3.792400892562665</v>
+        <v>33.45015556016597</v>
       </c>
       <c r="O32">
-        <v>4.002576612140373</v>
+        <v>1.661904761904762</v>
       </c>
       <c r="P32">
-        <v>33.45015556016597</v>
+        <v>87.49999999999999</v>
       </c>
       <c r="Q32">
-        <v>1.661904761904762</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="R32">
-        <v>87.49999999999999</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="S32">
-        <v>5.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="T32">
-        <v>0.1666666666666667</v>
+        <v>5.5</v>
       </c>
       <c r="U32">
-        <v>0.75</v>
+        <v>32.65785777910628</v>
       </c>
       <c r="V32">
-        <v>5.5</v>
+        <v>1.624490397894629</v>
       </c>
       <c r="W32">
-        <v>32.65785777910628</v>
-      </c>
-      <c r="X32">
-        <v>1.624490397894629</v>
-      </c>
-      <c r="Y32">
         <v>1.28757776006258</v>
       </c>
     </row>
@@ -2344,60 +2196,54 @@
         <v>4.772376152762051</v>
       </c>
       <c r="F33">
-        <v>3.403243438974124</v>
+        <v>5.728274453584384</v>
       </c>
       <c r="G33">
         <v>3.403243438974124</v>
       </c>
       <c r="H33">
-        <v>5.728274453584384</v>
-      </c>
-      <c r="I33">
-        <v>3.403243438974124</v>
+        <v>2.492989150845509</v>
       </c>
       <c r="J33">
-        <v>2.492989150845509</v>
+        <v>2.147542563413588</v>
+      </c>
+      <c r="K33">
+        <v>4.064420061264022</v>
       </c>
       <c r="L33">
-        <v>2.147542563413588</v>
+        <v>3.113026490867503</v>
       </c>
       <c r="M33">
-        <v>4.064420061264022</v>
+        <v>3.770672138732706</v>
       </c>
       <c r="N33">
-        <v>3.113026490867503</v>
+        <v>183.9778427099527</v>
       </c>
       <c r="O33">
-        <v>3.770672138732706</v>
+        <v>10.17380952380952</v>
       </c>
       <c r="P33">
-        <v>183.9778427099527</v>
+        <v>554.1666666666666</v>
       </c>
       <c r="Q33">
-        <v>10.17380952380952</v>
+        <v>5.392156862745098</v>
       </c>
       <c r="R33">
-        <v>554.1666666666666</v>
+        <v>0.2023529411764706</v>
       </c>
       <c r="S33">
-        <v>5.392156862745098</v>
+        <v>0.5785142348754448</v>
       </c>
       <c r="T33">
-        <v>0.2023529411764706</v>
+        <v>5.076923076923077</v>
       </c>
       <c r="U33">
-        <v>0.5785142348754448</v>
+        <v>46.67404307169885</v>
       </c>
       <c r="V33">
-        <v>5.076923076923077</v>
+        <v>4.420930780002574</v>
       </c>
       <c r="W33">
-        <v>46.67404307169885</v>
-      </c>
-      <c r="X33">
-        <v>4.420930780002574</v>
-      </c>
-      <c r="Y33">
         <v>3.740161420126828</v>
       </c>
     </row>
@@ -2420,60 +2266,54 @@
         <v>11.30153676489345</v>
       </c>
       <c r="F34">
-        <v>3.139266917329272</v>
+        <v>3.459757199797499</v>
       </c>
       <c r="G34">
         <v>3.139266917329272</v>
       </c>
       <c r="H34">
-        <v>3.459757199797499</v>
-      </c>
-      <c r="I34">
-        <v>3.139266917329272</v>
+        <v>2.69259567139049</v>
       </c>
       <c r="J34">
-        <v>2.69259567139049</v>
+        <v>2.584600871388743</v>
+      </c>
+      <c r="K34">
+        <v>3.383671025850553</v>
       </c>
       <c r="L34">
-        <v>2.584600871388743</v>
+        <v>3.090366133812495</v>
       </c>
       <c r="M34">
-        <v>3.383671025850553</v>
+        <v>3.677729235090631</v>
       </c>
       <c r="N34">
-        <v>3.090366133812495</v>
+        <v>254.6676356766044</v>
       </c>
       <c r="O34">
-        <v>3.677729235090631</v>
+        <v>13.90238095238095</v>
       </c>
       <c r="P34">
-        <v>254.6676356766044</v>
+        <v>775</v>
       </c>
       <c r="Q34">
-        <v>13.90238095238095</v>
+        <v>5.304347826086956</v>
       </c>
       <c r="R34">
-        <v>775</v>
+        <v>0.2046035805626598</v>
       </c>
       <c r="S34">
-        <v>5.304347826086956</v>
+        <v>0.6127413127413128</v>
       </c>
       <c r="T34">
-        <v>0.2046035805626598</v>
+        <v>4.875</v>
       </c>
       <c r="U34">
-        <v>0.6127413127413128</v>
+        <v>3.81855785496234</v>
       </c>
       <c r="V34">
-        <v>4.875</v>
+        <v>0.2070581040359157</v>
       </c>
       <c r="W34">
-        <v>3.81855785496234</v>
-      </c>
-      <c r="X34">
-        <v>0.2070581040359157</v>
-      </c>
-      <c r="Y34">
         <v>0.1358177191094921</v>
       </c>
     </row>
@@ -2496,63 +2336,57 @@
         <v>8.454611580417231</v>
       </c>
       <c r="F35">
-        <v>4.057327692341826</v>
+        <v>4.403981694131073</v>
       </c>
       <c r="G35">
         <v>4.057327692341826</v>
       </c>
       <c r="H35">
-        <v>4.403981694131073</v>
+        <v>3.251545195872579</v>
       </c>
       <c r="I35">
-        <v>4.057327692341826</v>
+        <v>5.543736198592026</v>
       </c>
       <c r="J35">
-        <v>3.251545195872579</v>
+        <v>3.128769535864024</v>
       </c>
       <c r="K35">
-        <v>5.543736198592026</v>
+        <v>4.485014801418045</v>
       </c>
       <c r="L35">
-        <v>3.128769535864024</v>
+        <v>3.944859323023876</v>
       </c>
       <c r="M35">
-        <v>4.485014801418045</v>
+        <v>4.497441146629991</v>
       </c>
       <c r="N35">
-        <v>3.944859323023876</v>
+        <v>214.2802136508226</v>
       </c>
       <c r="O35">
-        <v>4.497441146629991</v>
+        <v>11.27142857142857</v>
       </c>
       <c r="P35">
-        <v>214.2802136508226</v>
+        <v>591.6666666666666</v>
       </c>
       <c r="Q35">
-        <v>11.27142857142857</v>
+        <v>5.672131147540983</v>
       </c>
       <c r="R35">
-        <v>591.6666666666666</v>
+        <v>0.239344262295082</v>
       </c>
       <c r="S35">
-        <v>5.672131147540983</v>
+        <v>0.7876799322607958</v>
       </c>
       <c r="T35">
-        <v>0.239344262295082</v>
+        <v>5.294117647058823</v>
       </c>
       <c r="U35">
-        <v>0.7876799322607958</v>
+        <v>33.84610814191203</v>
       </c>
       <c r="V35">
-        <v>5.294117647058823</v>
+        <v>1.768389404216912</v>
       </c>
       <c r="W35">
-        <v>33.84610814191203</v>
-      </c>
-      <c r="X35">
-        <v>1.768389404216912</v>
-      </c>
-      <c r="Y35">
         <v>1.413053833990821</v>
       </c>
     </row>
@@ -2575,63 +2409,57 @@
         <v>9.085062512702445</v>
       </c>
       <c r="F36">
-        <v>4.258028993847819</v>
+        <v>4.688768230228948</v>
       </c>
       <c r="G36">
         <v>4.258028993847819</v>
       </c>
       <c r="H36">
-        <v>4.688768230228948</v>
+        <v>3.490579454237428</v>
       </c>
       <c r="I36">
-        <v>4.258028993847819</v>
+        <v>6.934506408201944</v>
       </c>
       <c r="J36">
-        <v>3.490579454237428</v>
+        <v>3.34329260944142</v>
       </c>
       <c r="K36">
-        <v>6.934506408201944</v>
+        <v>4.674251859248032</v>
       </c>
       <c r="L36">
-        <v>3.34329260944142</v>
+        <v>4.155682366964984</v>
       </c>
       <c r="M36">
-        <v>4.674251859248032</v>
+        <v>4.666014736355721</v>
       </c>
       <c r="N36">
-        <v>4.155682366964984</v>
+        <v>188.7940307032386</v>
       </c>
       <c r="O36">
-        <v>4.666014736355721</v>
+        <v>9.728571428571428</v>
       </c>
       <c r="P36">
-        <v>188.7940307032386</v>
+        <v>500</v>
       </c>
       <c r="Q36">
-        <v>9.728571428571428</v>
+        <v>5.777777777777778</v>
       </c>
       <c r="R36">
-        <v>500</v>
+        <v>0.2529699510831586</v>
       </c>
       <c r="S36">
-        <v>5.777777777777778</v>
+        <v>0.8804347826086957</v>
       </c>
       <c r="T36">
-        <v>0.2529699510831586</v>
+        <v>5.40625</v>
       </c>
       <c r="U36">
-        <v>0.8804347826086957</v>
+        <v>23.30907744506155</v>
       </c>
       <c r="V36">
-        <v>5.40625</v>
+        <v>0.8331214421404067</v>
       </c>
       <c r="W36">
-        <v>23.30907744506155</v>
-      </c>
-      <c r="X36">
-        <v>0.8331214421404067</v>
-      </c>
-      <c r="Y36">
         <v>0.68855761209275</v>
       </c>
     </row>
@@ -2653,60 +2481,54 @@
       <c r="E37">
         <v>184.5827516720262</v>
       </c>
-      <c r="F37">
-        <v>6.480741421711892</v>
-      </c>
       <c r="G37">
-        <v>6.480741421711892</v>
-      </c>
-      <c r="I37">
         <v>6.480741421711891</v>
       </c>
+      <c r="H37">
+        <v>6.529597760949039</v>
+      </c>
       <c r="J37">
-        <v>6.529597760949039</v>
+        <v>6.40405371929852</v>
+      </c>
+      <c r="K37">
+        <v>6.510558621048612</v>
       </c>
       <c r="L37">
-        <v>6.40405371929852</v>
+        <v>6.480361001170294</v>
       </c>
       <c r="M37">
-        <v>6.510558621048612</v>
+        <v>3.495939281035708</v>
       </c>
       <c r="N37">
-        <v>6.480361001170294</v>
+        <v>6.486821294270757</v>
       </c>
       <c r="O37">
-        <v>3.495939281035708</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="P37">
-        <v>6.486821294270757</v>
+        <v>12.5</v>
       </c>
       <c r="Q37">
-        <v>0.4285714285714285</v>
+        <v>7</v>
       </c>
       <c r="R37">
-        <v>12.5</v>
-      </c>
-      <c r="S37">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="T37">
-        <v>1</v>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="U37">
+        <v>-146.718906149696</v>
       </c>
       <c r="V37">
-        <v>5</v>
+        <v>4.428578837236228E-06</v>
       </c>
       <c r="W37">
-        <v>-146.718906149696</v>
-      </c>
-      <c r="X37">
-        <v>4.428578837236228E-06</v>
-      </c>
-      <c r="Y37">
         <v>2.367174959391358E-06</v>
       </c>
     </row>
@@ -2728,58 +2550,52 @@
       <c r="E38">
         <v>4.008211418668727</v>
       </c>
-      <c r="F38">
-        <v>4.912830855523764</v>
-      </c>
       <c r="G38">
         <v>4.912830855523764</v>
       </c>
-      <c r="I38">
-        <v>4.912830855523764</v>
+      <c r="H38">
+        <v>3.97672976140282</v>
       </c>
       <c r="J38">
-        <v>3.97672976140282</v>
+        <v>2.839617942543751</v>
+      </c>
+      <c r="K38">
+        <v>6.069285182323338</v>
       </c>
       <c r="L38">
-        <v>2.839617942543751</v>
+        <v>4.326150431526919</v>
       </c>
       <c r="M38">
-        <v>6.069285182323338</v>
+        <v>3.592647763320336</v>
       </c>
       <c r="N38">
-        <v>4.326150431526919</v>
+        <v>68.59377615745612</v>
       </c>
       <c r="O38">
-        <v>3.592647763320336</v>
+        <v>3.692857142857143</v>
       </c>
       <c r="P38">
-        <v>68.59377615745612</v>
+        <v>187.5</v>
       </c>
       <c r="Q38">
-        <v>3.692857142857143</v>
+        <v>5.75</v>
       </c>
       <c r="R38">
-        <v>187.5</v>
+        <v>0.2263157894736842</v>
       </c>
       <c r="S38">
-        <v>5.75</v>
+        <v>0.6299212598425197</v>
       </c>
       <c r="T38">
-        <v>0.2263157894736842</v>
+        <v>5.625</v>
       </c>
       <c r="U38">
-        <v>0.6299212598425197</v>
+        <v>43.66226665672122</v>
       </c>
       <c r="V38">
-        <v>5.625</v>
+        <v>3.565211471307639</v>
       </c>
       <c r="W38">
-        <v>43.66226665672122</v>
-      </c>
-      <c r="X38">
-        <v>3.565211471307639</v>
-      </c>
-      <c r="Y38">
         <v>2.401517520189651</v>
       </c>
     </row>
@@ -2801,58 +2617,52 @@
       <c r="E39">
         <v>6.073917173408198</v>
       </c>
-      <c r="F39">
-        <v>3.937140534349644</v>
-      </c>
       <c r="G39">
         <v>3.937140534349644</v>
       </c>
-      <c r="I39">
-        <v>3.937140534349644</v>
+      <c r="H39">
+        <v>3.537226734275836</v>
       </c>
       <c r="J39">
-        <v>3.537226734275836</v>
+        <v>2.742053713549812</v>
+      </c>
+      <c r="K39">
+        <v>4.526515645986486</v>
       </c>
       <c r="L39">
-        <v>2.742053713549812</v>
+        <v>3.727527563040264</v>
       </c>
       <c r="M39">
-        <v>4.526515645986486</v>
+        <v>4.226869997678651</v>
       </c>
       <c r="N39">
-        <v>3.727527563040264</v>
+        <v>85.25318563794283</v>
       </c>
       <c r="O39">
-        <v>4.226869997678651</v>
+        <v>4.5</v>
       </c>
       <c r="P39">
-        <v>85.25318563794283</v>
+        <v>237.5</v>
       </c>
       <c r="Q39">
-        <v>4.5</v>
+        <v>5.625</v>
       </c>
       <c r="R39">
-        <v>237.5</v>
+        <v>0.2101449275362319</v>
       </c>
       <c r="S39">
-        <v>5.625</v>
+        <v>0.7137546468401487</v>
       </c>
       <c r="T39">
-        <v>0.2101449275362319</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="U39">
-        <v>0.7137546468401487</v>
+        <v>31.36991866353755</v>
       </c>
       <c r="V39">
-        <v>5.357142857142857</v>
+        <v>1.48171250109387</v>
       </c>
       <c r="W39">
-        <v>31.36991866353755</v>
-      </c>
-      <c r="X39">
-        <v>1.48171250109387</v>
-      </c>
-      <c r="Y39">
         <v>1.162673829509139</v>
       </c>
     </row>
@@ -2874,58 +2684,52 @@
       <c r="E40">
         <v>7.478930640949296</v>
       </c>
-      <c r="F40">
-        <v>4.394707577367086</v>
-      </c>
       <c r="G40">
         <v>4.394707577367086</v>
       </c>
-      <c r="I40">
-        <v>4.394707577367086</v>
+      <c r="H40">
+        <v>3.83872735200104</v>
       </c>
       <c r="J40">
-        <v>3.83872735200104</v>
+        <v>3.275964703424899</v>
+      </c>
+      <c r="K40">
+        <v>4.921888533143838</v>
       </c>
       <c r="L40">
-        <v>3.275964703424899</v>
+        <v>4.239432538842119</v>
       </c>
       <c r="M40">
-        <v>4.921888533143838</v>
+        <v>4.596544859968883</v>
       </c>
       <c r="N40">
-        <v>4.239432538842119</v>
+        <v>93.97913811828893</v>
       </c>
       <c r="O40">
-        <v>4.596544859968883</v>
+        <v>5.069047619047619</v>
       </c>
       <c r="P40">
-        <v>93.97913811828893</v>
+        <v>258.3333333333333</v>
       </c>
       <c r="Q40">
-        <v>5.069047619047619</v>
+        <v>5.785714285714286</v>
       </c>
       <c r="R40">
-        <v>258.3333333333333</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="S40">
-        <v>5.785714285714286</v>
+        <v>0.8065843621399177</v>
       </c>
       <c r="T40">
-        <v>0.2380952380952381</v>
+        <v>5.5</v>
       </c>
       <c r="U40">
-        <v>0.8065843621399177</v>
+        <v>33.72693579595044</v>
       </c>
       <c r="V40">
-        <v>5.5</v>
+        <v>1.753400211494138</v>
       </c>
       <c r="W40">
-        <v>33.72693579595044</v>
-      </c>
-      <c r="X40">
-        <v>1.753400211494138</v>
-      </c>
-      <c r="Y40">
         <v>1.274698408915202</v>
       </c>
     </row>
@@ -2948,60 +2752,54 @@
         <v>8.898960192924655</v>
       </c>
       <c r="F41">
-        <v>4.447893962459351</v>
+        <v>5.880644327266851</v>
       </c>
       <c r="G41">
         <v>4.447893962459351</v>
       </c>
       <c r="H41">
-        <v>5.880644327266851</v>
-      </c>
-      <c r="I41">
-        <v>4.447893962459351</v>
+        <v>3.764119597960247</v>
       </c>
       <c r="J41">
-        <v>3.764119597960247</v>
+        <v>3.474750592421757</v>
+      </c>
+      <c r="K41">
+        <v>4.892208551451955</v>
       </c>
       <c r="L41">
-        <v>3.474750592421757</v>
+        <v>4.336503429151024</v>
       </c>
       <c r="M41">
-        <v>4.892208551451955</v>
+        <v>4.761910239984327</v>
       </c>
       <c r="N41">
-        <v>4.336503429151024</v>
+        <v>134.0024479157343</v>
       </c>
       <c r="O41">
-        <v>4.761910239984327</v>
+        <v>6.823809523809524</v>
       </c>
       <c r="P41">
-        <v>134.0024479157343</v>
+        <v>341.6666666666666</v>
       </c>
       <c r="Q41">
-        <v>6.823809523809524</v>
+        <v>5.897435897435898</v>
       </c>
       <c r="R41">
-        <v>341.6666666666666</v>
+        <v>0.2672064777327935</v>
       </c>
       <c r="S41">
-        <v>5.897435897435898</v>
+        <v>1.037517053206003</v>
       </c>
       <c r="T41">
-        <v>0.2672064777327935</v>
+        <v>5.538461538461538</v>
       </c>
       <c r="U41">
-        <v>1.037517053206003</v>
+        <v>34.63777057269886</v>
       </c>
       <c r="V41">
-        <v>5.538461538461538</v>
+        <v>1.871268433682268</v>
       </c>
       <c r="W41">
-        <v>34.63777057269886</v>
-      </c>
-      <c r="X41">
-        <v>1.871268433682268</v>
-      </c>
-      <c r="Y41">
         <v>1.447018156858619</v>
       </c>
     </row>
@@ -3023,54 +2821,48 @@
       <c r="E42">
         <v>170.4162502172665</v>
       </c>
-      <c r="F42">
-        <v>6.480740892712731</v>
-      </c>
       <c r="G42">
-        <v>6.480740892712731</v>
-      </c>
-      <c r="I42">
         <v>6.480740892712732</v>
       </c>
+      <c r="J42">
+        <v>6.397719241032239</v>
+      </c>
+      <c r="K42">
+        <v>6.513042925334348</v>
+      </c>
       <c r="L42">
-        <v>6.397719241032239</v>
+        <v>6.48029459704158</v>
       </c>
       <c r="M42">
-        <v>6.513042925334348</v>
+        <v>3.495240283421138</v>
       </c>
       <c r="N42">
-        <v>6.48029459704158</v>
+        <v>2.162050426859686</v>
       </c>
       <c r="O42">
-        <v>3.495240283421138</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="P42">
-        <v>2.162050426859686</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="Q42">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="R42">
-        <v>4.166666666666666</v>
-      </c>
-      <c r="S42">
         <v>7</v>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>Inf</t>
         </is>
       </c>
+      <c r="T42">
+        <v>7</v>
+      </c>
+      <c r="U42">
+        <v>-146.8130657591605</v>
+      </c>
       <c r="V42">
-        <v>7</v>
+        <v>4.398893543710246E-06</v>
       </c>
       <c r="W42">
-        <v>-146.8130657591605</v>
-      </c>
-      <c r="X42">
-        <v>4.398893543710246E-06</v>
-      </c>
-      <c r="Y42">
         <v>2.351307503034438E-06</v>
       </c>
     </row>
@@ -3092,55 +2884,49 @@
       <c r="E43">
         <v>150.0136134691178</v>
       </c>
-      <c r="F43">
-        <v>5.477225745792368</v>
-      </c>
       <c r="G43">
         <v>5.477225745792368</v>
       </c>
-      <c r="I43">
-        <v>5.477225745792368</v>
+      <c r="J43">
+        <v>5.397586382513623</v>
+      </c>
+      <c r="K43">
+        <v>5.508249413036311</v>
       </c>
       <c r="L43">
-        <v>5.397586382513623</v>
+        <v>5.476738984061988</v>
       </c>
       <c r="M43">
-        <v>5.508249413036311</v>
+        <v>5.97762579750949</v>
       </c>
       <c r="N43">
-        <v>5.476738984061988</v>
+        <v>12.68644896718743</v>
       </c>
       <c r="O43">
-        <v>5.97762579750949</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="P43">
-        <v>12.68644896718743</v>
+        <v>25</v>
       </c>
       <c r="Q43">
-        <v>0.6190476190476191</v>
+        <v>6.5</v>
       </c>
       <c r="R43">
-        <v>25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S43">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="T43">
-        <v>0.3333333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="U43">
-        <v>4</v>
+        <v>-144.6755367496498</v>
       </c>
       <c r="V43">
-        <v>6.25</v>
+        <v>5.124503721461537E-06</v>
       </c>
       <c r="W43">
-        <v>-144.6755367496498</v>
-      </c>
-      <c r="X43">
-        <v>5.124503721461537E-06</v>
-      </c>
-      <c r="Y43">
         <v>2.739162457789121E-06</v>
       </c>
     </row>
@@ -3175,55 +2961,49 @@
       <c r="E45">
         <v>143.9493858137125</v>
       </c>
-      <c r="F45">
-        <v>5.477225467539248</v>
-      </c>
       <c r="G45">
         <v>5.477225467539248</v>
       </c>
-      <c r="I45">
-        <v>5.477225467539248</v>
+      <c r="J45">
+        <v>5.394256638695284</v>
+      </c>
+      <c r="K45">
+        <v>5.509559932994044</v>
       </c>
       <c r="L45">
-        <v>5.394256638695284</v>
+        <v>5.476696831205251</v>
       </c>
       <c r="M45">
-        <v>5.509559932994044</v>
+        <v>5.977659700600321</v>
       </c>
       <c r="N45">
-        <v>5.476696831205251</v>
+        <v>6.343082117504698</v>
       </c>
       <c r="O45">
-        <v>5.977659700600321</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="P45">
-        <v>6.343082117504698</v>
+        <v>12.5</v>
       </c>
       <c r="Q45">
-        <v>0.3095238095238095</v>
+        <v>6.5</v>
       </c>
       <c r="R45">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="S45">
+        <v>4</v>
+      </c>
+      <c r="T45">
         <v>6.5</v>
       </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
       <c r="U45">
-        <v>4</v>
+        <v>-146.6401331787996</v>
       </c>
       <c r="V45">
-        <v>6.5</v>
+        <v>4.453567093557385E-06</v>
       </c>
       <c r="W45">
-        <v>-146.6401331787996</v>
-      </c>
-      <c r="X45">
-        <v>4.453567093557385E-06</v>
-      </c>
-      <c r="Y45">
         <v>2.380531744973181E-06</v>
       </c>
     </row>
@@ -3245,58 +3025,52 @@
       <c r="E46">
         <v>108.5387316592359</v>
       </c>
-      <c r="F46">
-        <v>5.939575247307629</v>
-      </c>
       <c r="G46">
-        <v>5.939575247307629</v>
-      </c>
-      <c r="I46">
         <v>5.93957524730763</v>
       </c>
+      <c r="H46">
+        <v>5.961805048423881</v>
+      </c>
       <c r="J46">
-        <v>5.961805048423881</v>
+        <v>5.820545188376075</v>
+      </c>
+      <c r="K46">
+        <v>5.986123458847114</v>
       </c>
       <c r="L46">
-        <v>5.820545188376075</v>
+        <v>5.938566943695434</v>
       </c>
       <c r="M46">
-        <v>5.986123458847114</v>
+        <v>6.326999178840116</v>
       </c>
       <c r="N46">
-        <v>5.938566943695434</v>
+        <v>17.65992215645836</v>
       </c>
       <c r="O46">
-        <v>6.326999178840116</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="P46">
-        <v>17.65992215645836</v>
+        <v>41.66666666666666</v>
       </c>
       <c r="Q46">
-        <v>1.071428571428571</v>
+        <v>6.571428571428571</v>
       </c>
       <c r="R46">
-        <v>41.66666666666666</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="S46">
-        <v>6.571428571428571</v>
+        <v>4.083333333333334</v>
       </c>
       <c r="T46">
-        <v>0.4285714285714285</v>
+        <v>6.25</v>
       </c>
       <c r="U46">
-        <v>4.083333333333334</v>
+        <v>-196.816250529236</v>
       </c>
       <c r="V46">
-        <v>6.25</v>
+        <v>1.236496626797656E-07</v>
       </c>
       <c r="W46">
-        <v>-196.816250529236</v>
-      </c>
-      <c r="X46">
-        <v>1.236496626797656E-07</v>
-      </c>
-      <c r="Y46">
         <v>6.360442710480524E-08</v>
       </c>
     </row>
@@ -3383,58 +3157,52 @@
       <c r="E52">
         <v>8.563867625607138</v>
       </c>
-      <c r="F52">
-        <v>4.953903294211027</v>
-      </c>
       <c r="G52">
         <v>4.953903294211027</v>
       </c>
-      <c r="I52">
-        <v>4.953903294211027</v>
+      <c r="H52">
+        <v>4.724821503027306</v>
       </c>
       <c r="J52">
-        <v>4.724821503027306</v>
+        <v>3.832842214111519</v>
+      </c>
+      <c r="K52">
+        <v>5.469102367797973</v>
       </c>
       <c r="L52">
-        <v>3.832842214111519</v>
+        <v>4.820031818093132</v>
       </c>
       <c r="M52">
-        <v>5.469102367797973</v>
+        <v>4.82012047113034</v>
       </c>
       <c r="N52">
-        <v>4.820031818093132</v>
+        <v>49.50018020725579</v>
       </c>
       <c r="O52">
-        <v>4.82012047113034</v>
+        <v>2.54047619047619</v>
       </c>
       <c r="P52">
-        <v>49.50018020725579</v>
+        <v>120.8333333333333</v>
       </c>
       <c r="Q52">
-        <v>2.54047619047619</v>
+        <v>6.066666666666666</v>
       </c>
       <c r="R52">
-        <v>120.8333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="S52">
-        <v>6.066666666666666</v>
+        <v>1.15979381443299</v>
       </c>
       <c r="T52">
-        <v>0.2666666666666667</v>
+        <v>5.8</v>
       </c>
       <c r="U52">
-        <v>1.15979381443299</v>
+        <v>18.36304152791384</v>
       </c>
       <c r="V52">
-        <v>5.8</v>
+        <v>0.5851634094555374</v>
       </c>
       <c r="W52">
-        <v>18.36304152791384</v>
-      </c>
-      <c r="X52">
-        <v>0.5851634094555374</v>
-      </c>
-      <c r="Y52">
         <v>0.4137194702810332</v>
       </c>
     </row>
@@ -3463,10 +3231,10 @@
         <v>3.214613818743745</v>
       </c>
       <c r="H53">
-        <v>3.214613818743745</v>
+        <v>2.225667070898382</v>
       </c>
       <c r="I53">
-        <v>3.214613818743745</v>
+        <v>3.704251921127244</v>
       </c>
       <c r="J53">
         <v>2.225667070898382</v>
@@ -3475,45 +3243,39 @@
         <v>3.704251921127244</v>
       </c>
       <c r="L53">
-        <v>2.225667070898382</v>
+        <v>3.037942261115212</v>
       </c>
       <c r="M53">
-        <v>3.704251921127244</v>
+        <v>3.740853889140504</v>
       </c>
       <c r="N53">
-        <v>3.037942261115212</v>
+        <v>364.5803976631498</v>
       </c>
       <c r="O53">
-        <v>3.740853889140504</v>
+        <v>19.57857142857143</v>
       </c>
       <c r="P53">
-        <v>364.5803976631498</v>
+        <v>1083.333333333333</v>
       </c>
       <c r="Q53">
-        <v>19.57857142857143</v>
+        <v>5.319587628865979</v>
       </c>
       <c r="R53">
-        <v>1083.333333333333</v>
+        <v>0.2048969072164948</v>
       </c>
       <c r="S53">
-        <v>5.319587628865979</v>
+        <v>0.5805157946692991</v>
       </c>
       <c r="T53">
-        <v>0.2048969072164948</v>
+        <v>4.909090909090909</v>
       </c>
       <c r="U53">
-        <v>0.5805157946692991</v>
+        <v>42.36272242773231</v>
       </c>
       <c r="V53">
-        <v>4.909090909090909</v>
+        <v>3.249167413505305</v>
       </c>
       <c r="W53">
-        <v>42.36272242773231</v>
-      </c>
-      <c r="X53">
-        <v>3.249167413505305</v>
-      </c>
-      <c r="Y53">
         <v>2.366178072032605</v>
       </c>
     </row>
@@ -3536,63 +3298,57 @@
         <v>6.317366520660202</v>
       </c>
       <c r="F54">
-        <v>4.203093440185616</v>
+        <v>4.398920096382701</v>
       </c>
       <c r="G54">
-        <v>4.203093440185616</v>
+        <v>4.203093440185617</v>
       </c>
       <c r="H54">
-        <v>4.398920096382701</v>
+        <v>3.039471618991513</v>
       </c>
       <c r="I54">
-        <v>4.203093440185617</v>
+        <v>5.234454311050172</v>
       </c>
       <c r="J54">
-        <v>3.039471618991513</v>
+        <v>2.968372263819586</v>
       </c>
       <c r="K54">
-        <v>5.234454311050172</v>
+        <v>4.806373222796068</v>
       </c>
       <c r="L54">
-        <v>2.968372263819586</v>
+        <v>3.995952422469867</v>
       </c>
       <c r="M54">
-        <v>4.806373222796068</v>
+        <v>4.368258380716152</v>
       </c>
       <c r="N54">
-        <v>3.995952422469867</v>
+        <v>233.631571450433</v>
       </c>
       <c r="O54">
-        <v>4.368258380716152</v>
+        <v>12.11666666666667</v>
       </c>
       <c r="P54">
-        <v>233.631571450433</v>
+        <v>629.1666666666666</v>
       </c>
       <c r="Q54">
-        <v>12.11666666666667</v>
+        <v>5.712121212121212</v>
       </c>
       <c r="R54">
-        <v>629.1666666666666</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="S54">
-        <v>5.712121212121212</v>
+        <v>0.7716563330380868</v>
       </c>
       <c r="T54">
-        <v>0.2424242424242424</v>
+        <v>5.361111111111111</v>
       </c>
       <c r="U54">
-        <v>0.7716563330380868</v>
+        <v>36.37800690586641</v>
       </c>
       <c r="V54">
-        <v>5.361111111111111</v>
+        <v>2.118946651969974</v>
       </c>
       <c r="W54">
-        <v>36.37800690586641</v>
-      </c>
-      <c r="X54">
-        <v>2.118946651969974</v>
-      </c>
-      <c r="Y54">
         <v>1.553419136246257</v>
       </c>
     </row>
@@ -3615,63 +3371,57 @@
         <v>8.603333541001616</v>
       </c>
       <c r="F55">
-        <v>3.855513218471212</v>
+        <v>4.10478701026159</v>
       </c>
       <c r="G55">
         <v>3.855513218471212</v>
       </c>
       <c r="H55">
-        <v>4.10478701026159</v>
+        <v>3.079339789775849</v>
       </c>
       <c r="I55">
-        <v>3.855513218471212</v>
+        <v>4.883190317966044</v>
       </c>
       <c r="J55">
-        <v>3.079339789775849</v>
+        <v>2.98652915151378</v>
       </c>
       <c r="K55">
-        <v>4.883190317966044</v>
+        <v>4.254549840384681</v>
       </c>
       <c r="L55">
-        <v>2.98652915151378</v>
+        <v>3.752269113520884</v>
       </c>
       <c r="M55">
-        <v>4.254549840384681</v>
+        <v>4.348693912452105</v>
       </c>
       <c r="N55">
-        <v>3.752269113520884</v>
+        <v>242.4778031857115</v>
       </c>
       <c r="O55">
-        <v>4.348693912452105</v>
+        <v>12.69761904761905</v>
       </c>
       <c r="P55">
-        <v>242.4778031857115</v>
+        <v>675</v>
       </c>
       <c r="Q55">
-        <v>12.69761904761905</v>
+        <v>5.617647058823529</v>
       </c>
       <c r="R55">
-        <v>675</v>
+        <v>0.2344161545215101</v>
       </c>
       <c r="S55">
-        <v>5.617647058823529</v>
+        <v>0.7722110888443553</v>
       </c>
       <c r="T55">
-        <v>0.2344161545215101</v>
+        <v>5.236842105263158</v>
       </c>
       <c r="U55">
-        <v>0.7722110888443553</v>
+        <v>21.5208126234288</v>
       </c>
       <c r="V55">
-        <v>5.236842105263158</v>
+        <v>0.733220312057874</v>
       </c>
       <c r="W55">
-        <v>21.5208126234288</v>
-      </c>
-      <c r="X55">
-        <v>0.733220312057874</v>
-      </c>
-      <c r="Y55">
         <v>0.476119995978853</v>
       </c>
     </row>
@@ -3694,63 +3444,57 @@
         <v>7.510976901893</v>
       </c>
       <c r="F56">
-        <v>3.276556903704132</v>
+        <v>3.404488467745055</v>
       </c>
       <c r="G56">
         <v>3.276556903704132</v>
       </c>
       <c r="H56">
-        <v>3.404488467745055</v>
+        <v>2.494694924534327</v>
       </c>
       <c r="I56">
-        <v>3.276556903704132</v>
+        <v>3.940715326482858</v>
       </c>
       <c r="J56">
-        <v>2.494694924534327</v>
+        <v>2.445520589186244</v>
       </c>
       <c r="K56">
-        <v>3.940715326482858</v>
+        <v>3.667833241822098</v>
       </c>
       <c r="L56">
-        <v>2.445520589186244</v>
+        <v>3.161762778158188</v>
       </c>
       <c r="M56">
-        <v>3.667833241822098</v>
+        <v>3.824832417772939</v>
       </c>
       <c r="N56">
-        <v>3.161762778158188</v>
+        <v>317.5816598982839</v>
       </c>
       <c r="O56">
-        <v>3.824832417772939</v>
+        <v>16.93333333333333</v>
       </c>
       <c r="P56">
-        <v>317.5816598982839</v>
+        <v>933.3333333333334</v>
       </c>
       <c r="Q56">
-        <v>16.93333333333333</v>
+        <v>5.364705882352941</v>
       </c>
       <c r="R56">
-        <v>933.3333333333334</v>
+        <v>0.2092436974789916</v>
       </c>
       <c r="S56">
-        <v>5.364705882352941</v>
+        <v>0.6084722924035708</v>
       </c>
       <c r="T56">
-        <v>0.2092436974789916</v>
+        <v>5</v>
       </c>
       <c r="U56">
-        <v>0.6084722924035708</v>
+        <v>44.38098421753468</v>
       </c>
       <c r="V56">
-        <v>5</v>
+        <v>3.75301808696465</v>
       </c>
       <c r="W56">
-        <v>44.38098421753468</v>
-      </c>
-      <c r="X56">
-        <v>3.75301808696465</v>
-      </c>
-      <c r="Y56">
         <v>2.341653633885953</v>
       </c>
     </row>
@@ -3772,58 +3516,52 @@
       <c r="E57">
         <v>8.987768478392955</v>
       </c>
-      <c r="F57">
-        <v>4.780470171498499</v>
-      </c>
       <c r="G57">
         <v>4.780470171498499</v>
       </c>
-      <c r="I57">
-        <v>4.780470171498499</v>
+      <c r="H57">
+        <v>5.001070021061507</v>
       </c>
       <c r="J57">
-        <v>5.001070021061507</v>
+        <v>3.743685646506688</v>
+      </c>
+      <c r="K57">
+        <v>5.253062459591696</v>
       </c>
       <c r="L57">
-        <v>3.743685646506688</v>
+        <v>4.663085551048368</v>
       </c>
       <c r="M57">
-        <v>5.253062459591696</v>
+        <v>4.87836349280744</v>
       </c>
       <c r="N57">
-        <v>4.663085551048368</v>
+        <v>35.81335363234375</v>
       </c>
       <c r="O57">
-        <v>4.87836349280744</v>
+        <v>1.888095238095238</v>
       </c>
       <c r="P57">
-        <v>35.81335363234375</v>
+        <v>91.66666666666666</v>
       </c>
       <c r="Q57">
-        <v>1.888095238095238</v>
+        <v>6</v>
       </c>
       <c r="R57">
-        <v>91.66666666666666</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="S57">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="T57">
-        <v>0.2363636363636364</v>
+        <v>5.75</v>
       </c>
       <c r="U57">
-        <v>1.1</v>
+        <v>27.33372673359628</v>
       </c>
       <c r="V57">
-        <v>5.75</v>
+        <v>1.110598534895517</v>
       </c>
       <c r="W57">
-        <v>27.33372673359628</v>
-      </c>
-      <c r="X57">
-        <v>1.110598534895517</v>
-      </c>
-      <c r="Y57">
         <v>0.8177985780558298</v>
       </c>
     </row>
@@ -3846,63 +3584,57 @@
         <v>4.24489260165404</v>
       </c>
       <c r="F58">
-        <v>4.181151494081775</v>
+        <v>4.747233290080488</v>
       </c>
       <c r="G58">
         <v>4.181151494081775</v>
       </c>
       <c r="H58">
-        <v>4.747233290080488</v>
+        <v>2.651156339589921</v>
       </c>
       <c r="I58">
-        <v>4.181151494081775</v>
+        <v>6.749690743470157</v>
       </c>
       <c r="J58">
-        <v>2.651156339589921</v>
+        <v>2.49171350176369</v>
       </c>
       <c r="K58">
-        <v>6.749690743470157</v>
+        <v>5.104848428869703</v>
       </c>
       <c r="L58">
-        <v>2.49171350176369</v>
+        <v>3.733958682701151</v>
       </c>
       <c r="M58">
-        <v>5.104848428869703</v>
+        <v>3.849644805861436</v>
       </c>
       <c r="N58">
-        <v>3.733958682701151</v>
+        <v>209.1841307016229</v>
       </c>
       <c r="O58">
-        <v>3.849644805861436</v>
+        <v>10.98095238095238</v>
       </c>
       <c r="P58">
-        <v>209.1841307016229</v>
+        <v>579.1666666666666</v>
       </c>
       <c r="Q58">
-        <v>10.98095238095238</v>
+        <v>5.603448275862069</v>
       </c>
       <c r="R58">
-        <v>579.1666666666666</v>
+        <v>0.2268602540834846</v>
       </c>
       <c r="S58">
-        <v>5.603448275862069</v>
+        <v>0.6453098024170343</v>
       </c>
       <c r="T58">
-        <v>0.2268602540834846</v>
+        <v>5.269230769230769</v>
       </c>
       <c r="U58">
-        <v>0.6453098024170343</v>
+        <v>50.53480500966683</v>
       </c>
       <c r="V58">
-        <v>5.269230769230769</v>
+        <v>5.824766818465734</v>
       </c>
       <c r="W58">
-        <v>50.53480500966683</v>
-      </c>
-      <c r="X58">
-        <v>5.824766818465734</v>
-      </c>
-      <c r="Y58">
         <v>4.501007259696719</v>
       </c>
     </row>
@@ -3925,63 +3657,57 @@
         <v>5.384865530058056</v>
       </c>
       <c r="F59">
-        <v>3.780514734804034</v>
+        <v>3.987978106881852</v>
       </c>
       <c r="G59">
         <v>3.780514734804034</v>
       </c>
       <c r="H59">
-        <v>3.987978106881852</v>
+        <v>2.584654970608907</v>
       </c>
       <c r="I59">
-        <v>3.780514734804034</v>
+        <v>4.89054075395435</v>
       </c>
       <c r="J59">
-        <v>2.584654970608907</v>
+        <v>2.513869340974538</v>
       </c>
       <c r="K59">
-        <v>4.89054075395435</v>
+        <v>4.424725226497569</v>
       </c>
       <c r="L59">
-        <v>2.513869340974538</v>
+        <v>3.525693961298039</v>
       </c>
       <c r="M59">
-        <v>4.424725226497569</v>
+        <v>4.054324349427122</v>
       </c>
       <c r="N59">
-        <v>3.525693961298039</v>
+        <v>267.1496103590713</v>
       </c>
       <c r="O59">
-        <v>4.054324349427122</v>
+        <v>13.75</v>
       </c>
       <c r="P59">
-        <v>267.1496103590713</v>
+        <v>737.5</v>
       </c>
       <c r="Q59">
-        <v>13.75</v>
+        <v>5.541666666666667</v>
       </c>
       <c r="R59">
-        <v>737.5</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="S59">
-        <v>5.541666666666667</v>
+        <v>0.6674391657010429</v>
       </c>
       <c r="T59">
-        <v>0.2253521126760563</v>
+        <v>5.194444444444445</v>
       </c>
       <c r="U59">
-        <v>0.6674391657010429</v>
+        <v>52.85605500579268</v>
       </c>
       <c r="V59">
-        <v>5.194444444444445</v>
+        <v>6.875212406990705</v>
       </c>
       <c r="W59">
-        <v>52.85605500579268</v>
-      </c>
-      <c r="X59">
-        <v>6.875212406990705</v>
-      </c>
-      <c r="Y59">
         <v>5.711719447893669</v>
       </c>
     </row>
@@ -4004,63 +3730,57 @@
         <v>11.42226479910111</v>
       </c>
       <c r="F60">
-        <v>3.741194815710664</v>
+        <v>3.876384214072996</v>
       </c>
       <c r="G60">
         <v>3.741194815710664</v>
       </c>
       <c r="H60">
-        <v>3.876384214072996</v>
+        <v>3.142350643932069</v>
       </c>
       <c r="I60">
-        <v>3.741194815710664</v>
+        <v>4.325726479949187</v>
       </c>
       <c r="J60">
-        <v>3.142350643932069</v>
+        <v>3.086512236834033</v>
       </c>
       <c r="K60">
-        <v>4.325726479949187</v>
+        <v>4.029267215770128</v>
       </c>
       <c r="L60">
-        <v>3.086512236834033</v>
+        <v>3.684136868299445</v>
       </c>
       <c r="M60">
-        <v>4.029267215770128</v>
+        <v>4.272930416434004</v>
       </c>
       <c r="N60">
-        <v>3.684136868299445</v>
+        <v>267.6450448181267</v>
       </c>
       <c r="O60">
-        <v>4.272930416434004</v>
+        <v>13.62380952380952</v>
       </c>
       <c r="P60">
-        <v>267.6450448181267</v>
+        <v>729.1666666666667</v>
       </c>
       <c r="Q60">
-        <v>13.62380952380952</v>
+        <v>5.602739726027397</v>
       </c>
       <c r="R60">
-        <v>729.1666666666667</v>
+        <v>0.2374429223744292</v>
       </c>
       <c r="S60">
-        <v>5.602739726027397</v>
+        <v>0.7979934112009583</v>
       </c>
       <c r="T60">
-        <v>0.2374429223744292</v>
+        <v>5.2</v>
       </c>
       <c r="U60">
-        <v>0.7979934112009583</v>
+        <v>37.26499076036777</v>
       </c>
       <c r="V60">
-        <v>5.2</v>
+        <v>2.257538572486707</v>
       </c>
       <c r="W60">
-        <v>37.26499076036777</v>
-      </c>
-      <c r="X60">
-        <v>2.257538572486707</v>
-      </c>
-      <c r="Y60">
         <v>1.34584363731593</v>
       </c>
     </row>
@@ -4083,63 +3803,57 @@
         <v>6.557874694509708</v>
       </c>
       <c r="F61">
-        <v>4.127122944867218</v>
+        <v>4.39035143514361</v>
       </c>
       <c r="G61">
         <v>4.127122944867218</v>
       </c>
       <c r="H61">
-        <v>4.39035143514361</v>
+        <v>3.045782960376112</v>
       </c>
       <c r="I61">
-        <v>4.127122944867218</v>
+        <v>5.31451168430582</v>
       </c>
       <c r="J61">
-        <v>3.045782960376112</v>
+        <v>2.952136719932312</v>
       </c>
       <c r="K61">
-        <v>5.31451168430582</v>
+        <v>4.696340831799283</v>
       </c>
       <c r="L61">
-        <v>2.952136719932312</v>
+        <v>3.938143920882014</v>
       </c>
       <c r="M61">
-        <v>4.696340831799283</v>
+        <v>4.375765549816566</v>
       </c>
       <c r="N61">
-        <v>3.938143920882014</v>
+        <v>229.1275881182612</v>
       </c>
       <c r="O61">
-        <v>4.375765549816566</v>
+        <v>11.40714285714286</v>
       </c>
       <c r="P61">
-        <v>229.1275881182612</v>
+        <v>591.6666666666666</v>
       </c>
       <c r="Q61">
-        <v>11.40714285714286</v>
+        <v>5.746031746031746</v>
       </c>
       <c r="R61">
-        <v>591.6666666666666</v>
+        <v>0.250384024577573</v>
       </c>
       <c r="S61">
-        <v>5.746031746031746</v>
+        <v>0.8520824388149421</v>
       </c>
       <c r="T61">
-        <v>0.250384024577573</v>
+        <v>5.388888888888889</v>
       </c>
       <c r="U61">
-        <v>0.8520824388149421</v>
+        <v>49.60036623130399</v>
       </c>
       <c r="V61">
-        <v>5.388888888888889</v>
+        <v>5.448679798154794</v>
       </c>
       <c r="W61">
-        <v>49.60036623130399</v>
-      </c>
-      <c r="X61">
-        <v>5.448679798154794</v>
-      </c>
-      <c r="Y61">
         <v>4.161459144664661</v>
       </c>
     </row>
@@ -4174,58 +3888,52 @@
       <c r="E63">
         <v>18.84773472551043</v>
       </c>
-      <c r="F63">
-        <v>3.681707528497797</v>
-      </c>
       <c r="G63">
         <v>3.681707528497797</v>
       </c>
-      <c r="I63">
-        <v>3.681707528497797</v>
+      <c r="H63">
+        <v>3.603350028779065</v>
       </c>
       <c r="J63">
-        <v>3.603350028779065</v>
+        <v>3.276576080404277</v>
+      </c>
+      <c r="K63">
+        <v>3.850994928437913</v>
       </c>
       <c r="L63">
-        <v>3.276576080404277</v>
+        <v>3.661018225908765</v>
       </c>
       <c r="M63">
-        <v>3.850994928437913</v>
+        <v>4.198578562372204</v>
       </c>
       <c r="N63">
-        <v>3.661018225908765</v>
+        <v>82.52977428184413</v>
       </c>
       <c r="O63">
-        <v>4.198578562372204</v>
+        <v>3.940476190476191</v>
       </c>
       <c r="P63">
-        <v>82.52977428184413</v>
+        <v>212.5</v>
       </c>
       <c r="Q63">
-        <v>3.940476190476191</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="R63">
-        <v>212.5</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="S63">
-        <v>5.571428571428571</v>
+        <v>0.7736842105263158</v>
       </c>
       <c r="T63">
-        <v>0.2142857142857143</v>
+        <v>5.2</v>
       </c>
       <c r="U63">
-        <v>0.7736842105263158</v>
+        <v>37.00037974952015</v>
       </c>
       <c r="V63">
-        <v>5.2</v>
+        <v>2.215270030605889</v>
       </c>
       <c r="W63">
-        <v>37.00037974952015</v>
-      </c>
-      <c r="X63">
-        <v>2.215270030605889</v>
-      </c>
-      <c r="Y63">
         <v>1.276276531147342</v>
       </c>
     </row>
@@ -4248,60 +3956,54 @@
         <v>4.766379896377289</v>
       </c>
       <c r="F64">
-        <v>4.336260015531362</v>
+        <v>6.315004318715577</v>
       </c>
       <c r="G64">
         <v>4.336260015531362</v>
       </c>
       <c r="H64">
-        <v>6.315004318715577</v>
-      </c>
-      <c r="I64">
-        <v>4.336260015531362</v>
+        <v>3.115719917905196</v>
       </c>
       <c r="J64">
-        <v>3.115719917905196</v>
+        <v>2.734717911826111</v>
+      </c>
+      <c r="K64">
+        <v>5.179858397784032</v>
       </c>
       <c r="L64">
-        <v>2.734717911826111</v>
+        <v>3.965575028277979</v>
       </c>
       <c r="M64">
-        <v>5.179858397784032</v>
+        <v>4.023023507220615</v>
       </c>
       <c r="N64">
-        <v>3.965575028277979</v>
+        <v>146.6897765903328</v>
       </c>
       <c r="O64">
-        <v>4.023023507220615</v>
+        <v>7.55</v>
       </c>
       <c r="P64">
-        <v>146.6897765903328</v>
+        <v>391.6666666666667</v>
       </c>
       <c r="Q64">
-        <v>7.55</v>
+        <v>5.707317073170731</v>
       </c>
       <c r="R64">
-        <v>391.6666666666667</v>
+        <v>0.2353658536585366</v>
       </c>
       <c r="S64">
-        <v>5.707317073170731</v>
+        <v>0.7258203799654577</v>
       </c>
       <c r="T64">
-        <v>0.2353658536585366</v>
+        <v>5.4</v>
       </c>
       <c r="U64">
-        <v>0.7258203799654577</v>
+        <v>46.00592892706341</v>
       </c>
       <c r="V64">
-        <v>5.4</v>
+        <v>4.214908228961534</v>
       </c>
       <c r="W64">
-        <v>46.00592892706341</v>
-      </c>
-      <c r="X64">
-        <v>4.214908228961534</v>
-      </c>
-      <c r="Y64">
         <v>3.49767969689262</v>
       </c>
     </row>
@@ -4324,60 +4026,54 @@
         <v>6.984547616655165</v>
       </c>
       <c r="F65">
-        <v>4.550224800308918</v>
+        <v>5.880892680632665</v>
       </c>
       <c r="G65">
         <v>4.550224800308918</v>
       </c>
       <c r="H65">
-        <v>5.880892680632665</v>
-      </c>
-      <c r="I65">
-        <v>4.550224800308918</v>
+        <v>3.631341224336525</v>
       </c>
       <c r="J65">
-        <v>3.631341224336525</v>
+        <v>3.322086252478448</v>
+      </c>
+      <c r="K65">
+        <v>5.137091074479288</v>
       </c>
       <c r="L65">
-        <v>3.322086252478448</v>
+        <v>4.366212317491142</v>
       </c>
       <c r="M65">
-        <v>5.137091074479288</v>
+        <v>4.558087734491529</v>
       </c>
       <c r="N65">
-        <v>4.366212317491142</v>
+        <v>137.0317326215618</v>
       </c>
       <c r="O65">
-        <v>4.558087734491529</v>
+        <v>7.016666666666667</v>
       </c>
       <c r="P65">
-        <v>137.0317326215618</v>
+        <v>350</v>
       </c>
       <c r="Q65">
-        <v>7.016666666666667</v>
+        <v>5.9</v>
       </c>
       <c r="R65">
-        <v>350</v>
+        <v>0.2653846153846154</v>
       </c>
       <c r="S65">
-        <v>5.9</v>
+        <v>0.9615384615384615</v>
       </c>
       <c r="T65">
-        <v>0.2653846153846154</v>
+        <v>5.576923076923077</v>
       </c>
       <c r="U65">
-        <v>0.9615384615384615</v>
+        <v>41.86444757653939</v>
       </c>
       <c r="V65">
-        <v>5.576923076923077</v>
+        <v>3.135559798510611</v>
       </c>
       <c r="W65">
-        <v>41.86444757653939</v>
-      </c>
-      <c r="X65">
-        <v>3.135559798510611</v>
-      </c>
-      <c r="Y65">
         <v>2.60560988945357</v>
       </c>
     </row>
@@ -4399,58 +4095,52 @@
       <c r="E66">
         <v>6.192925874831711</v>
       </c>
-      <c r="F66">
-        <v>3.99507269864247</v>
-      </c>
       <c r="G66">
         <v>3.99507269864247</v>
       </c>
-      <c r="I66">
-        <v>3.99507269864247</v>
+      <c r="H66">
+        <v>3.392998220048947</v>
       </c>
       <c r="J66">
-        <v>3.392998220048947</v>
+        <v>2.801810730926241</v>
+      </c>
+      <c r="K66">
+        <v>4.580823696204733</v>
       </c>
       <c r="L66">
-        <v>2.801810730926241</v>
+        <v>3.790330601072032</v>
       </c>
       <c r="M66">
-        <v>4.580823696204733</v>
+        <v>4.269521540627356</v>
       </c>
       <c r="N66">
-        <v>3.790330601072032</v>
+        <v>107.6069365002253</v>
       </c>
       <c r="O66">
-        <v>4.269521540627356</v>
+        <v>5.319047619047619</v>
       </c>
       <c r="P66">
-        <v>107.6069365002253</v>
+        <v>279.1666666666666</v>
       </c>
       <c r="Q66">
-        <v>5.319047619047619</v>
+        <v>5.689655172413793</v>
       </c>
       <c r="R66">
-        <v>279.1666666666666</v>
+        <v>0.2315270935960591</v>
       </c>
       <c r="S66">
-        <v>5.689655172413793</v>
+        <v>0.800952380952381</v>
       </c>
       <c r="T66">
-        <v>0.2315270935960591</v>
+        <v>5.375</v>
       </c>
       <c r="U66">
-        <v>0.800952380952381</v>
+        <v>44.2208502212789</v>
       </c>
       <c r="V66">
-        <v>5.375</v>
+        <v>3.710335103324891</v>
       </c>
       <c r="W66">
-        <v>44.2208502212789</v>
-      </c>
-      <c r="X66">
-        <v>3.710335103324891</v>
-      </c>
-      <c r="Y66">
         <v>2.80751005100046</v>
       </c>
     </row>
@@ -4472,58 +4162,52 @@
       <c r="E67">
         <v>155.1523502184269</v>
       </c>
-      <c r="F67">
-        <v>5.477226183417972</v>
-      </c>
       <c r="G67">
         <v>5.477226183417972</v>
       </c>
-      <c r="I67">
-        <v>5.477226183417972</v>
+      <c r="H67">
+        <v>5.526384775984881</v>
       </c>
       <c r="J67">
-        <v>5.526384775984881</v>
+        <v>5.40020588174016</v>
+      </c>
+      <c r="K67">
+        <v>5.507219522870317</v>
       </c>
       <c r="L67">
-        <v>5.40020588174016</v>
+        <v>5.476771130475918</v>
       </c>
       <c r="M67">
-        <v>5.507219522870317</v>
+        <v>5.977600280483752</v>
       </c>
       <c r="N67">
-        <v>5.476771130475918</v>
+        <v>19.02999402837043</v>
       </c>
       <c r="O67">
-        <v>5.977600280483752</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="P67">
-        <v>19.02999402837043</v>
+        <v>37.5</v>
       </c>
       <c r="Q67">
-        <v>0.9285714285714286</v>
+        <v>6.5</v>
       </c>
       <c r="R67">
-        <v>37.5</v>
+        <v>0.4</v>
       </c>
       <c r="S67">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="T67">
-        <v>0.4</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="U67">
-        <v>4</v>
+        <v>-145.557336596668</v>
       </c>
       <c r="V67">
-        <v>6.166666666666667</v>
+        <v>4.811688115650528E-06</v>
       </c>
       <c r="W67">
-        <v>-145.557336596668</v>
-      </c>
-      <c r="X67">
-        <v>4.811688115650528E-06</v>
-      </c>
-      <c r="Y67">
         <v>2.57195548258612E-06</v>
       </c>
     </row>
@@ -4558,58 +4242,52 @@
       <c r="E69">
         <v>10.4566193817578</v>
       </c>
-      <c r="F69">
-        <v>5.662486479299914</v>
-      </c>
       <c r="G69">
-        <v>5.662486479299914</v>
-      </c>
-      <c r="I69">
         <v>5.662486479299913</v>
       </c>
+      <c r="H69">
+        <v>5.6193070891791</v>
+      </c>
       <c r="J69">
-        <v>5.6193070891791</v>
+        <v>4.589336589967957</v>
+      </c>
+      <c r="K69">
+        <v>6.140418570962738</v>
       </c>
       <c r="L69">
-        <v>4.589336589967957</v>
+        <v>5.559541347959992</v>
       </c>
       <c r="M69">
-        <v>6.140418570962738</v>
+        <v>4.671651921976068</v>
       </c>
       <c r="N69">
-        <v>5.559541347959992</v>
+        <v>27.66958172155926</v>
       </c>
       <c r="O69">
-        <v>4.671651921976068</v>
+        <v>1.664285714285714</v>
       </c>
       <c r="P69">
-        <v>27.66958172155926</v>
+        <v>75</v>
       </c>
       <c r="Q69">
-        <v>1.664285714285714</v>
+        <v>6.2</v>
       </c>
       <c r="R69">
-        <v>75</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="S69">
-        <v>6.2</v>
+        <v>1.041666666666667</v>
       </c>
       <c r="T69">
-        <v>0.2888888888888889</v>
+        <v>6.1</v>
       </c>
       <c r="U69">
-        <v>1.041666666666667</v>
+        <v>32.63360287599104</v>
       </c>
       <c r="V69">
-        <v>6.1</v>
+        <v>1.621678416095162</v>
       </c>
       <c r="W69">
-        <v>32.63360287599104</v>
-      </c>
-      <c r="X69">
-        <v>1.621678416095162</v>
-      </c>
-      <c r="Y69">
         <v>0.9960842382717369</v>
       </c>
     </row>
@@ -4631,58 +4309,52 @@
       <c r="E70">
         <v>122.8301000808966</v>
       </c>
-      <c r="F70">
-        <v>6.048103312305495</v>
-      </c>
       <c r="G70">
         <v>6.048103312305495</v>
       </c>
-      <c r="I70">
-        <v>6.048103312305495</v>
+      <c r="H70">
+        <v>5.985584520257521</v>
       </c>
       <c r="J70">
-        <v>5.985584520257521</v>
+        <v>5.940874811526006</v>
+      </c>
+      <c r="K70">
+        <v>6.089968136887077</v>
       </c>
       <c r="L70">
-        <v>5.940874811526006</v>
+        <v>6.047301596593613</v>
       </c>
       <c r="M70">
-        <v>6.089968136887077</v>
+        <v>6.095107107266655</v>
       </c>
       <c r="N70">
-        <v>6.047301596593613</v>
+        <v>43.59837278504361</v>
       </c>
       <c r="O70">
-        <v>6.095107107266655</v>
+        <v>2.071428571428571</v>
       </c>
       <c r="P70">
-        <v>43.59837278504361</v>
+        <v>70.83333333333333</v>
       </c>
       <c r="Q70">
-        <v>2.071428571428571</v>
+        <v>6.785714285714286</v>
       </c>
       <c r="R70">
-        <v>70.83333333333333</v>
+        <v>0.6373626373626373</v>
       </c>
       <c r="S70">
-        <v>6.785714285714286</v>
+        <v>5.939393939393939</v>
       </c>
       <c r="T70">
-        <v>0.6373626373626373</v>
+        <v>6.409090909090909</v>
       </c>
       <c r="U70">
-        <v>5.939393939393939</v>
+        <v>-185.536176708734</v>
       </c>
       <c r="V70">
-        <v>6.409090909090909</v>
+        <v>2.76765845209633E-07</v>
       </c>
       <c r="W70">
-        <v>-185.536176708734</v>
-      </c>
-      <c r="X70">
-        <v>2.76765845209633E-07</v>
-      </c>
-      <c r="Y70">
         <v>1.103663754610644E-07</v>
       </c>
     </row>
@@ -4704,58 +4376,52 @@
       <c r="E71">
         <v>40.61241710812473</v>
       </c>
-      <c r="F71">
-        <v>5.156602663735154</v>
-      </c>
       <c r="G71">
         <v>5.156602663735154</v>
       </c>
-      <c r="I71">
-        <v>5.156602663735154</v>
+      <c r="H71">
+        <v>5.029745083524128</v>
       </c>
       <c r="J71">
-        <v>5.029745083524128</v>
+        <v>4.885031231627535</v>
+      </c>
+      <c r="K71">
+        <v>5.265315084116799</v>
       </c>
       <c r="L71">
-        <v>4.885031231627535</v>
+        <v>5.150352369748495</v>
       </c>
       <c r="M71">
-        <v>5.265315084116799</v>
+        <v>5.659448952252359</v>
       </c>
       <c r="N71">
-        <v>5.150352369748495</v>
+        <v>68.93443963108328</v>
       </c>
       <c r="O71">
-        <v>5.659448952252359</v>
+        <v>3.435714285714286</v>
       </c>
       <c r="P71">
-        <v>68.93443963108328</v>
+        <v>154.1666666666667</v>
       </c>
       <c r="Q71">
-        <v>3.435714285714286</v>
+        <v>6.238095238095238</v>
       </c>
       <c r="R71">
-        <v>154.1666666666667</v>
+        <v>0.3476190476190476</v>
       </c>
       <c r="S71">
-        <v>6.238095238095238</v>
+        <v>1.520689655172414</v>
       </c>
       <c r="T71">
-        <v>0.3476190476190476</v>
+        <v>5.888888888888889</v>
       </c>
       <c r="U71">
-        <v>1.520689655172414</v>
+        <v>32.22178358169047</v>
       </c>
       <c r="V71">
-        <v>5.888888888888889</v>
+        <v>1.574670443788921</v>
       </c>
       <c r="W71">
-        <v>32.22178358169047</v>
-      </c>
-      <c r="X71">
-        <v>1.574670443788921</v>
-      </c>
-      <c r="Y71">
         <v>0.6067179853356519</v>
       </c>
     </row>
@@ -4790,55 +4456,49 @@
       <c r="E73">
         <v>143.9493858137125</v>
       </c>
-      <c r="F73">
-        <v>5.477225467539248</v>
-      </c>
       <c r="G73">
         <v>5.477225467539248</v>
       </c>
-      <c r="I73">
-        <v>5.477225467539248</v>
+      <c r="J73">
+        <v>5.394256638695284</v>
+      </c>
+      <c r="K73">
+        <v>5.509559932994044</v>
       </c>
       <c r="L73">
-        <v>5.394256638695284</v>
+        <v>5.476696831205251</v>
       </c>
       <c r="M73">
-        <v>5.509559932994044</v>
+        <v>5.977659700600321</v>
       </c>
       <c r="N73">
-        <v>5.476696831205251</v>
+        <v>6.343082117504698</v>
       </c>
       <c r="O73">
-        <v>5.977659700600321</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="P73">
-        <v>6.343082117504698</v>
+        <v>12.5</v>
       </c>
       <c r="Q73">
-        <v>0.3095238095238095</v>
+        <v>6.5</v>
       </c>
       <c r="R73">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="S73">
+        <v>4</v>
+      </c>
+      <c r="T73">
         <v>6.5</v>
       </c>
-      <c r="T73">
-        <v>0</v>
-      </c>
       <c r="U73">
-        <v>4</v>
+        <v>-146.6401331787996</v>
       </c>
       <c r="V73">
-        <v>6.5</v>
+        <v>4.453567093557385E-06</v>
       </c>
       <c r="W73">
-        <v>-146.6401331787996</v>
-      </c>
-      <c r="X73">
-        <v>4.453567093557385E-06</v>
-      </c>
-      <c r="Y73">
         <v>2.380531744973181E-06</v>
       </c>
     </row>
@@ -4873,55 +4533,49 @@
       <c r="E75">
         <v>143.9493858137125</v>
       </c>
-      <c r="F75">
-        <v>5.477225467539248</v>
-      </c>
       <c r="G75">
         <v>5.477225467539248</v>
       </c>
-      <c r="I75">
-        <v>5.477225467539248</v>
+      <c r="J75">
+        <v>5.394256638695284</v>
+      </c>
+      <c r="K75">
+        <v>5.509559932994044</v>
       </c>
       <c r="L75">
-        <v>5.394256638695284</v>
+        <v>5.476696831205251</v>
       </c>
       <c r="M75">
-        <v>5.509559932994044</v>
+        <v>5.977659700600321</v>
       </c>
       <c r="N75">
-        <v>5.476696831205251</v>
+        <v>6.343082117504698</v>
       </c>
       <c r="O75">
-        <v>5.977659700600321</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="P75">
-        <v>6.343082117504698</v>
+        <v>12.5</v>
       </c>
       <c r="Q75">
-        <v>0.3095238095238095</v>
+        <v>6.5</v>
       </c>
       <c r="R75">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="S75">
+        <v>4</v>
+      </c>
+      <c r="T75">
         <v>6.5</v>
       </c>
-      <c r="T75">
-        <v>0</v>
-      </c>
       <c r="U75">
-        <v>4</v>
+        <v>-146.6401331787996</v>
       </c>
       <c r="V75">
-        <v>6.5</v>
+        <v>4.453567093557385E-06</v>
       </c>
       <c r="W75">
-        <v>-146.6401331787996</v>
-      </c>
-      <c r="X75">
-        <v>4.453567093557385E-06</v>
-      </c>
-      <c r="Y75">
         <v>2.380531744973181E-06</v>
       </c>
     </row>
@@ -4943,58 +4597,52 @@
       <c r="E76">
         <v>112.6032697976963</v>
       </c>
-      <c r="F76">
-        <v>5.96317949768241</v>
-      </c>
       <c r="G76">
         <v>5.96317949768241</v>
       </c>
-      <c r="I76">
-        <v>5.96317949768241</v>
+      <c r="H76">
+        <v>6.037047856138225</v>
       </c>
       <c r="J76">
-        <v>6.037047856138225</v>
+        <v>5.847948046741445</v>
+      </c>
+      <c r="K76">
+        <v>6.008219454679089</v>
       </c>
       <c r="L76">
-        <v>5.847948046741445</v>
+        <v>5.962238945187655</v>
       </c>
       <c r="M76">
-        <v>6.008219454679089</v>
+        <v>6.309909325157341</v>
       </c>
       <c r="N76">
-        <v>5.962238945187655</v>
+        <v>12.9505852358919</v>
       </c>
       <c r="O76">
-        <v>6.309909325157341</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="P76">
-        <v>12.9505852358919</v>
+        <v>29.16666666666666</v>
       </c>
       <c r="Q76">
-        <v>0.7619047619047619</v>
+        <v>6.6</v>
       </c>
       <c r="R76">
-        <v>29.16666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="S76">
-        <v>6.6</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="T76">
-        <v>0.4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="U76">
-        <v>4.166666666666666</v>
+        <v>-204.8963667578089</v>
       </c>
       <c r="V76">
-        <v>6.333333333333333</v>
+        <v>6.942875415857742E-08</v>
       </c>
       <c r="W76">
-        <v>-204.8963667578089</v>
-      </c>
-      <c r="X76">
-        <v>6.942875415857742E-08</v>
-      </c>
-      <c r="Y76">
         <v>3.157354738058712E-08</v>
       </c>
     </row>
@@ -5016,55 +4664,49 @@
       <c r="E77">
         <v>95.36559433154007</v>
       </c>
-      <c r="F77">
-        <v>3.464102065277851</v>
-      </c>
       <c r="G77">
         <v>3.464102065277851</v>
       </c>
-      <c r="I77">
-        <v>3.464102065277851</v>
+      <c r="J77">
+        <v>3.385201532010218</v>
+      </c>
+      <c r="K77">
+        <v>3.495016819149762</v>
       </c>
       <c r="L77">
-        <v>3.385201532010218</v>
+        <v>3.46334032766559</v>
       </c>
       <c r="M77">
-        <v>3.495016819149762</v>
+        <v>3.964728694655502</v>
       </c>
       <c r="N77">
-        <v>3.46334032766559</v>
+        <v>29.46059421146405</v>
       </c>
       <c r="O77">
-        <v>3.964728694655502</v>
+        <v>1.519047619047619</v>
       </c>
       <c r="P77">
-        <v>29.46059421146405</v>
+        <v>83.33333333333331</v>
       </c>
       <c r="Q77">
-        <v>1.519047619047619</v>
+        <v>5.5</v>
       </c>
       <c r="R77">
-        <v>83.33333333333331</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="S77">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="T77">
-        <v>0.1428571428571428</v>
+        <v>5.25</v>
       </c>
       <c r="U77">
-        <v>0.8</v>
+        <v>-145.2653299728532</v>
       </c>
       <c r="V77">
-        <v>5.25</v>
+        <v>4.913102412261128E-06</v>
       </c>
       <c r="W77">
-        <v>-145.2653299728532</v>
-      </c>
-      <c r="X77">
-        <v>4.913102412261128E-06</v>
-      </c>
-      <c r="Y77">
         <v>2.626163705247325E-06</v>
       </c>
     </row>
@@ -5087,63 +4729,57 @@
         <v>7.889588285317301</v>
       </c>
       <c r="F78">
-        <v>2.981183088915131</v>
+        <v>3.191968064821458</v>
       </c>
       <c r="G78">
         <v>2.981183088915131</v>
       </c>
       <c r="H78">
-        <v>3.191968064821458</v>
+        <v>2.333094283321873</v>
       </c>
       <c r="I78">
-        <v>2.981183088915131</v>
+        <v>3.857393380319974</v>
       </c>
       <c r="J78">
-        <v>2.333094283321873</v>
+        <v>2.256519307207477</v>
       </c>
       <c r="K78">
-        <v>3.857393380319974</v>
+        <v>3.319169710384994</v>
       </c>
       <c r="L78">
-        <v>2.256519307207477</v>
+        <v>2.886416321840229</v>
       </c>
       <c r="M78">
-        <v>3.319169710384994</v>
+        <v>3.543344307895508</v>
       </c>
       <c r="N78">
-        <v>2.886416321840229</v>
+        <v>311.8976754309683</v>
       </c>
       <c r="O78">
-        <v>3.543344307895508</v>
+        <v>17.06428571428571</v>
       </c>
       <c r="P78">
-        <v>311.8976754309683</v>
+        <v>954.1666666666667</v>
       </c>
       <c r="Q78">
-        <v>17.06428571428571</v>
+        <v>5.240963855421687</v>
       </c>
       <c r="R78">
-        <v>954.1666666666667</v>
+        <v>0.1986482515427564</v>
       </c>
       <c r="S78">
-        <v>5.240963855421687</v>
+        <v>0.5639325474787165</v>
       </c>
       <c r="T78">
-        <v>0.1986482515427564</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="U78">
-        <v>0.5639325474787165</v>
+        <v>33.75005801832501</v>
       </c>
       <c r="V78">
-        <v>4.833333333333333</v>
+        <v>1.756298497764723</v>
       </c>
       <c r="W78">
-        <v>33.75005801832501</v>
-      </c>
-      <c r="X78">
-        <v>1.756298497764723</v>
-      </c>
-      <c r="Y78">
         <v>1.268059864998568</v>
       </c>
     </row>
@@ -5166,60 +4802,54 @@
         <v>4.481903371611341</v>
       </c>
       <c r="F79">
-        <v>3.412674641314692</v>
+        <v>4.360637014999236</v>
       </c>
       <c r="G79">
         <v>3.412674641314692</v>
       </c>
       <c r="H79">
-        <v>4.360637014999236</v>
-      </c>
-      <c r="I79">
-        <v>3.412674641314692</v>
+        <v>2.317462949790293</v>
       </c>
       <c r="J79">
-        <v>2.317462949790293</v>
+        <v>2.090185266566263</v>
+      </c>
+      <c r="K79">
+        <v>4.122851368305231</v>
       </c>
       <c r="L79">
-        <v>2.090185266566263</v>
+        <v>3.084002790651654</v>
       </c>
       <c r="M79">
-        <v>4.122851368305231</v>
+        <v>3.728238917732858</v>
       </c>
       <c r="N79">
-        <v>3.084002790651654</v>
+        <v>224.6627324693638</v>
       </c>
       <c r="O79">
-        <v>3.728238917732858</v>
+        <v>12.01904761904762</v>
       </c>
       <c r="P79">
-        <v>224.6627324693638</v>
+        <v>658.3333333333334</v>
       </c>
       <c r="Q79">
-        <v>12.01904761904762</v>
+        <v>5.366666666666666</v>
       </c>
       <c r="R79">
-        <v>658.3333333333334</v>
+        <v>0.2022598870056497</v>
       </c>
       <c r="S79">
-        <v>5.366666666666666</v>
+        <v>0.5663939584644431</v>
       </c>
       <c r="T79">
-        <v>0.2022598870056497</v>
+        <v>5.035714285714286</v>
       </c>
       <c r="U79">
-        <v>0.5663939584644431</v>
+        <v>45.76442643335293</v>
       </c>
       <c r="V79">
-        <v>5.035714285714286</v>
+        <v>4.14282383307357</v>
       </c>
       <c r="W79">
-        <v>45.76442643335293</v>
-      </c>
-      <c r="X79">
-        <v>4.14282383307357</v>
-      </c>
-      <c r="Y79">
         <v>3.514451681672969</v>
       </c>
     </row>
@@ -5242,63 +4872,57 @@
         <v>7.005517789492697</v>
       </c>
       <c r="F80">
-        <v>3.519946402189226</v>
+        <v>3.801457764721713</v>
       </c>
       <c r="G80">
-        <v>3.519946402189226</v>
+        <v>3.519946402189227</v>
       </c>
       <c r="H80">
-        <v>3.801457764721713</v>
+        <v>2.670824130611186</v>
       </c>
       <c r="I80">
-        <v>3.519946402189227</v>
+        <v>4.705040500128061</v>
       </c>
       <c r="J80">
-        <v>2.670824130611186</v>
+        <v>2.572308558730151</v>
       </c>
       <c r="K80">
-        <v>4.705040500128061</v>
+        <v>3.97248950297865</v>
       </c>
       <c r="L80">
-        <v>2.572308558730151</v>
+        <v>3.37843804365306</v>
       </c>
       <c r="M80">
-        <v>3.97248950297865</v>
+        <v>4.026362149285998</v>
       </c>
       <c r="N80">
-        <v>3.37843804365306</v>
+        <v>266.6849175531525</v>
       </c>
       <c r="O80">
-        <v>4.026362149285998</v>
+        <v>14.39761904761905</v>
       </c>
       <c r="P80">
-        <v>266.6849175531525</v>
+        <v>783.3333333333333</v>
       </c>
       <c r="Q80">
-        <v>14.39761904761905</v>
+        <v>5.45945945945946</v>
       </c>
       <c r="R80">
-        <v>783.3333333333333</v>
+        <v>0.2158459829692706</v>
       </c>
       <c r="S80">
-        <v>5.45945945945946</v>
+        <v>0.6584896584896586</v>
       </c>
       <c r="T80">
-        <v>0.2158459829692706</v>
+        <v>5.078947368421052</v>
       </c>
       <c r="U80">
-        <v>0.6584896584896586</v>
+        <v>31.78313691481389</v>
       </c>
       <c r="V80">
-        <v>5.078947368421052</v>
+        <v>1.526097927638576</v>
       </c>
       <c r="W80">
-        <v>31.78313691481389</v>
-      </c>
-      <c r="X80">
-        <v>1.526097927638576</v>
-      </c>
-      <c r="Y80">
         <v>1.348914993800808</v>
       </c>
     </row>
@@ -5321,63 +4945,57 @@
         <v>5.955183032853493</v>
       </c>
       <c r="F81">
-        <v>3.379153032216818</v>
+        <v>3.914292661266461</v>
       </c>
       <c r="G81">
         <v>3.379153032216818</v>
       </c>
       <c r="H81">
-        <v>3.914292661266461</v>
+        <v>2.495364856481328</v>
       </c>
       <c r="I81">
-        <v>3.379153032216818</v>
+        <v>7.111065328164452</v>
       </c>
       <c r="J81">
-        <v>2.495364856481328</v>
+        <v>2.336525635099085</v>
       </c>
       <c r="K81">
-        <v>7.111065328164452</v>
+        <v>3.895819903279611</v>
       </c>
       <c r="L81">
-        <v>2.336525635099085</v>
+        <v>3.192138242254376</v>
       </c>
       <c r="M81">
-        <v>3.895819903279611</v>
+        <v>3.868907938899975</v>
       </c>
       <c r="N81">
-        <v>3.192138242254376</v>
+        <v>246.3038482848118</v>
       </c>
       <c r="O81">
-        <v>3.868907938899975</v>
+        <v>13.29523809523809</v>
       </c>
       <c r="P81">
-        <v>246.3038482848118</v>
+        <v>729.1666666666666</v>
       </c>
       <c r="Q81">
-        <v>13.29523809523809</v>
+        <v>5.388059701492537</v>
       </c>
       <c r="R81">
-        <v>729.1666666666666</v>
+        <v>0.2066938037087291</v>
       </c>
       <c r="S81">
-        <v>5.388059701492537</v>
+        <v>0.6095871808799566</v>
       </c>
       <c r="T81">
-        <v>0.2066938037087291</v>
+        <v>5</v>
       </c>
       <c r="U81">
-        <v>0.6095871808799566</v>
+        <v>34.46307382716295</v>
       </c>
       <c r="V81">
-        <v>5</v>
+        <v>1.848063194394128</v>
       </c>
       <c r="W81">
-        <v>34.46307382716295</v>
-      </c>
-      <c r="X81">
-        <v>1.848063194394128</v>
-      </c>
-      <c r="Y81">
         <v>1.63504678927746</v>
       </c>
     </row>
@@ -5399,60 +5017,54 @@
       <c r="E82">
         <v>195.1693315368337</v>
       </c>
-      <c r="F82">
-        <v>6.480740786679148</v>
-      </c>
       <c r="G82">
         <v>6.480740786679148</v>
       </c>
-      <c r="I82">
-        <v>6.480740786679148</v>
+      <c r="H82">
+        <v>6.467290996240612</v>
       </c>
       <c r="J82">
-        <v>6.467290996240612</v>
+        <v>6.408189492242049</v>
+      </c>
+      <c r="K82">
+        <v>6.508937094220555</v>
       </c>
       <c r="L82">
-        <v>6.408189492242049</v>
+        <v>6.480400516494711</v>
       </c>
       <c r="M82">
-        <v>6.508937094220555</v>
+        <v>3.496371524337679</v>
       </c>
       <c r="N82">
-        <v>6.480400516494711</v>
+        <v>12.97448373976215</v>
       </c>
       <c r="O82">
-        <v>3.496371524337679</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P82">
-        <v>12.97448373976215</v>
+        <v>25</v>
       </c>
       <c r="Q82">
-        <v>0.8571428571428571</v>
+        <v>7</v>
       </c>
       <c r="R82">
-        <v>25</v>
-      </c>
-      <c r="S82">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="T82">
-        <v>1</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+        <v>4.5</v>
+      </c>
+      <c r="U82">
+        <v>-148.4383398370912</v>
       </c>
       <c r="V82">
-        <v>4.5</v>
+        <v>3.916749248393302E-06</v>
       </c>
       <c r="W82">
-        <v>-148.4383398370912</v>
-      </c>
-      <c r="X82">
-        <v>3.916749248393302E-06</v>
-      </c>
-      <c r="Y82">
         <v>2.093590536762902E-06</v>
       </c>
     </row>
@@ -5475,63 +5087,57 @@
         <v>4.947517039807493</v>
       </c>
       <c r="F83">
-        <v>3.33080632180967</v>
+        <v>3.975559705741946</v>
       </c>
       <c r="G83">
         <v>3.33080632180967</v>
       </c>
       <c r="H83">
-        <v>3.975559705741946</v>
+        <v>2.312370563336405</v>
       </c>
       <c r="I83">
-        <v>3.33080632180967</v>
+        <v>8.15619809129481</v>
       </c>
       <c r="J83">
-        <v>2.312370563336405</v>
+        <v>2.1363694997872</v>
       </c>
       <c r="K83">
-        <v>8.15619809129481</v>
+        <v>3.952987421462442</v>
       </c>
       <c r="L83">
-        <v>2.1363694997872</v>
+        <v>3.065980416428009</v>
       </c>
       <c r="M83">
-        <v>3.952987421462442</v>
+        <v>3.751154111384848</v>
       </c>
       <c r="N83">
-        <v>3.065980416428009</v>
+        <v>246.4178783790861</v>
       </c>
       <c r="O83">
-        <v>3.751154111384848</v>
+        <v>13.26190476190476</v>
       </c>
       <c r="P83">
-        <v>246.4178783790861</v>
+        <v>729.1666666666667</v>
       </c>
       <c r="Q83">
-        <v>13.26190476190476</v>
+        <v>5.348484848484849</v>
       </c>
       <c r="R83">
-        <v>729.1666666666667</v>
+        <v>0.2018648018648019</v>
       </c>
       <c r="S83">
-        <v>5.348484848484849</v>
+        <v>0.5739886678086704</v>
       </c>
       <c r="T83">
-        <v>0.2018648018648019</v>
+        <v>4.966666666666667</v>
       </c>
       <c r="U83">
-        <v>0.5739886678086704</v>
+        <v>40.92977672655568</v>
       </c>
       <c r="V83">
-        <v>4.966666666666667</v>
+        <v>2.933057864838652</v>
       </c>
       <c r="W83">
-        <v>40.92977672655568</v>
-      </c>
-      <c r="X83">
-        <v>2.933057864838652</v>
-      </c>
-      <c r="Y83">
         <v>2.152763257615497</v>
       </c>
     </row>
@@ -5554,63 +5160,57 @@
         <v>9.304537753065764</v>
       </c>
       <c r="F84">
-        <v>3.641501179998304</v>
+        <v>3.858676915431632</v>
       </c>
       <c r="G84">
         <v>3.641501179998304</v>
       </c>
       <c r="H84">
-        <v>3.858676915431632</v>
+        <v>2.958101082701484</v>
       </c>
       <c r="I84">
-        <v>3.641501179998304</v>
+        <v>4.530730182459471</v>
       </c>
       <c r="J84">
-        <v>2.958101082701484</v>
+        <v>2.875568874441546</v>
       </c>
       <c r="K84">
-        <v>4.530730182459471</v>
+        <v>3.988674113077245</v>
       </c>
       <c r="L84">
-        <v>2.875568874441546</v>
+        <v>3.558022557935118</v>
       </c>
       <c r="M84">
-        <v>3.988674113077245</v>
+        <v>4.172945315210939</v>
       </c>
       <c r="N84">
-        <v>3.558022557935118</v>
+        <v>260.482355895035</v>
       </c>
       <c r="O84">
-        <v>4.172945315210939</v>
+        <v>13.93095238095238</v>
       </c>
       <c r="P84">
-        <v>260.482355895035</v>
+        <v>754.1666666666666</v>
       </c>
       <c r="Q84">
-        <v>13.93095238095238</v>
+        <v>5.52054794520548</v>
       </c>
       <c r="R84">
-        <v>754.1666666666666</v>
+        <v>0.226027397260274</v>
       </c>
       <c r="S84">
-        <v>5.52054794520548</v>
+        <v>0.7284034991798797</v>
       </c>
       <c r="T84">
-        <v>0.226027397260274</v>
+        <v>5.105263157894737</v>
       </c>
       <c r="U84">
-        <v>0.7284034991798797</v>
+        <v>33.46371615657429</v>
       </c>
       <c r="V84">
-        <v>5.105263157894737</v>
+        <v>1.720741801820826</v>
       </c>
       <c r="W84">
-        <v>33.46371615657429</v>
-      </c>
-      <c r="X84">
-        <v>1.720741801820826</v>
-      </c>
-      <c r="Y84">
         <v>1.165156365817537</v>
       </c>
     </row>
@@ -5633,60 +5233,54 @@
         <v>11.68350403042546</v>
       </c>
       <c r="F85">
-        <v>4.124224538917486</v>
+        <v>4.643795375562723</v>
       </c>
       <c r="G85">
-        <v>4.124224538917486</v>
+        <v>4.124224538917485</v>
       </c>
       <c r="H85">
-        <v>4.643795375562723</v>
-      </c>
-      <c r="I85">
-        <v>4.124224538917485</v>
+        <v>3.578518932182361</v>
       </c>
       <c r="J85">
-        <v>3.578518932182361</v>
+        <v>3.417180815210247</v>
+      </c>
+      <c r="K85">
+        <v>4.43442909423354</v>
       </c>
       <c r="L85">
-        <v>3.417180815210247</v>
+        <v>4.064092694639747</v>
       </c>
       <c r="M85">
-        <v>4.43442909423354</v>
+        <v>4.631503284296623</v>
       </c>
       <c r="N85">
-        <v>4.064092694639747</v>
+        <v>176.6880202201572</v>
       </c>
       <c r="O85">
-        <v>4.631503284296623</v>
+        <v>9.109523809523809</v>
       </c>
       <c r="P85">
-        <v>176.6880202201572</v>
+        <v>475</v>
       </c>
       <c r="Q85">
-        <v>9.109523809523809</v>
+        <v>5.72</v>
       </c>
       <c r="R85">
-        <v>475</v>
+        <v>0.2465306122448979</v>
       </c>
       <c r="S85">
-        <v>5.72</v>
+        <v>0.8608815426997244</v>
       </c>
       <c r="T85">
-        <v>0.2465306122448979</v>
+        <v>5.321428571428571</v>
       </c>
       <c r="U85">
-        <v>0.8608815426997244</v>
+        <v>34.03510359584375</v>
       </c>
       <c r="V85">
-        <v>5.321428571428571</v>
+        <v>1.792423951227986</v>
       </c>
       <c r="W85">
-        <v>34.03510359584375</v>
-      </c>
-      <c r="X85">
-        <v>1.792423951227986</v>
-      </c>
-      <c r="Y85">
         <v>1.248682657382776</v>
       </c>
     </row>
@@ -5708,63 +5302,57 @@
       <c r="E86">
         <v>5.837394285106033</v>
       </c>
-      <c r="F86">
-        <v>4.105437908287664</v>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="G86">
         <v>4.105437908287664</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
-      </c>
-      <c r="I86">
-        <v>4.105437908287664</v>
+      <c r="H86">
+        <v>3.237583701755559</v>
       </c>
       <c r="J86">
-        <v>3.237583701755559</v>
+        <v>2.817661774237047</v>
+      </c>
+      <c r="K86">
+        <v>4.746760700931054</v>
       </c>
       <c r="L86">
-        <v>2.817661774237047</v>
+        <v>3.869147377123373</v>
       </c>
       <c r="M86">
-        <v>4.746760700931054</v>
+        <v>4.255940954801153</v>
       </c>
       <c r="N86">
-        <v>3.869147377123373</v>
+        <v>137.6221798164316</v>
       </c>
       <c r="O86">
-        <v>4.255940954801153</v>
+        <v>6.764285714285714</v>
       </c>
       <c r="P86">
-        <v>137.6221798164316</v>
+        <v>354.1666666666667</v>
       </c>
       <c r="Q86">
-        <v>6.764285714285714</v>
+        <v>5.702702702702703</v>
       </c>
       <c r="R86">
-        <v>354.1666666666667</v>
+        <v>0.2387387387387387</v>
       </c>
       <c r="S86">
-        <v>5.702702702702703</v>
+        <v>0.8091016548463357</v>
       </c>
       <c r="T86">
-        <v>0.2387387387387387</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="U86">
-        <v>0.8091016548463357</v>
+        <v>47.18443863364426</v>
       </c>
       <c r="V86">
-        <v>5.333333333333333</v>
+        <v>4.585077843762735</v>
       </c>
       <c r="W86">
-        <v>47.18443863364426</v>
-      </c>
-      <c r="X86">
-        <v>4.585077843762735</v>
-      </c>
-      <c r="Y86">
         <v>3.415121409666289</v>
       </c>
     </row>
@@ -5786,57 +5374,51 @@
       <c r="E87">
         <v>179.1835870842763</v>
       </c>
-      <c r="F87">
-        <v>6.48074039435116</v>
-      </c>
       <c r="G87">
         <v>6.48074039435116</v>
       </c>
-      <c r="I87">
-        <v>6.48074039435116</v>
+      <c r="J87">
+        <v>6.401756086514158</v>
+      </c>
+      <c r="K87">
+        <v>6.511458167418546</v>
       </c>
       <c r="L87">
-        <v>6.401756086514158</v>
+        <v>6.480336703274455</v>
       </c>
       <c r="M87">
-        <v>6.511458167418546</v>
+        <v>3.495697803843817</v>
       </c>
       <c r="N87">
-        <v>6.480336703274455</v>
+        <v>4.324396697838851</v>
       </c>
       <c r="O87">
-        <v>3.495697803843817</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="P87">
-        <v>4.324396697838851</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="Q87">
-        <v>0.2857142857142857</v>
+        <v>7</v>
       </c>
       <c r="R87">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="S87">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="T87">
-        <v>1</v>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+        <v>5.5</v>
+      </c>
+      <c r="U87">
+        <v>-146.5694282153577</v>
       </c>
       <c r="V87">
-        <v>5.5</v>
+        <v>4.476116078566282E-06</v>
       </c>
       <c r="W87">
-        <v>-146.5694282153577</v>
-      </c>
-      <c r="X87">
-        <v>4.476116078566282E-06</v>
-      </c>
-      <c r="Y87">
         <v>2.392584684119054E-06</v>
       </c>
     </row>
@@ -5858,58 +5440,52 @@
       <c r="E88">
         <v>3.641184958464718</v>
       </c>
-      <c r="F88">
-        <v>4.358177256484416</v>
-      </c>
       <c r="G88">
-        <v>4.358177256484416</v>
-      </c>
-      <c r="I88">
         <v>4.358177256484415</v>
       </c>
+      <c r="H88">
+        <v>3.175568810202141</v>
+      </c>
       <c r="J88">
-        <v>3.175568810202141</v>
+        <v>2.383612574888251</v>
+      </c>
+      <c r="K88">
+        <v>5.50002311415246</v>
       </c>
       <c r="L88">
-        <v>2.383612574888251</v>
+        <v>3.733066901667499</v>
       </c>
       <c r="M88">
-        <v>5.50002311415246</v>
+        <v>3.583894324764637</v>
       </c>
       <c r="N88">
-        <v>3.733066901667499</v>
+        <v>103.7655221029591</v>
       </c>
       <c r="O88">
-        <v>3.583894324764637</v>
+        <v>5.545238095238095</v>
       </c>
       <c r="P88">
-        <v>103.7655221029591</v>
+        <v>291.6666666666667</v>
       </c>
       <c r="Q88">
-        <v>5.545238095238095</v>
+        <v>5.586206896551724</v>
       </c>
       <c r="R88">
-        <v>291.6666666666667</v>
+        <v>0.2118226600985222</v>
       </c>
       <c r="S88">
-        <v>5.586206896551724</v>
+        <v>0.5914205344585092</v>
       </c>
       <c r="T88">
-        <v>0.2118226600985222</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="U88">
-        <v>0.5914205344585092</v>
+        <v>44.6168033884766</v>
       </c>
       <c r="V88">
-        <v>5.333333333333333</v>
+        <v>3.816770193780398</v>
       </c>
       <c r="W88">
-        <v>44.6168033884766</v>
-      </c>
-      <c r="X88">
-        <v>3.816770193780398</v>
-      </c>
-      <c r="Y88">
         <v>2.842667112991226</v>
       </c>
     </row>
@@ -5931,58 +5507,52 @@
       <c r="E89">
         <v>7.370771169733088</v>
       </c>
-      <c r="F89">
-        <v>4.276625362943503</v>
-      </c>
       <c r="G89">
         <v>4.276625362943503</v>
       </c>
-      <c r="I89">
-        <v>4.276625362943503</v>
+      <c r="H89">
+        <v>3.72817676178057</v>
       </c>
       <c r="J89">
-        <v>3.72817676178057</v>
+        <v>3.1742282920082</v>
+      </c>
+      <c r="K89">
+        <v>4.797610550704561</v>
       </c>
       <c r="L89">
-        <v>3.1742282920082</v>
+        <v>4.121110174232256</v>
       </c>
       <c r="M89">
-        <v>4.797610550704561</v>
+        <v>4.538568306631001</v>
       </c>
       <c r="N89">
-        <v>4.121110174232256</v>
+        <v>98.24321031461233</v>
       </c>
       <c r="O89">
-        <v>4.538568306631001</v>
+        <v>4.985714285714286</v>
       </c>
       <c r="P89">
-        <v>98.24321031461233</v>
+        <v>254.1666666666667</v>
       </c>
       <c r="Q89">
-        <v>4.985714285714286</v>
+        <v>5.821428571428571</v>
       </c>
       <c r="R89">
-        <v>254.1666666666667</v>
+        <v>0.246031746031746</v>
       </c>
       <c r="S89">
-        <v>5.821428571428571</v>
+        <v>0.930011862396204</v>
       </c>
       <c r="T89">
-        <v>0.246031746031746</v>
+        <v>5.5</v>
       </c>
       <c r="U89">
-        <v>0.930011862396204</v>
+        <v>36.8998107920586</v>
       </c>
       <c r="V89">
-        <v>5.5</v>
+        <v>2.199413665333704</v>
       </c>
       <c r="W89">
-        <v>36.8998107920586</v>
-      </c>
-      <c r="X89">
-        <v>2.199413665333704</v>
-      </c>
-      <c r="Y89">
         <v>1.780399440762218</v>
       </c>
     </row>
@@ -6004,58 +5574,52 @@
       <c r="E90">
         <v>10.52916160888677</v>
       </c>
-      <c r="F90">
-        <v>4.026134403971429</v>
-      </c>
       <c r="G90">
         <v>4.026134403971429</v>
       </c>
-      <c r="I90">
-        <v>4.026134403971429</v>
+      <c r="H90">
+        <v>3.714838369292812</v>
       </c>
       <c r="J90">
-        <v>3.714838369292812</v>
+        <v>3.267832081473494</v>
+      </c>
+      <c r="K90">
+        <v>4.363516424518949</v>
       </c>
       <c r="L90">
-        <v>3.267832081473494</v>
+        <v>3.953937545045972</v>
       </c>
       <c r="M90">
-        <v>4.363516424518949</v>
+        <v>4.531259363654749</v>
       </c>
       <c r="N90">
-        <v>3.953937545045972</v>
+        <v>97.18901025882172</v>
       </c>
       <c r="O90">
-        <v>4.531259363654749</v>
+        <v>4.876190476190476</v>
       </c>
       <c r="P90">
-        <v>97.18901025882172</v>
+        <v>254.1666666666666</v>
       </c>
       <c r="Q90">
-        <v>4.876190476190476</v>
+        <v>5.74074074074074</v>
       </c>
       <c r="R90">
-        <v>254.1666666666666</v>
+        <v>0.2364672364672365</v>
       </c>
       <c r="S90">
-        <v>5.74074074074074</v>
+        <v>0.9251269035532995</v>
       </c>
       <c r="T90">
-        <v>0.2364672364672365</v>
+        <v>5.375</v>
       </c>
       <c r="U90">
-        <v>0.9251269035532995</v>
+        <v>21.60892054669952</v>
       </c>
       <c r="V90">
-        <v>5.375</v>
+        <v>0.7378493286016882</v>
       </c>
       <c r="W90">
-        <v>21.60892054669952</v>
-      </c>
-      <c r="X90">
-        <v>0.7378493286016882</v>
-      </c>
-      <c r="Y90">
         <v>0.5284394393635394</v>
       </c>
     </row>
@@ -6077,58 +5641,52 @@
       <c r="E91">
         <v>5.346418987670547</v>
       </c>
-      <c r="F91">
-        <v>4.455724717855245</v>
-      </c>
       <c r="G91">
         <v>4.455724717855245</v>
       </c>
-      <c r="I91">
-        <v>4.455724717855245</v>
+      <c r="H91">
+        <v>3.509488885475248</v>
       </c>
       <c r="J91">
-        <v>3.509488885475248</v>
+        <v>2.954172144144048</v>
+      </c>
+      <c r="K91">
+        <v>5.220897033679194</v>
       </c>
       <c r="L91">
-        <v>2.954172144144048</v>
+        <v>4.151158636426394</v>
       </c>
       <c r="M91">
-        <v>5.220897033679194</v>
+        <v>4.191337072626534</v>
       </c>
       <c r="N91">
-        <v>4.151158636426394</v>
+        <v>110.7151534553145</v>
       </c>
       <c r="O91">
-        <v>4.191337072626534</v>
+        <v>5.554761904761905</v>
       </c>
       <c r="P91">
-        <v>110.7151534553145</v>
+        <v>283.3333333333333</v>
       </c>
       <c r="Q91">
-        <v>5.554761904761905</v>
+        <v>5.806451612903226</v>
       </c>
       <c r="R91">
-        <v>283.3333333333333</v>
+        <v>0.2451612903225806</v>
       </c>
       <c r="S91">
-        <v>5.806451612903226</v>
+        <v>0.8415061295971979</v>
       </c>
       <c r="T91">
-        <v>0.2451612903225806</v>
+        <v>5.5</v>
       </c>
       <c r="U91">
-        <v>0.8415061295971979</v>
+        <v>42.97300343042183</v>
       </c>
       <c r="V91">
-        <v>5.5</v>
+        <v>3.39393590980926</v>
       </c>
       <c r="W91">
-        <v>42.97300343042183</v>
-      </c>
-      <c r="X91">
-        <v>3.39393590980926</v>
-      </c>
-      <c r="Y91">
         <v>2.7171710148068</v>
       </c>
     </row>
@@ -6176,58 +5734,52 @@
       <c r="E94">
         <v>9.836815836270718</v>
       </c>
-      <c r="F94">
-        <v>5.125061436881044</v>
-      </c>
       <c r="G94">
-        <v>5.125061436881044</v>
-      </c>
-      <c r="I94">
         <v>5.125061436881045</v>
       </c>
+      <c r="H94">
+        <v>5.340726297910415</v>
+      </c>
       <c r="J94">
-        <v>5.340726297910415</v>
+        <v>4.099131211699563</v>
+      </c>
+      <c r="K94">
+        <v>5.586080573780873</v>
       </c>
       <c r="L94">
-        <v>4.099131211699563</v>
+        <v>5.019858756478228</v>
       </c>
       <c r="M94">
-        <v>5.586080573780873</v>
+        <v>4.973543128669642</v>
       </c>
       <c r="N94">
-        <v>5.019858756478228</v>
+        <v>30.38112167220381</v>
       </c>
       <c r="O94">
-        <v>4.973543128669642</v>
+        <v>1.471428571428572</v>
       </c>
       <c r="P94">
-        <v>30.38112167220381</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="Q94">
-        <v>1.471428571428572</v>
+        <v>6.222222222222222</v>
       </c>
       <c r="R94">
-        <v>66.66666666666666</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="S94">
-        <v>6.222222222222222</v>
+        <v>1.62</v>
       </c>
       <c r="T94">
-        <v>0.2777777777777778</v>
+        <v>6</v>
       </c>
       <c r="U94">
-        <v>1.62</v>
+        <v>23.4056419295416</v>
       </c>
       <c r="V94">
-        <v>6</v>
+        <v>0.8388877301282839</v>
       </c>
       <c r="W94">
-        <v>23.4056419295416</v>
-      </c>
-      <c r="X94">
-        <v>0.8388877301282839</v>
-      </c>
-      <c r="Y94">
         <v>0.6320809056875829</v>
       </c>
     </row>
@@ -6262,60 +5814,54 @@
       <c r="E96">
         <v>184.5827516720262</v>
       </c>
-      <c r="F96">
-        <v>6.480741421711892</v>
-      </c>
       <c r="G96">
-        <v>6.480741421711892</v>
-      </c>
-      <c r="I96">
         <v>6.480741421711891</v>
       </c>
+      <c r="H96">
+        <v>6.529597760949039</v>
+      </c>
       <c r="J96">
-        <v>6.529597760949039</v>
+        <v>6.40405371929852</v>
+      </c>
+      <c r="K96">
+        <v>6.510558621048612</v>
       </c>
       <c r="L96">
-        <v>6.40405371929852</v>
+        <v>6.480361001170294</v>
       </c>
       <c r="M96">
-        <v>6.510558621048612</v>
+        <v>3.495939281035708</v>
       </c>
       <c r="N96">
-        <v>6.480361001170294</v>
+        <v>6.486821294270757</v>
       </c>
       <c r="O96">
-        <v>3.495939281035708</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="P96">
-        <v>6.486821294270757</v>
+        <v>12.5</v>
       </c>
       <c r="Q96">
-        <v>0.4285714285714285</v>
+        <v>7</v>
       </c>
       <c r="R96">
-        <v>12.5</v>
-      </c>
-      <c r="S96">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="T96">
-        <v>1</v>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="U96">
+        <v>-146.718906149696</v>
       </c>
       <c r="V96">
-        <v>5</v>
+        <v>4.428578837236228E-06</v>
       </c>
       <c r="W96">
-        <v>-146.718906149696</v>
-      </c>
-      <c r="X96">
-        <v>4.428578837236228E-06</v>
-      </c>
-      <c r="Y96">
         <v>2.367174959391358E-06</v>
       </c>
     </row>
@@ -6376,55 +5922,49 @@
       <c r="E100">
         <v>143.9493858137125</v>
       </c>
-      <c r="F100">
-        <v>5.477225467539248</v>
-      </c>
       <c r="G100">
         <v>5.477225467539248</v>
       </c>
-      <c r="I100">
-        <v>5.477225467539248</v>
+      <c r="J100">
+        <v>5.394256638695284</v>
+      </c>
+      <c r="K100">
+        <v>5.509559932994044</v>
       </c>
       <c r="L100">
-        <v>5.394256638695284</v>
+        <v>5.476696831205251</v>
       </c>
       <c r="M100">
-        <v>5.509559932994044</v>
+        <v>5.977659700600321</v>
       </c>
       <c r="N100">
-        <v>5.476696831205251</v>
+        <v>6.343082117504698</v>
       </c>
       <c r="O100">
-        <v>5.977659700600321</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="P100">
-        <v>6.343082117504698</v>
+        <v>12.5</v>
       </c>
       <c r="Q100">
-        <v>0.3095238095238095</v>
+        <v>6.5</v>
       </c>
       <c r="R100">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="S100">
+        <v>4</v>
+      </c>
+      <c r="T100">
         <v>6.5</v>
       </c>
-      <c r="T100">
-        <v>0</v>
-      </c>
       <c r="U100">
-        <v>4</v>
+        <v>-146.6401331787996</v>
       </c>
       <c r="V100">
-        <v>6.5</v>
+        <v>4.453567093557385E-06</v>
       </c>
       <c r="W100">
-        <v>-146.6401331787996</v>
-      </c>
-      <c r="X100">
-        <v>4.453567093557385E-06</v>
-      </c>
-      <c r="Y100">
         <v>2.380531744973181E-06</v>
       </c>
     </row>
